--- a/Google Earth Engine/LSWI_zones_hum_buf.xlsx
+++ b/Google Earth Engine/LSWI_zones_hum_buf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VE-UGR-0208\Desktop\TFM\rTFM\Google Earth Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B146DBD3-14B3-4D54-97CE-3A6E5F613107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD650C7-3884-4CE4-AE60-809C0F2398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="729">
   <si>
     <t>wetland</t>
   </si>
@@ -2142,6 +2142,96 @@
   </si>
   <si>
     <t>2021,0.02702679834813372</t>
+  </si>
+  <si>
+    <t>zone01_</t>
+  </si>
+  <si>
+    <t>albufera_honda</t>
+  </si>
+  <si>
+    <t>zone02_</t>
+  </si>
+  <si>
+    <t>albufera_nueva</t>
+  </si>
+  <si>
+    <t>zone03_</t>
+  </si>
+  <si>
+    <t>barranco_del_agua</t>
+  </si>
+  <si>
+    <t>zone04_</t>
+  </si>
+  <si>
+    <t>canada_de_las_norias</t>
+  </si>
+  <si>
+    <t>zone05_</t>
+  </si>
+  <si>
+    <t>cola_del_embalse_del_negratin</t>
+  </si>
+  <si>
+    <t>zone06_</t>
+  </si>
+  <si>
+    <t>charcones_de_punta_entinas</t>
+  </si>
+  <si>
+    <t>zone07_</t>
+  </si>
+  <si>
+    <t>humedales_de_baza</t>
+  </si>
+  <si>
+    <t>zone08_</t>
+  </si>
+  <si>
+    <t>laguna_de_la_gravera</t>
+  </si>
+  <si>
+    <t>zone09_</t>
+  </si>
+  <si>
+    <t>rambla_morales</t>
+  </si>
+  <si>
+    <t>zone10_</t>
+  </si>
+  <si>
+    <t>ribera_de_la_algaida</t>
+  </si>
+  <si>
+    <t>zone11_</t>
+  </si>
+  <si>
+    <t>rio_antas</t>
+  </si>
+  <si>
+    <t>zone12_</t>
+  </si>
+  <si>
+    <t>salinas_de_cabo_de_gata</t>
+  </si>
+  <si>
+    <t>zone13_</t>
+  </si>
+  <si>
+    <t>salar_de_los_canos</t>
+  </si>
+  <si>
+    <t>zone14_</t>
+  </si>
+  <si>
+    <t>salinas_de_cerrillos</t>
+  </si>
+  <si>
+    <t>zone15_</t>
+  </si>
+  <si>
+    <t>saladar_del_margen</t>
   </si>
 </sst>
 </file>
@@ -2471,19 +2561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H691"/>
+  <dimension ref="A1:M691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="H669" sqref="H669:H691"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347:B691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2597,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>700</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -2516,8 +2610,17 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>699</v>
+      </c>
+      <c r="M2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>700</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -2527,8 +2630,17 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>701</v>
+      </c>
+      <c r="M3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>700</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -2538,8 +2650,17 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>703</v>
+      </c>
+      <c r="M4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -2549,8 +2670,17 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>705</v>
+      </c>
+      <c r="M5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>700</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
@@ -2560,8 +2690,17 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>707</v>
+      </c>
+      <c r="M6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>700</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -2571,8 +2710,17 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>709</v>
+      </c>
+      <c r="M7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>700</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -2582,8 +2730,17 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>711</v>
+      </c>
+      <c r="M8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>700</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -2593,8 +2750,17 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>713</v>
+      </c>
+      <c r="M9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>700</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -2604,8 +2770,17 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>715</v>
+      </c>
+      <c r="M10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>700</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -2615,8 +2790,17 @@
       <c r="H11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>717</v>
+      </c>
+      <c r="M11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>700</v>
+      </c>
       <c r="B12">
         <v>1</v>
       </c>
@@ -2626,8 +2810,17 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>719</v>
+      </c>
+      <c r="M12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>700</v>
+      </c>
       <c r="B13">
         <v>1</v>
       </c>
@@ -2637,8 +2830,17 @@
       <c r="H13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>721</v>
+      </c>
+      <c r="M13" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>700</v>
+      </c>
       <c r="B14">
         <v>1</v>
       </c>
@@ -2648,8 +2850,17 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>723</v>
+      </c>
+      <c r="M14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>700</v>
+      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -2659,8 +2870,17 @@
       <c r="H15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>725</v>
+      </c>
+      <c r="M15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>700</v>
+      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -2670,8 +2890,17 @@
       <c r="H16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>727</v>
+      </c>
+      <c r="M16" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>700</v>
+      </c>
       <c r="B17">
         <v>1</v>
       </c>
@@ -2682,7 +2911,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>700</v>
+      </c>
       <c r="B18">
         <v>1</v>
       </c>
@@ -2693,7 +2925,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>700</v>
+      </c>
       <c r="B19">
         <v>1</v>
       </c>
@@ -2704,7 +2939,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>700</v>
+      </c>
       <c r="B20">
         <v>1</v>
       </c>
@@ -2715,7 +2953,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>700</v>
+      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -2726,7 +2967,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>700</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
@@ -2737,7 +2981,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>700</v>
+      </c>
       <c r="B23">
         <v>1</v>
       </c>
@@ -2748,7 +2995,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>700</v>
+      </c>
       <c r="B24">
         <v>1</v>
       </c>
@@ -2759,7 +3009,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>702</v>
+      </c>
       <c r="B25">
         <v>2</v>
       </c>
@@ -2770,7 +3023,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>702</v>
+      </c>
       <c r="B26">
         <v>2</v>
       </c>
@@ -2781,7 +3037,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>702</v>
+      </c>
       <c r="B27">
         <v>2</v>
       </c>
@@ -2792,7 +3051,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>702</v>
+      </c>
       <c r="B28">
         <v>2</v>
       </c>
@@ -2803,7 +3065,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>702</v>
+      </c>
       <c r="B29">
         <v>2</v>
       </c>
@@ -2814,7 +3079,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>702</v>
+      </c>
       <c r="B30">
         <v>2</v>
       </c>
@@ -2825,7 +3093,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>702</v>
+      </c>
       <c r="B31">
         <v>2</v>
       </c>
@@ -2836,7 +3107,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>702</v>
+      </c>
       <c r="B32">
         <v>2</v>
       </c>
@@ -2847,7 +3121,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>702</v>
+      </c>
       <c r="B33">
         <v>2</v>
       </c>
@@ -2858,7 +3135,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>702</v>
+      </c>
       <c r="B34">
         <v>2</v>
       </c>
@@ -2869,7 +3149,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>702</v>
+      </c>
       <c r="B35">
         <v>2</v>
       </c>
@@ -2880,7 +3163,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>702</v>
+      </c>
       <c r="B36">
         <v>2</v>
       </c>
@@ -2891,7 +3177,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>702</v>
+      </c>
       <c r="B37">
         <v>2</v>
       </c>
@@ -2902,7 +3191,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>702</v>
+      </c>
       <c r="B38">
         <v>2</v>
       </c>
@@ -2913,7 +3205,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>702</v>
+      </c>
       <c r="B39">
         <v>2</v>
       </c>
@@ -2924,7 +3219,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>702</v>
+      </c>
       <c r="B40">
         <v>2</v>
       </c>
@@ -2935,7 +3233,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>702</v>
+      </c>
       <c r="B41">
         <v>2</v>
       </c>
@@ -2946,7 +3247,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>702</v>
+      </c>
       <c r="B42">
         <v>2</v>
       </c>
@@ -2957,7 +3261,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>702</v>
+      </c>
       <c r="B43">
         <v>2</v>
       </c>
@@ -2968,7 +3275,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>702</v>
+      </c>
       <c r="B44">
         <v>2</v>
       </c>
@@ -2979,7 +3289,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>702</v>
+      </c>
       <c r="B45">
         <v>2</v>
       </c>
@@ -2990,7 +3303,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>702</v>
+      </c>
       <c r="B46">
         <v>2</v>
       </c>
@@ -3001,7 +3317,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>702</v>
+      </c>
       <c r="B47">
         <v>2</v>
       </c>
@@ -3012,7 +3331,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>704</v>
+      </c>
       <c r="B48">
         <v>3</v>
       </c>
@@ -3023,7 +3345,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>704</v>
+      </c>
       <c r="B49">
         <v>3</v>
       </c>
@@ -3034,7 +3359,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>704</v>
+      </c>
       <c r="B50">
         <v>3</v>
       </c>
@@ -3045,7 +3373,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>704</v>
+      </c>
       <c r="B51">
         <v>3</v>
       </c>
@@ -3056,7 +3387,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>704</v>
+      </c>
       <c r="B52">
         <v>3</v>
       </c>
@@ -3067,7 +3401,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>704</v>
+      </c>
       <c r="B53">
         <v>3</v>
       </c>
@@ -3078,7 +3415,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>704</v>
+      </c>
       <c r="B54">
         <v>3</v>
       </c>
@@ -3089,7 +3429,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>704</v>
+      </c>
       <c r="B55">
         <v>3</v>
       </c>
@@ -3100,7 +3443,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>704</v>
+      </c>
       <c r="B56">
         <v>3</v>
       </c>
@@ -3111,7 +3457,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>704</v>
+      </c>
       <c r="B57">
         <v>3</v>
       </c>
@@ -3122,7 +3471,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>704</v>
+      </c>
       <c r="B58">
         <v>3</v>
       </c>
@@ -3133,7 +3485,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>704</v>
+      </c>
       <c r="B59">
         <v>3</v>
       </c>
@@ -3144,7 +3499,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>704</v>
+      </c>
       <c r="B60">
         <v>3</v>
       </c>
@@ -3155,7 +3513,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>704</v>
+      </c>
       <c r="B61">
         <v>3</v>
       </c>
@@ -3166,7 +3527,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>704</v>
+      </c>
       <c r="B62">
         <v>3</v>
       </c>
@@ -3177,7 +3541,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>704</v>
+      </c>
       <c r="B63">
         <v>3</v>
       </c>
@@ -3188,7 +3555,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>704</v>
+      </c>
       <c r="B64">
         <v>3</v>
       </c>
@@ -3199,7 +3569,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>704</v>
+      </c>
       <c r="B65">
         <v>3</v>
       </c>
@@ -3210,7 +3583,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>704</v>
+      </c>
       <c r="B66">
         <v>3</v>
       </c>
@@ -3221,7 +3597,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>704</v>
+      </c>
       <c r="B67">
         <v>3</v>
       </c>
@@ -3232,7 +3611,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>704</v>
+      </c>
       <c r="B68">
         <v>3</v>
       </c>
@@ -3243,7 +3625,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>704</v>
+      </c>
       <c r="B69">
         <v>3</v>
       </c>
@@ -3254,7 +3639,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>704</v>
+      </c>
       <c r="B70">
         <v>3</v>
       </c>
@@ -3265,7 +3653,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>706</v>
+      </c>
       <c r="B71">
         <v>4</v>
       </c>
@@ -3276,7 +3667,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>706</v>
+      </c>
       <c r="B72">
         <v>4</v>
       </c>
@@ -3287,7 +3681,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>706</v>
+      </c>
       <c r="B73">
         <v>4</v>
       </c>
@@ -3298,7 +3695,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>706</v>
+      </c>
       <c r="B74">
         <v>4</v>
       </c>
@@ -3309,7 +3709,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>706</v>
+      </c>
       <c r="B75">
         <v>4</v>
       </c>
@@ -3320,7 +3723,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>706</v>
+      </c>
       <c r="B76">
         <v>4</v>
       </c>
@@ -3331,7 +3737,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>706</v>
+      </c>
       <c r="B77">
         <v>4</v>
       </c>
@@ -3342,7 +3751,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>706</v>
+      </c>
       <c r="B78">
         <v>4</v>
       </c>
@@ -3353,7 +3765,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>706</v>
+      </c>
       <c r="B79">
         <v>4</v>
       </c>
@@ -3364,7 +3779,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>706</v>
+      </c>
       <c r="B80">
         <v>4</v>
       </c>
@@ -3375,7 +3793,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>706</v>
+      </c>
       <c r="B81">
         <v>4</v>
       </c>
@@ -3386,7 +3807,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>706</v>
+      </c>
       <c r="B82">
         <v>4</v>
       </c>
@@ -3397,7 +3821,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>706</v>
+      </c>
       <c r="B83">
         <v>4</v>
       </c>
@@ -3408,7 +3835,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>706</v>
+      </c>
       <c r="B84">
         <v>4</v>
       </c>
@@ -3419,7 +3849,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>706</v>
+      </c>
       <c r="B85">
         <v>4</v>
       </c>
@@ -3430,7 +3863,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>706</v>
+      </c>
       <c r="B86">
         <v>4</v>
       </c>
@@ -3441,7 +3877,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>706</v>
+      </c>
       <c r="B87">
         <v>4</v>
       </c>
@@ -3452,7 +3891,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>706</v>
+      </c>
       <c r="B88">
         <v>4</v>
       </c>
@@ -3463,7 +3905,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>706</v>
+      </c>
       <c r="B89">
         <v>4</v>
       </c>
@@ -3474,7 +3919,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>706</v>
+      </c>
       <c r="B90">
         <v>4</v>
       </c>
@@ -3485,7 +3933,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>706</v>
+      </c>
       <c r="B91">
         <v>4</v>
       </c>
@@ -3496,7 +3947,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>706</v>
+      </c>
       <c r="B92">
         <v>4</v>
       </c>
@@ -3507,7 +3961,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>706</v>
+      </c>
       <c r="B93">
         <v>4</v>
       </c>
@@ -3518,7 +3975,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>708</v>
+      </c>
       <c r="B94">
         <v>5</v>
       </c>
@@ -3529,7 +3989,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>708</v>
+      </c>
       <c r="B95">
         <v>5</v>
       </c>
@@ -3540,7 +4003,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>708</v>
+      </c>
       <c r="B96">
         <v>5</v>
       </c>
@@ -3551,7 +4017,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>708</v>
+      </c>
       <c r="B97">
         <v>5</v>
       </c>
@@ -3562,7 +4031,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>708</v>
+      </c>
       <c r="B98">
         <v>5</v>
       </c>
@@ -3573,7 +4045,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>708</v>
+      </c>
       <c r="B99">
         <v>5</v>
       </c>
@@ -3584,7 +4059,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>708</v>
+      </c>
       <c r="B100">
         <v>5</v>
       </c>
@@ -3595,7 +4073,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>708</v>
+      </c>
       <c r="B101">
         <v>5</v>
       </c>
@@ -3606,7 +4087,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>708</v>
+      </c>
       <c r="B102">
         <v>5</v>
       </c>
@@ -3617,7 +4101,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>708</v>
+      </c>
       <c r="B103">
         <v>5</v>
       </c>
@@ -3628,7 +4115,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>708</v>
+      </c>
       <c r="B104">
         <v>5</v>
       </c>
@@ -3639,7 +4129,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>708</v>
+      </c>
       <c r="B105">
         <v>5</v>
       </c>
@@ -3650,7 +4143,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>708</v>
+      </c>
       <c r="B106">
         <v>5</v>
       </c>
@@ -3661,7 +4157,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>708</v>
+      </c>
       <c r="B107">
         <v>5</v>
       </c>
@@ -3672,7 +4171,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>708</v>
+      </c>
       <c r="B108">
         <v>5</v>
       </c>
@@ -3683,7 +4185,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>708</v>
+      </c>
       <c r="B109">
         <v>5</v>
       </c>
@@ -3694,7 +4199,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>708</v>
+      </c>
       <c r="B110">
         <v>5</v>
       </c>
@@ -3705,7 +4213,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>708</v>
+      </c>
       <c r="B111">
         <v>5</v>
       </c>
@@ -3716,7 +4227,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>708</v>
+      </c>
       <c r="B112">
         <v>5</v>
       </c>
@@ -3727,7 +4241,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>708</v>
+      </c>
       <c r="B113">
         <v>5</v>
       </c>
@@ -3738,7 +4255,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>708</v>
+      </c>
       <c r="B114">
         <v>5</v>
       </c>
@@ -3749,7 +4269,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>708</v>
+      </c>
       <c r="B115">
         <v>5</v>
       </c>
@@ -3760,7 +4283,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>708</v>
+      </c>
       <c r="B116">
         <v>5</v>
       </c>
@@ -3771,7 +4297,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>710</v>
+      </c>
       <c r="B117">
         <v>6</v>
       </c>
@@ -3782,7 +4311,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>710</v>
+      </c>
       <c r="B118">
         <v>6</v>
       </c>
@@ -3793,7 +4325,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>710</v>
+      </c>
       <c r="B119">
         <v>6</v>
       </c>
@@ -3804,7 +4339,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>710</v>
+      </c>
       <c r="B120">
         <v>6</v>
       </c>
@@ -3815,7 +4353,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>710</v>
+      </c>
       <c r="B121">
         <v>6</v>
       </c>
@@ -3826,7 +4367,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>710</v>
+      </c>
       <c r="B122">
         <v>6</v>
       </c>
@@ -3837,7 +4381,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>710</v>
+      </c>
       <c r="B123">
         <v>6</v>
       </c>
@@ -3848,7 +4395,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>710</v>
+      </c>
       <c r="B124">
         <v>6</v>
       </c>
@@ -3859,7 +4409,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>710</v>
+      </c>
       <c r="B125">
         <v>6</v>
       </c>
@@ -3870,7 +4423,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>710</v>
+      </c>
       <c r="B126">
         <v>6</v>
       </c>
@@ -3881,7 +4437,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>710</v>
+      </c>
       <c r="B127">
         <v>6</v>
       </c>
@@ -3892,7 +4451,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>710</v>
+      </c>
       <c r="B128">
         <v>6</v>
       </c>
@@ -3903,7 +4465,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>710</v>
+      </c>
       <c r="B129">
         <v>6</v>
       </c>
@@ -3914,7 +4479,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>710</v>
+      </c>
       <c r="B130">
         <v>6</v>
       </c>
@@ -3925,7 +4493,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>710</v>
+      </c>
       <c r="B131">
         <v>6</v>
       </c>
@@ -3936,7 +4507,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>710</v>
+      </c>
       <c r="B132">
         <v>6</v>
       </c>
@@ -3947,7 +4521,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>710</v>
+      </c>
       <c r="B133">
         <v>6</v>
       </c>
@@ -3958,7 +4535,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>710</v>
+      </c>
       <c r="B134">
         <v>6</v>
       </c>
@@ -3969,7 +4549,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>710</v>
+      </c>
       <c r="B135">
         <v>6</v>
       </c>
@@ -3980,7 +4563,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>710</v>
+      </c>
       <c r="B136">
         <v>6</v>
       </c>
@@ -3991,7 +4577,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>710</v>
+      </c>
       <c r="B137">
         <v>6</v>
       </c>
@@ -4002,7 +4591,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>710</v>
+      </c>
       <c r="B138">
         <v>6</v>
       </c>
@@ -4013,7 +4605,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>710</v>
+      </c>
       <c r="B139">
         <v>6</v>
       </c>
@@ -4024,7 +4619,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>712</v>
+      </c>
       <c r="B140">
         <v>7</v>
       </c>
@@ -4035,7 +4633,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>712</v>
+      </c>
       <c r="B141">
         <v>7</v>
       </c>
@@ -4046,7 +4647,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>712</v>
+      </c>
       <c r="B142">
         <v>7</v>
       </c>
@@ -4057,7 +4661,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>712</v>
+      </c>
       <c r="B143">
         <v>7</v>
       </c>
@@ -4068,7 +4675,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>712</v>
+      </c>
       <c r="B144">
         <v>7</v>
       </c>
@@ -4079,7 +4689,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>712</v>
+      </c>
       <c r="B145">
         <v>7</v>
       </c>
@@ -4090,7 +4703,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>712</v>
+      </c>
       <c r="B146">
         <v>7</v>
       </c>
@@ -4101,7 +4717,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>712</v>
+      </c>
       <c r="B147">
         <v>7</v>
       </c>
@@ -4112,7 +4731,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>712</v>
+      </c>
       <c r="B148">
         <v>7</v>
       </c>
@@ -4123,7 +4745,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>712</v>
+      </c>
       <c r="B149">
         <v>7</v>
       </c>
@@ -4134,7 +4759,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>712</v>
+      </c>
       <c r="B150">
         <v>7</v>
       </c>
@@ -4145,7 +4773,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>712</v>
+      </c>
       <c r="B151">
         <v>7</v>
       </c>
@@ -4156,7 +4787,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>712</v>
+      </c>
       <c r="B152">
         <v>7</v>
       </c>
@@ -4167,7 +4801,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>712</v>
+      </c>
       <c r="B153">
         <v>7</v>
       </c>
@@ -4178,7 +4815,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>712</v>
+      </c>
       <c r="B154">
         <v>7</v>
       </c>
@@ -4189,7 +4829,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>712</v>
+      </c>
       <c r="B155">
         <v>7</v>
       </c>
@@ -4200,7 +4843,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>712</v>
+      </c>
       <c r="B156">
         <v>7</v>
       </c>
@@ -4211,7 +4857,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>712</v>
+      </c>
       <c r="B157">
         <v>7</v>
       </c>
@@ -4222,7 +4871,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>712</v>
+      </c>
       <c r="B158">
         <v>7</v>
       </c>
@@ -4233,7 +4885,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>712</v>
+      </c>
       <c r="B159">
         <v>7</v>
       </c>
@@ -4244,7 +4899,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>712</v>
+      </c>
       <c r="B160">
         <v>7</v>
       </c>
@@ -4255,7 +4913,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>712</v>
+      </c>
       <c r="B161">
         <v>7</v>
       </c>
@@ -4266,7 +4927,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>712</v>
+      </c>
       <c r="B162">
         <v>7</v>
       </c>
@@ -4277,7 +4941,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>714</v>
+      </c>
       <c r="B163">
         <v>8</v>
       </c>
@@ -4288,7 +4955,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>714</v>
+      </c>
       <c r="B164">
         <v>8</v>
       </c>
@@ -4299,7 +4969,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>714</v>
+      </c>
       <c r="B165">
         <v>8</v>
       </c>
@@ -4310,7 +4983,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>714</v>
+      </c>
       <c r="B166">
         <v>8</v>
       </c>
@@ -4321,7 +4997,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>714</v>
+      </c>
       <c r="B167">
         <v>8</v>
       </c>
@@ -4332,7 +5011,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>714</v>
+      </c>
       <c r="B168">
         <v>8</v>
       </c>
@@ -4343,7 +5025,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>714</v>
+      </c>
       <c r="B169">
         <v>8</v>
       </c>
@@ -4354,7 +5039,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>714</v>
+      </c>
       <c r="B170">
         <v>8</v>
       </c>
@@ -4365,7 +5053,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>714</v>
+      </c>
       <c r="B171">
         <v>8</v>
       </c>
@@ -4376,7 +5067,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>714</v>
+      </c>
       <c r="B172">
         <v>8</v>
       </c>
@@ -4387,7 +5081,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>714</v>
+      </c>
       <c r="B173">
         <v>8</v>
       </c>
@@ -4398,7 +5095,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>714</v>
+      </c>
       <c r="B174">
         <v>8</v>
       </c>
@@ -4409,7 +5109,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>714</v>
+      </c>
       <c r="B175">
         <v>8</v>
       </c>
@@ -4420,7 +5123,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>714</v>
+      </c>
       <c r="B176">
         <v>8</v>
       </c>
@@ -4431,7 +5137,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>714</v>
+      </c>
       <c r="B177">
         <v>8</v>
       </c>
@@ -4442,7 +5151,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>714</v>
+      </c>
       <c r="B178">
         <v>8</v>
       </c>
@@ -4453,7 +5165,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>714</v>
+      </c>
       <c r="B179">
         <v>8</v>
       </c>
@@ -4464,7 +5179,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>714</v>
+      </c>
       <c r="B180">
         <v>8</v>
       </c>
@@ -4475,7 +5193,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>714</v>
+      </c>
       <c r="B181">
         <v>8</v>
       </c>
@@ -4486,7 +5207,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>714</v>
+      </c>
       <c r="B182">
         <v>8</v>
       </c>
@@ -4497,7 +5221,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>714</v>
+      </c>
       <c r="B183">
         <v>8</v>
       </c>
@@ -4508,7 +5235,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>714</v>
+      </c>
       <c r="B184">
         <v>8</v>
       </c>
@@ -4519,7 +5249,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>714</v>
+      </c>
       <c r="B185">
         <v>8</v>
       </c>
@@ -4530,7 +5263,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>716</v>
+      </c>
       <c r="B186">
         <v>9</v>
       </c>
@@ -4541,7 +5277,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>716</v>
+      </c>
       <c r="B187">
         <v>9</v>
       </c>
@@ -4552,7 +5291,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>716</v>
+      </c>
       <c r="B188">
         <v>9</v>
       </c>
@@ -4563,7 +5305,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>716</v>
+      </c>
       <c r="B189">
         <v>9</v>
       </c>
@@ -4574,7 +5319,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>716</v>
+      </c>
       <c r="B190">
         <v>9</v>
       </c>
@@ -4585,7 +5333,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>716</v>
+      </c>
       <c r="B191">
         <v>9</v>
       </c>
@@ -4596,7 +5347,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>716</v>
+      </c>
       <c r="B192">
         <v>9</v>
       </c>
@@ -4607,7 +5361,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>716</v>
+      </c>
       <c r="B193">
         <v>9</v>
       </c>
@@ -4618,7 +5375,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>716</v>
+      </c>
       <c r="B194">
         <v>9</v>
       </c>
@@ -4629,7 +5389,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>716</v>
+      </c>
       <c r="B195">
         <v>9</v>
       </c>
@@ -4640,7 +5403,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>716</v>
+      </c>
       <c r="B196">
         <v>9</v>
       </c>
@@ -4651,7 +5417,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>716</v>
+      </c>
       <c r="B197">
         <v>9</v>
       </c>
@@ -4662,7 +5431,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>716</v>
+      </c>
       <c r="B198">
         <v>9</v>
       </c>
@@ -4673,7 +5445,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>716</v>
+      </c>
       <c r="B199">
         <v>9</v>
       </c>
@@ -4684,7 +5459,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>716</v>
+      </c>
       <c r="B200">
         <v>9</v>
       </c>
@@ -4695,7 +5473,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>716</v>
+      </c>
       <c r="B201">
         <v>9</v>
       </c>
@@ -4706,7 +5487,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>716</v>
+      </c>
       <c r="B202">
         <v>9</v>
       </c>
@@ -4717,7 +5501,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>716</v>
+      </c>
       <c r="B203">
         <v>9</v>
       </c>
@@ -4728,7 +5515,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>716</v>
+      </c>
       <c r="B204">
         <v>9</v>
       </c>
@@ -4739,7 +5529,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>716</v>
+      </c>
       <c r="B205">
         <v>9</v>
       </c>
@@ -4750,7 +5543,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>716</v>
+      </c>
       <c r="B206">
         <v>9</v>
       </c>
@@ -4761,7 +5557,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>716</v>
+      </c>
       <c r="B207">
         <v>9</v>
       </c>
@@ -4772,7 +5571,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>716</v>
+      </c>
       <c r="B208">
         <v>9</v>
       </c>
@@ -4783,7 +5585,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>718</v>
+      </c>
       <c r="B209">
         <v>10</v>
       </c>
@@ -4794,7 +5599,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>718</v>
+      </c>
       <c r="B210">
         <v>10</v>
       </c>
@@ -4805,7 +5613,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>718</v>
+      </c>
       <c r="B211">
         <v>10</v>
       </c>
@@ -4816,7 +5627,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>718</v>
+      </c>
       <c r="B212">
         <v>10</v>
       </c>
@@ -4827,7 +5641,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>718</v>
+      </c>
       <c r="B213">
         <v>10</v>
       </c>
@@ -4838,7 +5655,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>718</v>
+      </c>
       <c r="B214">
         <v>10</v>
       </c>
@@ -4849,7 +5669,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>718</v>
+      </c>
       <c r="B215">
         <v>10</v>
       </c>
@@ -4860,7 +5683,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>718</v>
+      </c>
       <c r="B216">
         <v>10</v>
       </c>
@@ -4871,7 +5697,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>718</v>
+      </c>
       <c r="B217">
         <v>10</v>
       </c>
@@ -4882,7 +5711,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>718</v>
+      </c>
       <c r="B218">
         <v>10</v>
       </c>
@@ -4893,7 +5725,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>718</v>
+      </c>
       <c r="B219">
         <v>10</v>
       </c>
@@ -4904,7 +5739,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>718</v>
+      </c>
       <c r="B220">
         <v>10</v>
       </c>
@@ -4915,7 +5753,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>718</v>
+      </c>
       <c r="B221">
         <v>10</v>
       </c>
@@ -4926,7 +5767,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>718</v>
+      </c>
       <c r="B222">
         <v>10</v>
       </c>
@@ -4937,7 +5781,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>718</v>
+      </c>
       <c r="B223">
         <v>10</v>
       </c>
@@ -4948,7 +5795,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>718</v>
+      </c>
       <c r="B224">
         <v>10</v>
       </c>
@@ -4959,7 +5809,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>718</v>
+      </c>
       <c r="B225">
         <v>10</v>
       </c>
@@ -4970,7 +5823,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>718</v>
+      </c>
       <c r="B226">
         <v>10</v>
       </c>
@@ -4981,7 +5837,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>718</v>
+      </c>
       <c r="B227">
         <v>10</v>
       </c>
@@ -4992,7 +5851,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>718</v>
+      </c>
       <c r="B228">
         <v>10</v>
       </c>
@@ -5003,7 +5865,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>718</v>
+      </c>
       <c r="B229">
         <v>10</v>
       </c>
@@ -5014,7 +5879,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>718</v>
+      </c>
       <c r="B230">
         <v>10</v>
       </c>
@@ -5025,7 +5893,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>718</v>
+      </c>
       <c r="B231">
         <v>10</v>
       </c>
@@ -5036,7 +5907,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>720</v>
+      </c>
       <c r="B232">
         <v>11</v>
       </c>
@@ -5047,7 +5921,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>720</v>
+      </c>
       <c r="B233">
         <v>11</v>
       </c>
@@ -5058,7 +5935,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>720</v>
+      </c>
       <c r="B234">
         <v>11</v>
       </c>
@@ -5069,7 +5949,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>720</v>
+      </c>
       <c r="B235">
         <v>11</v>
       </c>
@@ -5080,7 +5963,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>720</v>
+      </c>
       <c r="B236">
         <v>11</v>
       </c>
@@ -5091,7 +5977,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>720</v>
+      </c>
       <c r="B237">
         <v>11</v>
       </c>
@@ -5102,7 +5991,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>720</v>
+      </c>
       <c r="B238">
         <v>11</v>
       </c>
@@ -5113,7 +6005,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>720</v>
+      </c>
       <c r="B239">
         <v>11</v>
       </c>
@@ -5124,7 +6019,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>720</v>
+      </c>
       <c r="B240">
         <v>11</v>
       </c>
@@ -5135,7 +6033,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>720</v>
+      </c>
       <c r="B241">
         <v>11</v>
       </c>
@@ -5146,7 +6047,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>720</v>
+      </c>
       <c r="B242">
         <v>11</v>
       </c>
@@ -5157,7 +6061,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>720</v>
+      </c>
       <c r="B243">
         <v>11</v>
       </c>
@@ -5168,7 +6075,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>720</v>
+      </c>
       <c r="B244">
         <v>11</v>
       </c>
@@ -5179,7 +6089,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>720</v>
+      </c>
       <c r="B245">
         <v>11</v>
       </c>
@@ -5190,7 +6103,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>720</v>
+      </c>
       <c r="B246">
         <v>11</v>
       </c>
@@ -5201,7 +6117,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>720</v>
+      </c>
       <c r="B247">
         <v>11</v>
       </c>
@@ -5212,7 +6131,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>720</v>
+      </c>
       <c r="B248">
         <v>11</v>
       </c>
@@ -5223,7 +6145,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>720</v>
+      </c>
       <c r="B249">
         <v>11</v>
       </c>
@@ -5234,7 +6159,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>720</v>
+      </c>
       <c r="B250">
         <v>11</v>
       </c>
@@ -5245,7 +6173,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>720</v>
+      </c>
       <c r="B251">
         <v>11</v>
       </c>
@@ -5256,7 +6187,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>720</v>
+      </c>
       <c r="B252">
         <v>11</v>
       </c>
@@ -5267,7 +6201,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>720</v>
+      </c>
       <c r="B253">
         <v>11</v>
       </c>
@@ -5278,7 +6215,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>720</v>
+      </c>
       <c r="B254">
         <v>11</v>
       </c>
@@ -5289,7 +6229,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>722</v>
+      </c>
       <c r="B255">
         <v>12</v>
       </c>
@@ -5300,7 +6243,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>722</v>
+      </c>
       <c r="B256">
         <v>12</v>
       </c>
@@ -5311,7 +6257,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>722</v>
+      </c>
       <c r="B257">
         <v>12</v>
       </c>
@@ -5322,7 +6271,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>722</v>
+      </c>
       <c r="B258">
         <v>12</v>
       </c>
@@ -5333,7 +6285,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>722</v>
+      </c>
       <c r="B259">
         <v>12</v>
       </c>
@@ -5344,7 +6299,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>722</v>
+      </c>
       <c r="B260">
         <v>12</v>
       </c>
@@ -5355,7 +6313,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>722</v>
+      </c>
       <c r="B261">
         <v>12</v>
       </c>
@@ -5366,7 +6327,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>722</v>
+      </c>
       <c r="B262">
         <v>12</v>
       </c>
@@ -5377,7 +6341,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>722</v>
+      </c>
       <c r="B263">
         <v>12</v>
       </c>
@@ -5388,7 +6355,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>722</v>
+      </c>
       <c r="B264">
         <v>12</v>
       </c>
@@ -5399,7 +6369,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>722</v>
+      </c>
       <c r="B265">
         <v>12</v>
       </c>
@@ -5410,7 +6383,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>722</v>
+      </c>
       <c r="B266">
         <v>12</v>
       </c>
@@ -5421,7 +6397,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>722</v>
+      </c>
       <c r="B267">
         <v>12</v>
       </c>
@@ -5432,7 +6411,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>722</v>
+      </c>
       <c r="B268">
         <v>12</v>
       </c>
@@ -5443,7 +6425,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>722</v>
+      </c>
       <c r="B269">
         <v>12</v>
       </c>
@@ -5454,7 +6439,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>722</v>
+      </c>
       <c r="B270">
         <v>12</v>
       </c>
@@ -5465,7 +6453,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>722</v>
+      </c>
       <c r="B271">
         <v>12</v>
       </c>
@@ -5476,7 +6467,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>722</v>
+      </c>
       <c r="B272">
         <v>12</v>
       </c>
@@ -5487,7 +6481,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>722</v>
+      </c>
       <c r="B273">
         <v>12</v>
       </c>
@@ -5498,7 +6495,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>722</v>
+      </c>
       <c r="B274">
         <v>12</v>
       </c>
@@ -5509,7 +6509,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>722</v>
+      </c>
       <c r="B275">
         <v>12</v>
       </c>
@@ -5520,7 +6523,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>722</v>
+      </c>
       <c r="B276">
         <v>12</v>
       </c>
@@ -5531,7 +6537,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>722</v>
+      </c>
       <c r="B277">
         <v>12</v>
       </c>
@@ -5542,7 +6551,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>724</v>
+      </c>
       <c r="B278">
         <v>13</v>
       </c>
@@ -5553,7 +6565,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>724</v>
+      </c>
       <c r="B279">
         <v>13</v>
       </c>
@@ -5564,7 +6579,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>724</v>
+      </c>
       <c r="B280">
         <v>13</v>
       </c>
@@ -5575,7 +6593,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>724</v>
+      </c>
       <c r="B281">
         <v>13</v>
       </c>
@@ -5586,7 +6607,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>724</v>
+      </c>
       <c r="B282">
         <v>13</v>
       </c>
@@ -5597,7 +6621,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>724</v>
+      </c>
       <c r="B283">
         <v>13</v>
       </c>
@@ -5608,7 +6635,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>724</v>
+      </c>
       <c r="B284">
         <v>13</v>
       </c>
@@ -5619,7 +6649,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>724</v>
+      </c>
       <c r="B285">
         <v>13</v>
       </c>
@@ -5630,7 +6663,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>724</v>
+      </c>
       <c r="B286">
         <v>13</v>
       </c>
@@ -5641,7 +6677,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>724</v>
+      </c>
       <c r="B287">
         <v>13</v>
       </c>
@@ -5652,7 +6691,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>724</v>
+      </c>
       <c r="B288">
         <v>13</v>
       </c>
@@ -5663,7 +6705,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>724</v>
+      </c>
       <c r="B289">
         <v>13</v>
       </c>
@@ -5674,7 +6719,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>724</v>
+      </c>
       <c r="B290">
         <v>13</v>
       </c>
@@ -5685,7 +6733,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>724</v>
+      </c>
       <c r="B291">
         <v>13</v>
       </c>
@@ -5696,7 +6747,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>724</v>
+      </c>
       <c r="B292">
         <v>13</v>
       </c>
@@ -5707,7 +6761,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>724</v>
+      </c>
       <c r="B293">
         <v>13</v>
       </c>
@@ -5718,7 +6775,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>724</v>
+      </c>
       <c r="B294">
         <v>13</v>
       </c>
@@ -5729,7 +6789,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>724</v>
+      </c>
       <c r="B295">
         <v>13</v>
       </c>
@@ -5740,7 +6803,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>724</v>
+      </c>
       <c r="B296">
         <v>13</v>
       </c>
@@ -5751,7 +6817,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>724</v>
+      </c>
       <c r="B297">
         <v>13</v>
       </c>
@@ -5762,7 +6831,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>724</v>
+      </c>
       <c r="B298">
         <v>13</v>
       </c>
@@ -5773,7 +6845,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>724</v>
+      </c>
       <c r="B299">
         <v>13</v>
       </c>
@@ -5784,7 +6859,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>724</v>
+      </c>
       <c r="B300">
         <v>13</v>
       </c>
@@ -5795,7 +6873,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>726</v>
+      </c>
       <c r="B301">
         <v>14</v>
       </c>
@@ -5806,7 +6887,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>726</v>
+      </c>
       <c r="B302">
         <v>14</v>
       </c>
@@ -5817,7 +6901,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>726</v>
+      </c>
       <c r="B303">
         <v>14</v>
       </c>
@@ -5828,7 +6915,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>726</v>
+      </c>
       <c r="B304">
         <v>14</v>
       </c>
@@ -5839,7 +6929,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>726</v>
+      </c>
       <c r="B305">
         <v>14</v>
       </c>
@@ -5850,7 +6943,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>726</v>
+      </c>
       <c r="B306">
         <v>14</v>
       </c>
@@ -5861,7 +6957,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>726</v>
+      </c>
       <c r="B307">
         <v>14</v>
       </c>
@@ -5872,7 +6971,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>726</v>
+      </c>
       <c r="B308">
         <v>14</v>
       </c>
@@ -5883,7 +6985,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>726</v>
+      </c>
       <c r="B309">
         <v>14</v>
       </c>
@@ -5894,7 +6999,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>726</v>
+      </c>
       <c r="B310">
         <v>14</v>
       </c>
@@ -5905,7 +7013,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>726</v>
+      </c>
       <c r="B311">
         <v>14</v>
       </c>
@@ -5916,7 +7027,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>726</v>
+      </c>
       <c r="B312">
         <v>14</v>
       </c>
@@ -5927,7 +7041,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>726</v>
+      </c>
       <c r="B313">
         <v>14</v>
       </c>
@@ -5938,7 +7055,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>726</v>
+      </c>
       <c r="B314">
         <v>14</v>
       </c>
@@ -5949,7 +7069,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>726</v>
+      </c>
       <c r="B315">
         <v>14</v>
       </c>
@@ -5960,7 +7083,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>726</v>
+      </c>
       <c r="B316">
         <v>14</v>
       </c>
@@ -5971,7 +7097,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>726</v>
+      </c>
       <c r="B317">
         <v>14</v>
       </c>
@@ -5982,7 +7111,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>726</v>
+      </c>
       <c r="B318">
         <v>14</v>
       </c>
@@ -5993,7 +7125,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>726</v>
+      </c>
       <c r="B319">
         <v>14</v>
       </c>
@@ -6004,7 +7139,10 @@
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>726</v>
+      </c>
       <c r="B320">
         <v>14</v>
       </c>
@@ -6015,7 +7153,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>726</v>
+      </c>
       <c r="B321">
         <v>14</v>
       </c>
@@ -6026,7 +7167,10 @@
         <v>327</v>
       </c>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>726</v>
+      </c>
       <c r="B322">
         <v>14</v>
       </c>
@@ -6037,7 +7181,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>726</v>
+      </c>
       <c r="B323">
         <v>14</v>
       </c>
@@ -6048,7 +7195,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>728</v>
+      </c>
       <c r="B324">
         <v>15</v>
       </c>
@@ -6059,7 +7209,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>728</v>
+      </c>
       <c r="B325">
         <v>15</v>
       </c>
@@ -6070,7 +7223,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>728</v>
+      </c>
       <c r="B326">
         <v>15</v>
       </c>
@@ -6081,7 +7237,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>728</v>
+      </c>
       <c r="B327">
         <v>15</v>
       </c>
@@ -6092,7 +7251,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>728</v>
+      </c>
       <c r="B328">
         <v>15</v>
       </c>
@@ -6103,7 +7265,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>728</v>
+      </c>
       <c r="B329">
         <v>15</v>
       </c>
@@ -6114,7 +7279,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>728</v>
+      </c>
       <c r="B330">
         <v>15</v>
       </c>
@@ -6125,7 +7293,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>728</v>
+      </c>
       <c r="B331">
         <v>15</v>
       </c>
@@ -6136,7 +7307,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>728</v>
+      </c>
       <c r="B332">
         <v>15</v>
       </c>
@@ -6147,7 +7321,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>728</v>
+      </c>
       <c r="B333">
         <v>15</v>
       </c>
@@ -6158,7 +7335,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>728</v>
+      </c>
       <c r="B334">
         <v>15</v>
       </c>
@@ -6169,7 +7349,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>728</v>
+      </c>
       <c r="B335">
         <v>15</v>
       </c>
@@ -6180,7 +7363,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>728</v>
+      </c>
       <c r="B336">
         <v>15</v>
       </c>
@@ -6191,7 +7377,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>728</v>
+      </c>
       <c r="B337">
         <v>15</v>
       </c>
@@ -6202,7 +7391,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>728</v>
+      </c>
       <c r="B338">
         <v>15</v>
       </c>
@@ -6213,7 +7405,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>728</v>
+      </c>
       <c r="B339">
         <v>15</v>
       </c>
@@ -6224,7 +7419,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>728</v>
+      </c>
       <c r="B340">
         <v>15</v>
       </c>
@@ -6235,7 +7433,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>728</v>
+      </c>
       <c r="B341">
         <v>15</v>
       </c>
@@ -6246,7 +7447,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>728</v>
+      </c>
       <c r="B342">
         <v>15</v>
       </c>
@@ -6257,7 +7461,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>728</v>
+      </c>
       <c r="B343">
         <v>15</v>
       </c>
@@ -6268,7 +7475,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>728</v>
+      </c>
       <c r="B344">
         <v>15</v>
       </c>
@@ -6279,7 +7489,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>728</v>
+      </c>
       <c r="B345">
         <v>15</v>
       </c>
@@ -6290,7 +7503,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>728</v>
+      </c>
       <c r="B346">
         <v>15</v>
       </c>
@@ -6301,7 +7517,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>700</v>
+      </c>
       <c r="B347">
         <v>1</v>
       </c>
@@ -6312,7 +7531,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>700</v>
+      </c>
       <c r="B348">
         <v>1</v>
       </c>
@@ -6323,7 +7545,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>700</v>
+      </c>
       <c r="B349">
         <v>1</v>
       </c>
@@ -6334,7 +7559,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>700</v>
+      </c>
       <c r="B350">
         <v>1</v>
       </c>
@@ -6345,7 +7573,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>700</v>
+      </c>
       <c r="B351">
         <v>1</v>
       </c>
@@ -6356,7 +7587,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>700</v>
+      </c>
       <c r="B352">
         <v>1</v>
       </c>
@@ -6367,7 +7601,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>700</v>
+      </c>
       <c r="B353">
         <v>1</v>
       </c>
@@ -6378,7 +7615,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>700</v>
+      </c>
       <c r="B354">
         <v>1</v>
       </c>
@@ -6389,7 +7629,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>700</v>
+      </c>
       <c r="B355">
         <v>1</v>
       </c>
@@ -6400,7 +7643,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>700</v>
+      </c>
       <c r="B356">
         <v>1</v>
       </c>
@@ -6411,7 +7657,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>700</v>
+      </c>
       <c r="B357">
         <v>1</v>
       </c>
@@ -6422,7 +7671,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>700</v>
+      </c>
       <c r="B358">
         <v>1</v>
       </c>
@@ -6433,7 +7685,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>700</v>
+      </c>
       <c r="B359">
         <v>1</v>
       </c>
@@ -6444,7 +7699,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>700</v>
+      </c>
       <c r="B360">
         <v>1</v>
       </c>
@@ -6455,7 +7713,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>700</v>
+      </c>
       <c r="B361">
         <v>1</v>
       </c>
@@ -6466,7 +7727,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>700</v>
+      </c>
       <c r="B362">
         <v>1</v>
       </c>
@@ -6477,7 +7741,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>700</v>
+      </c>
       <c r="B363">
         <v>1</v>
       </c>
@@ -6488,7 +7755,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>700</v>
+      </c>
       <c r="B364">
         <v>1</v>
       </c>
@@ -6499,7 +7769,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>700</v>
+      </c>
       <c r="B365">
         <v>1</v>
       </c>
@@ -6510,7 +7783,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>700</v>
+      </c>
       <c r="B366">
         <v>1</v>
       </c>
@@ -6521,7 +7797,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>700</v>
+      </c>
       <c r="B367">
         <v>1</v>
       </c>
@@ -6532,7 +7811,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>700</v>
+      </c>
       <c r="B368">
         <v>1</v>
       </c>
@@ -6543,7 +7825,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>700</v>
+      </c>
       <c r="B369">
         <v>1</v>
       </c>
@@ -6554,7 +7839,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>702</v>
+      </c>
       <c r="B370">
         <v>2</v>
       </c>
@@ -6565,7 +7853,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>702</v>
+      </c>
       <c r="B371">
         <v>2</v>
       </c>
@@ -6576,7 +7867,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>702</v>
+      </c>
       <c r="B372">
         <v>2</v>
       </c>
@@ -6587,7 +7881,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>702</v>
+      </c>
       <c r="B373">
         <v>2</v>
       </c>
@@ -6598,7 +7895,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>702</v>
+      </c>
       <c r="B374">
         <v>2</v>
       </c>
@@ -6609,7 +7909,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>702</v>
+      </c>
       <c r="B375">
         <v>2</v>
       </c>
@@ -6620,7 +7923,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>702</v>
+      </c>
       <c r="B376">
         <v>2</v>
       </c>
@@ -6631,7 +7937,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>702</v>
+      </c>
       <c r="B377">
         <v>2</v>
       </c>
@@ -6642,7 +7951,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>702</v>
+      </c>
       <c r="B378">
         <v>2</v>
       </c>
@@ -6653,7 +7965,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>702</v>
+      </c>
       <c r="B379">
         <v>2</v>
       </c>
@@ -6664,7 +7979,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>702</v>
+      </c>
       <c r="B380">
         <v>2</v>
       </c>
@@ -6675,7 +7993,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>702</v>
+      </c>
       <c r="B381">
         <v>2</v>
       </c>
@@ -6686,7 +8007,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>702</v>
+      </c>
       <c r="B382">
         <v>2</v>
       </c>
@@ -6697,7 +8021,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>702</v>
+      </c>
       <c r="B383">
         <v>2</v>
       </c>
@@ -6708,7 +8035,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>702</v>
+      </c>
       <c r="B384">
         <v>2</v>
       </c>
@@ -6719,7 +8049,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>702</v>
+      </c>
       <c r="B385">
         <v>2</v>
       </c>
@@ -6730,7 +8063,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>702</v>
+      </c>
       <c r="B386">
         <v>2</v>
       </c>
@@ -6741,7 +8077,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>702</v>
+      </c>
       <c r="B387">
         <v>2</v>
       </c>
@@ -6752,7 +8091,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>702</v>
+      </c>
       <c r="B388">
         <v>2</v>
       </c>
@@ -6763,7 +8105,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>702</v>
+      </c>
       <c r="B389">
         <v>2</v>
       </c>
@@ -6774,7 +8119,10 @@
         <v>396</v>
       </c>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>702</v>
+      </c>
       <c r="B390">
         <v>2</v>
       </c>
@@ -6785,7 +8133,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>702</v>
+      </c>
       <c r="B391">
         <v>2</v>
       </c>
@@ -6796,7 +8147,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>702</v>
+      </c>
       <c r="B392">
         <v>2</v>
       </c>
@@ -6807,7 +8161,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>704</v>
+      </c>
       <c r="B393">
         <v>3</v>
       </c>
@@ -6818,7 +8175,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>704</v>
+      </c>
       <c r="B394">
         <v>3</v>
       </c>
@@ -6829,7 +8189,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>704</v>
+      </c>
       <c r="B395">
         <v>3</v>
       </c>
@@ -6840,7 +8203,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>704</v>
+      </c>
       <c r="B396">
         <v>3</v>
       </c>
@@ -6851,7 +8217,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>704</v>
+      </c>
       <c r="B397">
         <v>3</v>
       </c>
@@ -6862,7 +8231,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>704</v>
+      </c>
       <c r="B398">
         <v>3</v>
       </c>
@@ -6873,7 +8245,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>704</v>
+      </c>
       <c r="B399">
         <v>3</v>
       </c>
@@ -6884,7 +8259,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>704</v>
+      </c>
       <c r="B400">
         <v>3</v>
       </c>
@@ -6895,7 +8273,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>704</v>
+      </c>
       <c r="B401">
         <v>3</v>
       </c>
@@ -6906,7 +8287,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>704</v>
+      </c>
       <c r="B402">
         <v>3</v>
       </c>
@@ -6917,7 +8301,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>704</v>
+      </c>
       <c r="B403">
         <v>3</v>
       </c>
@@ -6928,7 +8315,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>704</v>
+      </c>
       <c r="B404">
         <v>3</v>
       </c>
@@ -6939,7 +8329,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>704</v>
+      </c>
       <c r="B405">
         <v>3</v>
       </c>
@@ -6950,7 +8343,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>704</v>
+      </c>
       <c r="B406">
         <v>3</v>
       </c>
@@ -6961,7 +8357,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>704</v>
+      </c>
       <c r="B407">
         <v>3</v>
       </c>
@@ -6972,7 +8371,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>704</v>
+      </c>
       <c r="B408">
         <v>3</v>
       </c>
@@ -6983,7 +8385,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>704</v>
+      </c>
       <c r="B409">
         <v>3</v>
       </c>
@@ -6994,7 +8399,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>704</v>
+      </c>
       <c r="B410">
         <v>3</v>
       </c>
@@ -7005,7 +8413,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>704</v>
+      </c>
       <c r="B411">
         <v>3</v>
       </c>
@@ -7016,7 +8427,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>704</v>
+      </c>
       <c r="B412">
         <v>3</v>
       </c>
@@ -7027,7 +8441,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>704</v>
+      </c>
       <c r="B413">
         <v>3</v>
       </c>
@@ -7038,7 +8455,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>704</v>
+      </c>
       <c r="B414">
         <v>3</v>
       </c>
@@ -7049,7 +8469,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>704</v>
+      </c>
       <c r="B415">
         <v>3</v>
       </c>
@@ -7060,7 +8483,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>706</v>
+      </c>
       <c r="B416">
         <v>4</v>
       </c>
@@ -7071,7 +8497,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>706</v>
+      </c>
       <c r="B417">
         <v>4</v>
       </c>
@@ -7082,7 +8511,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>706</v>
+      </c>
       <c r="B418">
         <v>4</v>
       </c>
@@ -7093,7 +8525,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>706</v>
+      </c>
       <c r="B419">
         <v>4</v>
       </c>
@@ -7104,7 +8539,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>706</v>
+      </c>
       <c r="B420">
         <v>4</v>
       </c>
@@ -7115,7 +8553,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>706</v>
+      </c>
       <c r="B421">
         <v>4</v>
       </c>
@@ -7126,7 +8567,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>706</v>
+      </c>
       <c r="B422">
         <v>4</v>
       </c>
@@ -7137,7 +8581,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>706</v>
+      </c>
       <c r="B423">
         <v>4</v>
       </c>
@@ -7148,7 +8595,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>706</v>
+      </c>
       <c r="B424">
         <v>4</v>
       </c>
@@ -7159,7 +8609,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>706</v>
+      </c>
       <c r="B425">
         <v>4</v>
       </c>
@@ -7170,7 +8623,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>706</v>
+      </c>
       <c r="B426">
         <v>4</v>
       </c>
@@ -7181,7 +8637,10 @@
         <v>433</v>
       </c>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>706</v>
+      </c>
       <c r="B427">
         <v>4</v>
       </c>
@@ -7192,7 +8651,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>706</v>
+      </c>
       <c r="B428">
         <v>4</v>
       </c>
@@ -7203,7 +8665,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>706</v>
+      </c>
       <c r="B429">
         <v>4</v>
       </c>
@@ -7214,7 +8679,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>706</v>
+      </c>
       <c r="B430">
         <v>4</v>
       </c>
@@ -7225,7 +8693,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>706</v>
+      </c>
       <c r="B431">
         <v>4</v>
       </c>
@@ -7236,7 +8707,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>706</v>
+      </c>
       <c r="B432">
         <v>4</v>
       </c>
@@ -7247,7 +8721,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>706</v>
+      </c>
       <c r="B433">
         <v>4</v>
       </c>
@@ -7258,7 +8735,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>706</v>
+      </c>
       <c r="B434">
         <v>4</v>
       </c>
@@ -7269,7 +8749,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>706</v>
+      </c>
       <c r="B435">
         <v>4</v>
       </c>
@@ -7280,7 +8763,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>706</v>
+      </c>
       <c r="B436">
         <v>4</v>
       </c>
@@ -7291,7 +8777,10 @@
         <v>443</v>
       </c>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>706</v>
+      </c>
       <c r="B437">
         <v>4</v>
       </c>
@@ -7302,7 +8791,10 @@
         <v>444</v>
       </c>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>706</v>
+      </c>
       <c r="B438">
         <v>4</v>
       </c>
@@ -7313,7 +8805,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>708</v>
+      </c>
       <c r="B439">
         <v>5</v>
       </c>
@@ -7324,7 +8819,10 @@
         <v>446</v>
       </c>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>708</v>
+      </c>
       <c r="B440">
         <v>5</v>
       </c>
@@ -7335,7 +8833,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>708</v>
+      </c>
       <c r="B441">
         <v>5</v>
       </c>
@@ -7346,7 +8847,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>708</v>
+      </c>
       <c r="B442">
         <v>5</v>
       </c>
@@ -7357,7 +8861,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>708</v>
+      </c>
       <c r="B443">
         <v>5</v>
       </c>
@@ -7368,7 +8875,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>708</v>
+      </c>
       <c r="B444">
         <v>5</v>
       </c>
@@ -7379,7 +8889,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>708</v>
+      </c>
       <c r="B445">
         <v>5</v>
       </c>
@@ -7390,7 +8903,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>708</v>
+      </c>
       <c r="B446">
         <v>5</v>
       </c>
@@ -7401,7 +8917,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>708</v>
+      </c>
       <c r="B447">
         <v>5</v>
       </c>
@@ -7412,7 +8931,10 @@
         <v>454</v>
       </c>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>708</v>
+      </c>
       <c r="B448">
         <v>5</v>
       </c>
@@ -7423,7 +8945,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="449" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>708</v>
+      </c>
       <c r="B449">
         <v>5</v>
       </c>
@@ -7434,7 +8959,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="450" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>708</v>
+      </c>
       <c r="B450">
         <v>5</v>
       </c>
@@ -7445,7 +8973,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>708</v>
+      </c>
       <c r="B451">
         <v>5</v>
       </c>
@@ -7456,7 +8987,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>708</v>
+      </c>
       <c r="B452">
         <v>5</v>
       </c>
@@ -7467,7 +9001,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>708</v>
+      </c>
       <c r="B453">
         <v>5</v>
       </c>
@@ -7478,7 +9015,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="454" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>708</v>
+      </c>
       <c r="B454">
         <v>5</v>
       </c>
@@ -7489,7 +9029,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>708</v>
+      </c>
       <c r="B455">
         <v>5</v>
       </c>
@@ -7500,7 +9043,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="456" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>708</v>
+      </c>
       <c r="B456">
         <v>5</v>
       </c>
@@ -7511,7 +9057,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>708</v>
+      </c>
       <c r="B457">
         <v>5</v>
       </c>
@@ -7522,7 +9071,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>708</v>
+      </c>
       <c r="B458">
         <v>5</v>
       </c>
@@ -7533,7 +9085,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>708</v>
+      </c>
       <c r="B459">
         <v>5</v>
       </c>
@@ -7544,7 +9099,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>708</v>
+      </c>
       <c r="B460">
         <v>5</v>
       </c>
@@ -7555,7 +9113,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>708</v>
+      </c>
       <c r="B461">
         <v>5</v>
       </c>
@@ -7566,7 +9127,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="462" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>710</v>
+      </c>
       <c r="B462">
         <v>6</v>
       </c>
@@ -7577,7 +9141,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>710</v>
+      </c>
       <c r="B463">
         <v>6</v>
       </c>
@@ -7588,7 +9155,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>710</v>
+      </c>
       <c r="B464">
         <v>6</v>
       </c>
@@ -7599,7 +9169,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>710</v>
+      </c>
       <c r="B465">
         <v>6</v>
       </c>
@@ -7610,7 +9183,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>710</v>
+      </c>
       <c r="B466">
         <v>6</v>
       </c>
@@ -7621,7 +9197,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="467" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>710</v>
+      </c>
       <c r="B467">
         <v>6</v>
       </c>
@@ -7632,7 +9211,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>710</v>
+      </c>
       <c r="B468">
         <v>6</v>
       </c>
@@ -7643,7 +9225,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="469" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>710</v>
+      </c>
       <c r="B469">
         <v>6</v>
       </c>
@@ -7654,7 +9239,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="470" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>710</v>
+      </c>
       <c r="B470">
         <v>6</v>
       </c>
@@ -7665,7 +9253,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="471" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>710</v>
+      </c>
       <c r="B471">
         <v>6</v>
       </c>
@@ -7676,7 +9267,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>710</v>
+      </c>
       <c r="B472">
         <v>6</v>
       </c>
@@ -7687,7 +9281,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="473" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>710</v>
+      </c>
       <c r="B473">
         <v>6</v>
       </c>
@@ -7698,7 +9295,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>710</v>
+      </c>
       <c r="B474">
         <v>6</v>
       </c>
@@ -7709,7 +9309,10 @@
         <v>481</v>
       </c>
     </row>
-    <row r="475" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>710</v>
+      </c>
       <c r="B475">
         <v>6</v>
       </c>
@@ -7720,7 +9323,10 @@
         <v>482</v>
       </c>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>710</v>
+      </c>
       <c r="B476">
         <v>6</v>
       </c>
@@ -7731,7 +9337,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>710</v>
+      </c>
       <c r="B477">
         <v>6</v>
       </c>
@@ -7742,7 +9351,10 @@
         <v>484</v>
       </c>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>710</v>
+      </c>
       <c r="B478">
         <v>6</v>
       </c>
@@ -7753,7 +9365,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>710</v>
+      </c>
       <c r="B479">
         <v>6</v>
       </c>
@@ -7764,7 +9379,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="480" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>710</v>
+      </c>
       <c r="B480">
         <v>6</v>
       </c>
@@ -7775,7 +9393,10 @@
         <v>487</v>
       </c>
     </row>
-    <row r="481" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>710</v>
+      </c>
       <c r="B481">
         <v>6</v>
       </c>
@@ -7786,7 +9407,10 @@
         <v>488</v>
       </c>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>710</v>
+      </c>
       <c r="B482">
         <v>6</v>
       </c>
@@ -7797,7 +9421,10 @@
         <v>489</v>
       </c>
     </row>
-    <row r="483" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>710</v>
+      </c>
       <c r="B483">
         <v>6</v>
       </c>
@@ -7808,7 +9435,10 @@
         <v>490</v>
       </c>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>710</v>
+      </c>
       <c r="B484">
         <v>6</v>
       </c>
@@ -7819,7 +9449,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="485" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>712</v>
+      </c>
       <c r="B485">
         <v>7</v>
       </c>
@@ -7830,7 +9463,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="486" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>712</v>
+      </c>
       <c r="B486">
         <v>7</v>
       </c>
@@ -7841,7 +9477,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="487" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>712</v>
+      </c>
       <c r="B487">
         <v>7</v>
       </c>
@@ -7852,7 +9491,10 @@
         <v>494</v>
       </c>
     </row>
-    <row r="488" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>712</v>
+      </c>
       <c r="B488">
         <v>7</v>
       </c>
@@ -7863,7 +9505,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="489" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>712</v>
+      </c>
       <c r="B489">
         <v>7</v>
       </c>
@@ -7874,7 +9519,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="490" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>712</v>
+      </c>
       <c r="B490">
         <v>7</v>
       </c>
@@ -7885,7 +9533,10 @@
         <v>497</v>
       </c>
     </row>
-    <row r="491" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>712</v>
+      </c>
       <c r="B491">
         <v>7</v>
       </c>
@@ -7896,7 +9547,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="492" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>712</v>
+      </c>
       <c r="B492">
         <v>7</v>
       </c>
@@ -7907,7 +9561,10 @@
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>712</v>
+      </c>
       <c r="B493">
         <v>7</v>
       </c>
@@ -7918,7 +9575,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="494" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>712</v>
+      </c>
       <c r="B494">
         <v>7</v>
       </c>
@@ -7929,7 +9589,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="495" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>712</v>
+      </c>
       <c r="B495">
         <v>7</v>
       </c>
@@ -7940,7 +9603,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="496" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>712</v>
+      </c>
       <c r="B496">
         <v>7</v>
       </c>
@@ -7951,7 +9617,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>712</v>
+      </c>
       <c r="B497">
         <v>7</v>
       </c>
@@ -7962,7 +9631,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>712</v>
+      </c>
       <c r="B498">
         <v>7</v>
       </c>
@@ -7973,7 +9645,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>712</v>
+      </c>
       <c r="B499">
         <v>7</v>
       </c>
@@ -7984,7 +9659,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>712</v>
+      </c>
       <c r="B500">
         <v>7</v>
       </c>
@@ -7995,7 +9673,10 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>712</v>
+      </c>
       <c r="B501">
         <v>7</v>
       </c>
@@ -8006,7 +9687,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>712</v>
+      </c>
       <c r="B502">
         <v>7</v>
       </c>
@@ -8017,7 +9701,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>712</v>
+      </c>
       <c r="B503">
         <v>7</v>
       </c>
@@ -8028,7 +9715,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>712</v>
+      </c>
       <c r="B504">
         <v>7</v>
       </c>
@@ -8039,7 +9729,10 @@
         <v>511</v>
       </c>
     </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>712</v>
+      </c>
       <c r="B505">
         <v>7</v>
       </c>
@@ -8050,7 +9743,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>712</v>
+      </c>
       <c r="B506">
         <v>7</v>
       </c>
@@ -8061,7 +9757,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>712</v>
+      </c>
       <c r="B507">
         <v>7</v>
       </c>
@@ -8072,7 +9771,10 @@
         <v>514</v>
       </c>
     </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>714</v>
+      </c>
       <c r="B508">
         <v>8</v>
       </c>
@@ -8083,7 +9785,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>714</v>
+      </c>
       <c r="B509">
         <v>8</v>
       </c>
@@ -8094,7 +9799,10 @@
         <v>516</v>
       </c>
     </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>714</v>
+      </c>
       <c r="B510">
         <v>8</v>
       </c>
@@ -8105,7 +9813,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>714</v>
+      </c>
       <c r="B511">
         <v>8</v>
       </c>
@@ -8116,7 +9827,10 @@
         <v>518</v>
       </c>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>714</v>
+      </c>
       <c r="B512">
         <v>8</v>
       </c>
@@ -8127,7 +9841,10 @@
         <v>519</v>
       </c>
     </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>714</v>
+      </c>
       <c r="B513">
         <v>8</v>
       </c>
@@ -8138,7 +9855,10 @@
         <v>520</v>
       </c>
     </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>714</v>
+      </c>
       <c r="B514">
         <v>8</v>
       </c>
@@ -8149,7 +9869,10 @@
         <v>521</v>
       </c>
     </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>714</v>
+      </c>
       <c r="B515">
         <v>8</v>
       </c>
@@ -8160,7 +9883,10 @@
         <v>522</v>
       </c>
     </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>714</v>
+      </c>
       <c r="B516">
         <v>8</v>
       </c>
@@ -8171,7 +9897,10 @@
         <v>523</v>
       </c>
     </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>714</v>
+      </c>
       <c r="B517">
         <v>8</v>
       </c>
@@ -8182,7 +9911,10 @@
         <v>524</v>
       </c>
     </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>714</v>
+      </c>
       <c r="B518">
         <v>8</v>
       </c>
@@ -8193,7 +9925,10 @@
         <v>525</v>
       </c>
     </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>714</v>
+      </c>
       <c r="B519">
         <v>8</v>
       </c>
@@ -8204,7 +9939,10 @@
         <v>526</v>
       </c>
     </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>714</v>
+      </c>
       <c r="B520">
         <v>8</v>
       </c>
@@ -8215,7 +9953,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>714</v>
+      </c>
       <c r="B521">
         <v>8</v>
       </c>
@@ -8226,7 +9967,10 @@
         <v>528</v>
       </c>
     </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>714</v>
+      </c>
       <c r="B522">
         <v>8</v>
       </c>
@@ -8237,7 +9981,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>714</v>
+      </c>
       <c r="B523">
         <v>8</v>
       </c>
@@ -8248,7 +9995,10 @@
         <v>530</v>
       </c>
     </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>714</v>
+      </c>
       <c r="B524">
         <v>8</v>
       </c>
@@ -8259,7 +10009,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>714</v>
+      </c>
       <c r="B525">
         <v>8</v>
       </c>
@@ -8270,7 +10023,10 @@
         <v>532</v>
       </c>
     </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>714</v>
+      </c>
       <c r="B526">
         <v>8</v>
       </c>
@@ -8281,7 +10037,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>714</v>
+      </c>
       <c r="B527">
         <v>8</v>
       </c>
@@ -8292,7 +10051,10 @@
         <v>534</v>
       </c>
     </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>714</v>
+      </c>
       <c r="B528">
         <v>8</v>
       </c>
@@ -8303,7 +10065,10 @@
         <v>535</v>
       </c>
     </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>714</v>
+      </c>
       <c r="B529">
         <v>8</v>
       </c>
@@ -8314,7 +10079,10 @@
         <v>536</v>
       </c>
     </row>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>714</v>
+      </c>
       <c r="B530">
         <v>8</v>
       </c>
@@ -8325,7 +10093,10 @@
         <v>537</v>
       </c>
     </row>
-    <row r="531" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>716</v>
+      </c>
       <c r="B531">
         <v>9</v>
       </c>
@@ -8336,7 +10107,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>716</v>
+      </c>
       <c r="B532">
         <v>9</v>
       </c>
@@ -8347,7 +10121,10 @@
         <v>539</v>
       </c>
     </row>
-    <row r="533" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>716</v>
+      </c>
       <c r="B533">
         <v>9</v>
       </c>
@@ -8358,7 +10135,10 @@
         <v>540</v>
       </c>
     </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>716</v>
+      </c>
       <c r="B534">
         <v>9</v>
       </c>
@@ -8369,7 +10149,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>716</v>
+      </c>
       <c r="B535">
         <v>9</v>
       </c>
@@ -8380,7 +10163,10 @@
         <v>542</v>
       </c>
     </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>716</v>
+      </c>
       <c r="B536">
         <v>9</v>
       </c>
@@ -8391,7 +10177,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>716</v>
+      </c>
       <c r="B537">
         <v>9</v>
       </c>
@@ -8402,7 +10191,10 @@
         <v>544</v>
       </c>
     </row>
-    <row r="538" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>716</v>
+      </c>
       <c r="B538">
         <v>9</v>
       </c>
@@ -8413,7 +10205,10 @@
         <v>545</v>
       </c>
     </row>
-    <row r="539" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>716</v>
+      </c>
       <c r="B539">
         <v>9</v>
       </c>
@@ -8424,7 +10219,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>716</v>
+      </c>
       <c r="B540">
         <v>9</v>
       </c>
@@ -8435,7 +10233,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>716</v>
+      </c>
       <c r="B541">
         <v>9</v>
       </c>
@@ -8446,7 +10247,10 @@
         <v>548</v>
       </c>
     </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>716</v>
+      </c>
       <c r="B542">
         <v>9</v>
       </c>
@@ -8457,7 +10261,10 @@
         <v>549</v>
       </c>
     </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>716</v>
+      </c>
       <c r="B543">
         <v>9</v>
       </c>
@@ -8468,7 +10275,10 @@
         <v>550</v>
       </c>
     </row>
-    <row r="544" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>716</v>
+      </c>
       <c r="B544">
         <v>9</v>
       </c>
@@ -8479,7 +10289,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>716</v>
+      </c>
       <c r="B545">
         <v>9</v>
       </c>
@@ -8490,7 +10303,10 @@
         <v>552</v>
       </c>
     </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>716</v>
+      </c>
       <c r="B546">
         <v>9</v>
       </c>
@@ -8501,7 +10317,10 @@
         <v>553</v>
       </c>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>716</v>
+      </c>
       <c r="B547">
         <v>9</v>
       </c>
@@ -8512,7 +10331,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>716</v>
+      </c>
       <c r="B548">
         <v>9</v>
       </c>
@@ -8523,7 +10345,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>716</v>
+      </c>
       <c r="B549">
         <v>9</v>
       </c>
@@ -8534,7 +10359,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>716</v>
+      </c>
       <c r="B550">
         <v>9</v>
       </c>
@@ -8545,7 +10373,10 @@
         <v>557</v>
       </c>
     </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>716</v>
+      </c>
       <c r="B551">
         <v>9</v>
       </c>
@@ -8556,7 +10387,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>716</v>
+      </c>
       <c r="B552">
         <v>9</v>
       </c>
@@ -8567,7 +10401,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>716</v>
+      </c>
       <c r="B553">
         <v>9</v>
       </c>
@@ -8578,7 +10415,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>718</v>
+      </c>
       <c r="B554">
         <v>10</v>
       </c>
@@ -8589,7 +10429,10 @@
         <v>561</v>
       </c>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>718</v>
+      </c>
       <c r="B555">
         <v>10</v>
       </c>
@@ -8600,7 +10443,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>718</v>
+      </c>
       <c r="B556">
         <v>10</v>
       </c>
@@ -8611,7 +10457,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>718</v>
+      </c>
       <c r="B557">
         <v>10</v>
       </c>
@@ -8622,7 +10471,10 @@
         <v>564</v>
       </c>
     </row>
-    <row r="558" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>718</v>
+      </c>
       <c r="B558">
         <v>10</v>
       </c>
@@ -8633,7 +10485,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>718</v>
+      </c>
       <c r="B559">
         <v>10</v>
       </c>
@@ -8644,7 +10499,10 @@
         <v>566</v>
       </c>
     </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>718</v>
+      </c>
       <c r="B560">
         <v>10</v>
       </c>
@@ -8655,7 +10513,10 @@
         <v>567</v>
       </c>
     </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>718</v>
+      </c>
       <c r="B561">
         <v>10</v>
       </c>
@@ -8666,7 +10527,10 @@
         <v>568</v>
       </c>
     </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>718</v>
+      </c>
       <c r="B562">
         <v>10</v>
       </c>
@@ -8677,7 +10541,10 @@
         <v>569</v>
       </c>
     </row>
-    <row r="563" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>718</v>
+      </c>
       <c r="B563">
         <v>10</v>
       </c>
@@ -8688,7 +10555,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="564" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>718</v>
+      </c>
       <c r="B564">
         <v>10</v>
       </c>
@@ -8699,7 +10569,10 @@
         <v>571</v>
       </c>
     </row>
-    <row r="565" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>718</v>
+      </c>
       <c r="B565">
         <v>10</v>
       </c>
@@ -8710,7 +10583,10 @@
         <v>572</v>
       </c>
     </row>
-    <row r="566" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>718</v>
+      </c>
       <c r="B566">
         <v>10</v>
       </c>
@@ -8721,7 +10597,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="567" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>718</v>
+      </c>
       <c r="B567">
         <v>10</v>
       </c>
@@ -8732,7 +10611,10 @@
         <v>574</v>
       </c>
     </row>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>718</v>
+      </c>
       <c r="B568">
         <v>10</v>
       </c>
@@ -8743,7 +10625,10 @@
         <v>575</v>
       </c>
     </row>
-    <row r="569" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>718</v>
+      </c>
       <c r="B569">
         <v>10</v>
       </c>
@@ -8754,7 +10639,10 @@
         <v>576</v>
       </c>
     </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>718</v>
+      </c>
       <c r="B570">
         <v>10</v>
       </c>
@@ -8765,7 +10653,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="571" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>718</v>
+      </c>
       <c r="B571">
         <v>10</v>
       </c>
@@ -8776,7 +10667,10 @@
         <v>578</v>
       </c>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>718</v>
+      </c>
       <c r="B572">
         <v>10</v>
       </c>
@@ -8787,7 +10681,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>718</v>
+      </c>
       <c r="B573">
         <v>10</v>
       </c>
@@ -8798,7 +10695,10 @@
         <v>580</v>
       </c>
     </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>718</v>
+      </c>
       <c r="B574">
         <v>10</v>
       </c>
@@ -8809,7 +10709,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>718</v>
+      </c>
       <c r="B575">
         <v>10</v>
       </c>
@@ -8820,7 +10723,10 @@
         <v>582</v>
       </c>
     </row>
-    <row r="576" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>718</v>
+      </c>
       <c r="B576">
         <v>10</v>
       </c>
@@ -8831,7 +10737,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="577" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>720</v>
+      </c>
       <c r="B577">
         <v>11</v>
       </c>
@@ -8842,7 +10751,10 @@
         <v>584</v>
       </c>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>720</v>
+      </c>
       <c r="B578">
         <v>11</v>
       </c>
@@ -8853,7 +10765,10 @@
         <v>585</v>
       </c>
     </row>
-    <row r="579" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>720</v>
+      </c>
       <c r="B579">
         <v>11</v>
       </c>
@@ -8864,7 +10779,10 @@
         <v>586</v>
       </c>
     </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>720</v>
+      </c>
       <c r="B580">
         <v>11</v>
       </c>
@@ -8875,7 +10793,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>720</v>
+      </c>
       <c r="B581">
         <v>11</v>
       </c>
@@ -8886,7 +10807,10 @@
         <v>588</v>
       </c>
     </row>
-    <row r="582" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>720</v>
+      </c>
       <c r="B582">
         <v>11</v>
       </c>
@@ -8897,7 +10821,10 @@
         <v>589</v>
       </c>
     </row>
-    <row r="583" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>720</v>
+      </c>
       <c r="B583">
         <v>11</v>
       </c>
@@ -8908,7 +10835,10 @@
         <v>590</v>
       </c>
     </row>
-    <row r="584" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>720</v>
+      </c>
       <c r="B584">
         <v>11</v>
       </c>
@@ -8919,7 +10849,10 @@
         <v>591</v>
       </c>
     </row>
-    <row r="585" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>720</v>
+      </c>
       <c r="B585">
         <v>11</v>
       </c>
@@ -8930,7 +10863,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="586" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>720</v>
+      </c>
       <c r="B586">
         <v>11</v>
       </c>
@@ -8941,7 +10877,10 @@
         <v>593</v>
       </c>
     </row>
-    <row r="587" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>720</v>
+      </c>
       <c r="B587">
         <v>11</v>
       </c>
@@ -8952,7 +10891,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="588" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>720</v>
+      </c>
       <c r="B588">
         <v>11</v>
       </c>
@@ -8963,7 +10905,10 @@
         <v>595</v>
       </c>
     </row>
-    <row r="589" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>720</v>
+      </c>
       <c r="B589">
         <v>11</v>
       </c>
@@ -8974,7 +10919,10 @@
         <v>596</v>
       </c>
     </row>
-    <row r="590" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>720</v>
+      </c>
       <c r="B590">
         <v>11</v>
       </c>
@@ -8985,7 +10933,10 @@
         <v>597</v>
       </c>
     </row>
-    <row r="591" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>720</v>
+      </c>
       <c r="B591">
         <v>11</v>
       </c>
@@ -8996,7 +10947,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="592" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>720</v>
+      </c>
       <c r="B592">
         <v>11</v>
       </c>
@@ -9007,7 +10961,10 @@
         <v>599</v>
       </c>
     </row>
-    <row r="593" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>720</v>
+      </c>
       <c r="B593">
         <v>11</v>
       </c>
@@ -9018,7 +10975,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="594" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>720</v>
+      </c>
       <c r="B594">
         <v>11</v>
       </c>
@@ -9029,7 +10989,10 @@
         <v>601</v>
       </c>
     </row>
-    <row r="595" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>720</v>
+      </c>
       <c r="B595">
         <v>11</v>
       </c>
@@ -9040,7 +11003,10 @@
         <v>602</v>
       </c>
     </row>
-    <row r="596" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>720</v>
+      </c>
       <c r="B596">
         <v>11</v>
       </c>
@@ -9051,7 +11017,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="597" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>720</v>
+      </c>
       <c r="B597">
         <v>11</v>
       </c>
@@ -9062,7 +11031,10 @@
         <v>604</v>
       </c>
     </row>
-    <row r="598" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>720</v>
+      </c>
       <c r="B598">
         <v>11</v>
       </c>
@@ -9073,7 +11045,10 @@
         <v>605</v>
       </c>
     </row>
-    <row r="599" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>720</v>
+      </c>
       <c r="B599">
         <v>11</v>
       </c>
@@ -9084,7 +11059,10 @@
         <v>606</v>
       </c>
     </row>
-    <row r="600" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>722</v>
+      </c>
       <c r="B600">
         <v>12</v>
       </c>
@@ -9095,7 +11073,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="601" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>722</v>
+      </c>
       <c r="B601">
         <v>12</v>
       </c>
@@ -9106,7 +11087,10 @@
         <v>608</v>
       </c>
     </row>
-    <row r="602" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>722</v>
+      </c>
       <c r="B602">
         <v>12</v>
       </c>
@@ -9117,7 +11101,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="603" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>722</v>
+      </c>
       <c r="B603">
         <v>12</v>
       </c>
@@ -9128,7 +11115,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="604" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>722</v>
+      </c>
       <c r="B604">
         <v>12</v>
       </c>
@@ -9139,7 +11129,10 @@
         <v>611</v>
       </c>
     </row>
-    <row r="605" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>722</v>
+      </c>
       <c r="B605">
         <v>12</v>
       </c>
@@ -9150,7 +11143,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="606" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>722</v>
+      </c>
       <c r="B606">
         <v>12</v>
       </c>
@@ -9161,7 +11157,10 @@
         <v>613</v>
       </c>
     </row>
-    <row r="607" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>722</v>
+      </c>
       <c r="B607">
         <v>12</v>
       </c>
@@ -9172,7 +11171,10 @@
         <v>614</v>
       </c>
     </row>
-    <row r="608" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>722</v>
+      </c>
       <c r="B608">
         <v>12</v>
       </c>
@@ -9183,7 +11185,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="609" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>722</v>
+      </c>
       <c r="B609">
         <v>12</v>
       </c>
@@ -9194,7 +11199,10 @@
         <v>616</v>
       </c>
     </row>
-    <row r="610" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>722</v>
+      </c>
       <c r="B610">
         <v>12</v>
       </c>
@@ -9205,7 +11213,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="611" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>722</v>
+      </c>
       <c r="B611">
         <v>12</v>
       </c>
@@ -9216,7 +11227,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="612" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>722</v>
+      </c>
       <c r="B612">
         <v>12</v>
       </c>
@@ -9227,7 +11241,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="613" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>722</v>
+      </c>
       <c r="B613">
         <v>12</v>
       </c>
@@ -9238,7 +11255,10 @@
         <v>620</v>
       </c>
     </row>
-    <row r="614" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>722</v>
+      </c>
       <c r="B614">
         <v>12</v>
       </c>
@@ -9249,7 +11269,10 @@
         <v>621</v>
       </c>
     </row>
-    <row r="615" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>722</v>
+      </c>
       <c r="B615">
         <v>12</v>
       </c>
@@ -9260,7 +11283,10 @@
         <v>622</v>
       </c>
     </row>
-    <row r="616" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>722</v>
+      </c>
       <c r="B616">
         <v>12</v>
       </c>
@@ -9271,7 +11297,10 @@
         <v>623</v>
       </c>
     </row>
-    <row r="617" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>722</v>
+      </c>
       <c r="B617">
         <v>12</v>
       </c>
@@ -9282,7 +11311,10 @@
         <v>624</v>
       </c>
     </row>
-    <row r="618" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>722</v>
+      </c>
       <c r="B618">
         <v>12</v>
       </c>
@@ -9293,7 +11325,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="619" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>722</v>
+      </c>
       <c r="B619">
         <v>12</v>
       </c>
@@ -9304,7 +11339,10 @@
         <v>626</v>
       </c>
     </row>
-    <row r="620" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>722</v>
+      </c>
       <c r="B620">
         <v>12</v>
       </c>
@@ -9315,7 +11353,10 @@
         <v>627</v>
       </c>
     </row>
-    <row r="621" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>722</v>
+      </c>
       <c r="B621">
         <v>12</v>
       </c>
@@ -9326,7 +11367,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="622" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>722</v>
+      </c>
       <c r="B622">
         <v>12</v>
       </c>
@@ -9337,7 +11381,10 @@
         <v>629</v>
       </c>
     </row>
-    <row r="623" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>724</v>
+      </c>
       <c r="B623">
         <v>13</v>
       </c>
@@ -9348,7 +11395,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="624" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>724</v>
+      </c>
       <c r="B624">
         <v>13</v>
       </c>
@@ -9359,7 +11409,10 @@
         <v>631</v>
       </c>
     </row>
-    <row r="625" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>724</v>
+      </c>
       <c r="B625">
         <v>13</v>
       </c>
@@ -9370,7 +11423,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="626" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>724</v>
+      </c>
       <c r="B626">
         <v>13</v>
       </c>
@@ -9381,7 +11437,10 @@
         <v>633</v>
       </c>
     </row>
-    <row r="627" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>724</v>
+      </c>
       <c r="B627">
         <v>13</v>
       </c>
@@ -9392,7 +11451,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="628" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>724</v>
+      </c>
       <c r="B628">
         <v>13</v>
       </c>
@@ -9403,7 +11465,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="629" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>724</v>
+      </c>
       <c r="B629">
         <v>13</v>
       </c>
@@ -9414,7 +11479,10 @@
         <v>636</v>
       </c>
     </row>
-    <row r="630" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>724</v>
+      </c>
       <c r="B630">
         <v>13</v>
       </c>
@@ -9425,7 +11493,10 @@
         <v>637</v>
       </c>
     </row>
-    <row r="631" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>724</v>
+      </c>
       <c r="B631">
         <v>13</v>
       </c>
@@ -9436,7 +11507,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="632" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>724</v>
+      </c>
       <c r="B632">
         <v>13</v>
       </c>
@@ -9447,7 +11521,10 @@
         <v>639</v>
       </c>
     </row>
-    <row r="633" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>724</v>
+      </c>
       <c r="B633">
         <v>13</v>
       </c>
@@ -9458,7 +11535,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="634" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>724</v>
+      </c>
       <c r="B634">
         <v>13</v>
       </c>
@@ -9469,7 +11549,10 @@
         <v>641</v>
       </c>
     </row>
-    <row r="635" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>724</v>
+      </c>
       <c r="B635">
         <v>13</v>
       </c>
@@ -9480,7 +11563,10 @@
         <v>642</v>
       </c>
     </row>
-    <row r="636" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>724</v>
+      </c>
       <c r="B636">
         <v>13</v>
       </c>
@@ -9491,7 +11577,10 @@
         <v>643</v>
       </c>
     </row>
-    <row r="637" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>724</v>
+      </c>
       <c r="B637">
         <v>13</v>
       </c>
@@ -9502,7 +11591,10 @@
         <v>644</v>
       </c>
     </row>
-    <row r="638" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>724</v>
+      </c>
       <c r="B638">
         <v>13</v>
       </c>
@@ -9513,7 +11605,10 @@
         <v>645</v>
       </c>
     </row>
-    <row r="639" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>724</v>
+      </c>
       <c r="B639">
         <v>13</v>
       </c>
@@ -9524,7 +11619,10 @@
         <v>646</v>
       </c>
     </row>
-    <row r="640" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>724</v>
+      </c>
       <c r="B640">
         <v>13</v>
       </c>
@@ -9535,7 +11633,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="641" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>724</v>
+      </c>
       <c r="B641">
         <v>13</v>
       </c>
@@ -9546,7 +11647,10 @@
         <v>648</v>
       </c>
     </row>
-    <row r="642" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>724</v>
+      </c>
       <c r="B642">
         <v>13</v>
       </c>
@@ -9557,7 +11661,10 @@
         <v>649</v>
       </c>
     </row>
-    <row r="643" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>724</v>
+      </c>
       <c r="B643">
         <v>13</v>
       </c>
@@ -9568,7 +11675,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="644" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>724</v>
+      </c>
       <c r="B644">
         <v>13</v>
       </c>
@@ -9579,7 +11689,10 @@
         <v>651</v>
       </c>
     </row>
-    <row r="645" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>724</v>
+      </c>
       <c r="B645">
         <v>13</v>
       </c>
@@ -9590,7 +11703,10 @@
         <v>652</v>
       </c>
     </row>
-    <row r="646" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>726</v>
+      </c>
       <c r="B646">
         <v>14</v>
       </c>
@@ -9601,7 +11717,10 @@
         <v>653</v>
       </c>
     </row>
-    <row r="647" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>726</v>
+      </c>
       <c r="B647">
         <v>14</v>
       </c>
@@ -9612,7 +11731,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="648" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>726</v>
+      </c>
       <c r="B648">
         <v>14</v>
       </c>
@@ -9623,7 +11745,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="649" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>726</v>
+      </c>
       <c r="B649">
         <v>14</v>
       </c>
@@ -9634,7 +11759,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="650" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>726</v>
+      </c>
       <c r="B650">
         <v>14</v>
       </c>
@@ -9645,7 +11773,10 @@
         <v>657</v>
       </c>
     </row>
-    <row r="651" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>726</v>
+      </c>
       <c r="B651">
         <v>14</v>
       </c>
@@ -9656,7 +11787,10 @@
         <v>658</v>
       </c>
     </row>
-    <row r="652" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>726</v>
+      </c>
       <c r="B652">
         <v>14</v>
       </c>
@@ -9667,7 +11801,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="653" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>726</v>
+      </c>
       <c r="B653">
         <v>14</v>
       </c>
@@ -9678,7 +11815,10 @@
         <v>660</v>
       </c>
     </row>
-    <row r="654" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>726</v>
+      </c>
       <c r="B654">
         <v>14</v>
       </c>
@@ -9689,7 +11829,10 @@
         <v>661</v>
       </c>
     </row>
-    <row r="655" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>726</v>
+      </c>
       <c r="B655">
         <v>14</v>
       </c>
@@ -9700,7 +11843,10 @@
         <v>662</v>
       </c>
     </row>
-    <row r="656" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>726</v>
+      </c>
       <c r="B656">
         <v>14</v>
       </c>
@@ -9711,7 +11857,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="657" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>726</v>
+      </c>
       <c r="B657">
         <v>14</v>
       </c>
@@ -9722,7 +11871,10 @@
         <v>664</v>
       </c>
     </row>
-    <row r="658" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>726</v>
+      </c>
       <c r="B658">
         <v>14</v>
       </c>
@@ -9733,7 +11885,10 @@
         <v>665</v>
       </c>
     </row>
-    <row r="659" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>726</v>
+      </c>
       <c r="B659">
         <v>14</v>
       </c>
@@ -9744,7 +11899,10 @@
         <v>666</v>
       </c>
     </row>
-    <row r="660" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>726</v>
+      </c>
       <c r="B660">
         <v>14</v>
       </c>
@@ -9755,7 +11913,10 @@
         <v>667</v>
       </c>
     </row>
-    <row r="661" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>726</v>
+      </c>
       <c r="B661">
         <v>14</v>
       </c>
@@ -9766,7 +11927,10 @@
         <v>668</v>
       </c>
     </row>
-    <row r="662" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>726</v>
+      </c>
       <c r="B662">
         <v>14</v>
       </c>
@@ -9777,7 +11941,10 @@
         <v>669</v>
       </c>
     </row>
-    <row r="663" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>726</v>
+      </c>
       <c r="B663">
         <v>14</v>
       </c>
@@ -9788,7 +11955,10 @@
         <v>670</v>
       </c>
     </row>
-    <row r="664" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>726</v>
+      </c>
       <c r="B664">
         <v>14</v>
       </c>
@@ -9799,7 +11969,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="665" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>726</v>
+      </c>
       <c r="B665">
         <v>14</v>
       </c>
@@ -9810,7 +11983,10 @@
         <v>672</v>
       </c>
     </row>
-    <row r="666" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>726</v>
+      </c>
       <c r="B666">
         <v>14</v>
       </c>
@@ -9821,7 +11997,10 @@
         <v>673</v>
       </c>
     </row>
-    <row r="667" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>726</v>
+      </c>
       <c r="B667">
         <v>14</v>
       </c>
@@ -9832,7 +12011,10 @@
         <v>674</v>
       </c>
     </row>
-    <row r="668" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>726</v>
+      </c>
       <c r="B668">
         <v>14</v>
       </c>
@@ -9843,7 +12025,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="669" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>728</v>
+      </c>
       <c r="B669">
         <v>15</v>
       </c>
@@ -9854,7 +12039,10 @@
         <v>676</v>
       </c>
     </row>
-    <row r="670" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>728</v>
+      </c>
       <c r="B670">
         <v>15</v>
       </c>
@@ -9865,7 +12053,10 @@
         <v>677</v>
       </c>
     </row>
-    <row r="671" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>728</v>
+      </c>
       <c r="B671">
         <v>15</v>
       </c>
@@ -9876,7 +12067,10 @@
         <v>678</v>
       </c>
     </row>
-    <row r="672" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>728</v>
+      </c>
       <c r="B672">
         <v>15</v>
       </c>
@@ -9887,7 +12081,10 @@
         <v>679</v>
       </c>
     </row>
-    <row r="673" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>728</v>
+      </c>
       <c r="B673">
         <v>15</v>
       </c>
@@ -9898,7 +12095,10 @@
         <v>680</v>
       </c>
     </row>
-    <row r="674" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>728</v>
+      </c>
       <c r="B674">
         <v>15</v>
       </c>
@@ -9909,7 +12109,10 @@
         <v>681</v>
       </c>
     </row>
-    <row r="675" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>728</v>
+      </c>
       <c r="B675">
         <v>15</v>
       </c>
@@ -9920,7 +12123,10 @@
         <v>682</v>
       </c>
     </row>
-    <row r="676" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>728</v>
+      </c>
       <c r="B676">
         <v>15</v>
       </c>
@@ -9931,7 +12137,10 @@
         <v>683</v>
       </c>
     </row>
-    <row r="677" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>728</v>
+      </c>
       <c r="B677">
         <v>15</v>
       </c>
@@ -9942,7 +12151,10 @@
         <v>684</v>
       </c>
     </row>
-    <row r="678" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>728</v>
+      </c>
       <c r="B678">
         <v>15</v>
       </c>
@@ -9953,7 +12165,10 @@
         <v>685</v>
       </c>
     </row>
-    <row r="679" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>728</v>
+      </c>
       <c r="B679">
         <v>15</v>
       </c>
@@ -9964,7 +12179,10 @@
         <v>686</v>
       </c>
     </row>
-    <row r="680" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>728</v>
+      </c>
       <c r="B680">
         <v>15</v>
       </c>
@@ -9975,7 +12193,10 @@
         <v>687</v>
       </c>
     </row>
-    <row r="681" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>728</v>
+      </c>
       <c r="B681">
         <v>15</v>
       </c>
@@ -9986,7 +12207,10 @@
         <v>688</v>
       </c>
     </row>
-    <row r="682" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>728</v>
+      </c>
       <c r="B682">
         <v>15</v>
       </c>
@@ -9997,7 +12221,10 @@
         <v>689</v>
       </c>
     </row>
-    <row r="683" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>728</v>
+      </c>
       <c r="B683">
         <v>15</v>
       </c>
@@ -10008,7 +12235,10 @@
         <v>690</v>
       </c>
     </row>
-    <row r="684" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>728</v>
+      </c>
       <c r="B684">
         <v>15</v>
       </c>
@@ -10019,7 +12249,10 @@
         <v>691</v>
       </c>
     </row>
-    <row r="685" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>728</v>
+      </c>
       <c r="B685">
         <v>15</v>
       </c>
@@ -10030,7 +12263,10 @@
         <v>692</v>
       </c>
     </row>
-    <row r="686" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>728</v>
+      </c>
       <c r="B686">
         <v>15</v>
       </c>
@@ -10041,7 +12277,10 @@
         <v>693</v>
       </c>
     </row>
-    <row r="687" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>728</v>
+      </c>
       <c r="B687">
         <v>15</v>
       </c>
@@ -10052,7 +12291,10 @@
         <v>694</v>
       </c>
     </row>
-    <row r="688" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>728</v>
+      </c>
       <c r="B688">
         <v>15</v>
       </c>
@@ -10063,7 +12305,10 @@
         <v>695</v>
       </c>
     </row>
-    <row r="689" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>728</v>
+      </c>
       <c r="B689">
         <v>15</v>
       </c>
@@ -10074,7 +12319,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="690" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>728</v>
+      </c>
       <c r="B690">
         <v>15</v>
       </c>
@@ -10085,7 +12333,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="691" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>728</v>
+      </c>
       <c r="B691">
         <v>15</v>
       </c>

--- a/Google Earth Engine/LSWI_zones_hum_buf.xlsx
+++ b/Google Earth Engine/LSWI_zones_hum_buf.xlsx
@@ -322,8 +322,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +358,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LSWI vs NDWI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2949,6 +2976,1662 @@
                 </c:pt>
                 <c:pt idx="137">
                   <c:v>-0.14167076613636601</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.108839189331926</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.13184307928308001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.105976739432634</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.107912501730624</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-9.0664592500789301E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.124154193298701</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.102711123666733</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.114167922163906</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.13368530956678401</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.112305512280229</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.135696116288515</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.14934041252809199</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.105870608827893</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.11425575227368399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.12804877038314799</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.12796737824562801</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.116187983768672</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.10247965699244201</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.104463509249538</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.108817340595651</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.12594087121427699</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.122098814587754</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.11426762032085901</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-9.27959741394528E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-9.0883974157203604E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-9.2498682418718906E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-8.6813909659085503E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-8.6765315006635604E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.100471445242284</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-9.4822406174482898E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-9.8615292587056702E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-9.86500573026943E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.10452524102651101</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.100411191582679</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.116069675190242</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.108699941274347</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.10257039121183199</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.110198965773549</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.106486666127594</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.106325078478347</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.112478539370165</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.108482050999688</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.106407249701213</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.106329380017659</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.10445414243913501</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.100719788811688</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-7.66291846113933E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-8.04686288051496E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-8.8825811090478601E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-8.6370431667189301E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-9.8705625289226495E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.100594265396826</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.10056848467709199</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-9.8641995843064795E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-9.0873844131299703E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-9.8608185879070498E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-9.2803284302511502E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.104467713979156</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.104418079336085</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-9.2720601605452105E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-8.2993655544641304E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-8.5018697455683107E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-9.2780913589428499E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-7.91566871785057E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-9.6646548307334296E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-9.8633047700493401E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-8.9012690431247002E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-8.6896332665469506E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-8.8963750640122394E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-5.5620989304597197E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-5.98213233679524E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-5.58792583126662E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-5.71227543985139E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-5.7586715912945202E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-5.9752818143904103E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-6.1474977122610498E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-6.15457500473474E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-5.7667949969655498E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-5.77665198958182E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-4.9967740035222197E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-5.1784342006851898E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-6.1473238691506303E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-6.1552356747609102E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-6.3476051454201099E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-6.3558970416454405E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-6.16759120464948E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-6.1606958181640602E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-5.7618186735104999E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-6.3508416489693603E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-5.5623727814110402E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-5.9645578577238602E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-6.3506323688839794E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-0.11235188112880801</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.12007248165444</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-0.118165554864629</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-0.112369349612677</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.11996578992597599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-0.145576662951727</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-0.14739000797034801</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-0.13176427395742099</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-0.13993594904047299</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.15139974722676799</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.13969163147225599</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-0.145485733825574</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-0.14153370801176901</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-0.153410962150794</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-0.12996567988873101</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-0.141835533003871</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-0.13580463252521</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-0.129855360265897</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-0.14148636091568301</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.12989947139034499</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-0.13572504614962599</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.12996879873766601</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.129819699239411</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.103024310376972</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.107898403603873</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-0.100088291499159</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-9.3278098492320105E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-9.7152519452122194E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-0.108902732543446</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-9.8153608265294401E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-9.8654362810280602E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.120603648768404</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-9.8640925744026303E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.110520728544355</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.12399371931145101</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.104454872475764</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-9.8114465112108404E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.116687277125042</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.104974559475654</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-9.6167998394552798E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-9.1305139292434806E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.104013253835956</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-0.1059191170285</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.11477451469956</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-0.11767116992299401</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.104036413674266</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.116245662438555</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.124021896437488</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-0.12800734793557</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.116478711743804</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.121845794238466</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.14374000170074699</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.13773898683535901</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.128145881047976</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.13372315607448201</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.13579969873033801</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.139755888514978</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.141699768237597</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-0.13772565758821301</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.15180500872736499</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-0.12593562141591799</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-0.135218700764376</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-0.13334574890106601</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.13033524571555799</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-0.14414758986411699</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-0.12992576220655999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-0.13421331053662899</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-0.12781846949403999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-0.12981515894016099</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-9.2875380752175205E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-9.0773029647059106E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-9.6539692667231294E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-9.0799205893971294E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-0.100696804021354</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.10846283359379599</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-0.10444773790242</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.10453338722185</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-9.8597068304503294E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.10839930719425001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.100550193368941</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.10257872608603499</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.11916911694582299</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.104526658540568</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-9.6786698580918096E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-9.6760755761570505E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-9.8667592603635307E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-9.4587770778986696E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.11034359689892401</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.10245783664701399</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-8.6962897998755298E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-9.8603037116614597E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-9.2674171892042495E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-6.9362730374295398E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-7.3108653586986497E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-7.1324032100691701E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-6.5413246070240599E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-8.10307981485512E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-7.9077302386796E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-8.1003246856190106E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-8.1030980083363999E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-7.1268448335076395E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-7.3221955559263599E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-7.7185578871551003E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-7.9148557375370701E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-7.5201119250214402E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-7.13122802390182E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-7.5166977844770305E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-8.0995928137107195E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-7.5123205242623101E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-7.9102863493754602E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-7.3172526296126306E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-7.5192102511495607E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-7.5234326074674507E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-7.3329343445437803E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-6.9315128017360797E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-8.1274652098318995E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-8.4123160690069199E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-7.3015917590337501E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-6.3182150584555397E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-9.1440237448469797E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-7.7046118789550005E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-8.48871471966684E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-8.4429129274165002E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-9.5378371765432096E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-7.92722158020851E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-8.6628217271477501E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-7.9813994329284696E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-6.5187357366084997E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-5.6250640457076097E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-6.2289205902119303E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-7.6777551997009502E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-6.7546864498015294E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-7.9076385464180596E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-6.7074102880079506E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-6.7694597776226398E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-6.3731842730035099E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-7.1456255771780497E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-6.9779719347539099E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3.1845542602240998E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3.5487355043490702E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2.7822431590822001E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2.2977428182082999E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3.6246676929295001E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.5876044382651601E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2.7087904761234901E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2.38510556519031E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2.8847656399011601E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3.1858111421267099E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.5401798784732798E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3.0270371958613301E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.6099974779146001E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2.1108993639548601E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3.7484398377793098E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>4.3588447384536197E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.8621601027746998E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>5.6084452913357598E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.0847719973988001E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>4.1518630459904601E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2.9778813570737798E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2.2063453309237899E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2.5083167385309899E-2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-0.11342725814098401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-0.114532628753423</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-0.10931187316876</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-9.5539381033453802E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-9.4613920162440399E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-0.11686759503161299</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-0.11649069648662</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-0.118017403003337</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-0.13420861786608401</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-0.103184907587879</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-0.123706338759781</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-0.145016395674297</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-0.108544935068178</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-0.10822464047552401</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-0.121737518076137</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-0.11780171497757</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-0.10372784683342499</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-0.10858839768192299</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-0.12184154932926999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-0.115593879296011</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-0.12455388603411301</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-0.130217618739047</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-0.11286697893926501</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-4.0124238412986402E-2</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-2.0240979265250099E-2</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-5.0849138946207299E-3</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2.2419855421917E-2</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>4.58294798073638E-2</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>7.1570566033615696E-2</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.12203740036319</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>8.7064715205957099E-2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>9.2842355615847402E-2</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>7.5139124008893998E-2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>8.8725783791973295E-2</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>4.7932460375282301E-2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>6.1217669574987303E-2</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>8.3016753320266395E-2</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.118178782579691</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.131973353404192</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.102544712269225</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.10667033652576099</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>6.93425782902055E-2</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.116149462457318</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.114365147777532</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.108352568009703</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.116216346887605</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-0.122786075879129</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-0.15853048781367499</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>6.5826832184813E-2</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>3.9712321348952598E-2</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.45701799351427E-2</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>8.82280208068775E-2</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>3.4511676989495699E-2</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-0.173748159600109</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-0.24014189317451601</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-0.19628705215697301</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-0.19325456122543599</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.7493573957852698E-2</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-3.2021050588215597E-2</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-0.11860100571630899</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>3.02412601529943E-2</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>5.31942144164185E-2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-3.2170819925929801E-2</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-0.11525849045449101</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-0.16902653959529501</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-0.16907480531208199</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-0.19032823815945599</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-0.22765441377649701</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-0.20220257405514599</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-8.1027552915904993E-2</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-5.3417066212021198E-2</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-2.8275430937836198E-2</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-2.4400339513611001E-2</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-1.0412476185592801E-3</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-1.2778601115039799E-2</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>6.48124888586879E-3</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2.4434524029493299E-2</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.6461339468757299E-2</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3.43361164169411E-2</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>3.7959110579992503E-2</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>4.19491720706048E-2</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>6.3469666141897099E-2</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>6.1462535693937399E-2</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>6.7482988308497499E-2</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>7.1411075065261898E-2</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>6.3465067171133399E-2</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>6.9383462202923199E-2</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>5.1583868275775997E-2</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>6.5514817608574305E-2</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>5.5565665450715201E-2</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>5.7534444000904197E-2</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>6.9475322177933202E-2</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-0.142053819436053</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-0.15587804124704699</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-0.127692872285842</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-0.123556702126771</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-9.6883495463638794E-2</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-0.14500089615778</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-0.13125741545632799</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-0.14693674671454901</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-0.15079090228627201</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-0.13047024076070601</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>-0.14410478407545499</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-0.18065685672857301</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-0.114754567838266</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-0.13524958226878001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-0.155734163256006</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-0.150859743069893</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>-0.13609578600844799</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-0.13609056183031301</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-0.135168626661126</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-0.137254439254137</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>-0.15946190286026801</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-0.159541678652694</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-0.145014761079577</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-0.11147034581865101</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-0.10367730039526001</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-0.109681569039821</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-9.8969097364936295E-2</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-0.10439246892928999</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-0.123409964144229</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-0.110260039567947</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-0.116407952573097</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-0.108159086134669</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-0.114591830968856</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-0.10442126542329699</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-0.12902275080880199</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-0.113178729428595</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>-0.10338034863911801</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>-0.10522683709859799</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>-0.107824163564613</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-0.106248525520141</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>-0.114323861215884</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>-0.11215299367904601</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>-0.111737467348575</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-0.10716925561428001</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-0.104311231964377</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-0.10493692755699099</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>-5.6188045069575303E-2</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-7.0815142496596706E-2</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-6.6171047390899906E-2</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-7.1845360100269304E-2</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>-8.8446445155905204E-2</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-0.100442051887512</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>-9.5100152351177705E-2</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-0.144049223204818</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-0.11570110574827901</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-0.13732499168534101</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>-0.11425112839077201</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-8.8300215080380398E-2</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-0.14022888721788601</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-9.7309924626050301E-2</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-8.6701619356232607E-2</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-0.124411631004787</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-8.3476506173610604E-2</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-9.0383454734824301E-2</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-9.9337448319750402E-2</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-9.5252055186228604E-2</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-0.10398465394973699</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-8.64541693626205E-2</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-7.7695168554782798E-2</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-0.12834587951977</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-0.119563551667071</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-0.132211778312921</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-0.114641408306283</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-0.12846243754029199</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-9.9187637310227797E-2</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-0.113559137922007</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-0.124633550298355</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-0.11178379657575201</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-0.11761460391183599</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-0.111833014871521</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-0.13850334882736201</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-0.13123475480525801</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-0.123384144902229</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-0.12659337123235001</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-0.12163688784295799</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-0.12270254145065899</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-0.13035855035705901</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-0.12939218572668101</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-0.12843627418508499</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-0.124479533961186</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>-0.125350334662374</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-0.120632924148853</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-0.143428180285815</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-0.14550210756576001</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>-0.15135501210103899</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-0.14401450205959601</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>-0.14550800720819901</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>-0.17305160537616299</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>-0.18244864022012999</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-0.180741810150849</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>-0.19635399069096299</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-0.18656646712769401</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>-0.18453567891745101</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>-0.202184710076485</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>-0.18834512970429501</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>-0.184516832197403</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>-0.13951624009201399</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>-0.17256592569297299</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>-0.16112904247329399</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-0.17060520292311299</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>-0.19839601131915399</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>-0.184224137238093</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>-0.186595148423152</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>-0.196201411231224</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>-0.18674059428306</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>-1.8627037631214E-2</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>-2.0278018278380199E-2</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>-2.4494225004067002E-2</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>-1.8591032527825398E-2</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>-2.2442427084176202E-2</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>-6.5471139700348402E-2</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-3.0482079626785299E-2</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>-3.0341509839191101E-2</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-4.38649116870981E-2</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>-1.6456555472211101E-2</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>-3.9981349807243903E-2</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>-3.9859995015120102E-2</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-8.5801223792957692E-3</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>-3.8304751926506599E-2</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-5.5648496952389701E-2</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>-3.2312620354745497E-2</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>-3.0233914680954301E-2</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>-3.4281543582860598E-2</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>-2.6498752487716999E-2</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>-1.8587919023747599E-2</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>-1.27970685864642E-2</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>-3.0131202284246601E-2</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>-4.01446383857747E-2</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>-0.120685756136553</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>-0.12561371326982201</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>-0.129635526154426</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>-0.114875002928232</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>-0.11584744620916899</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-0.13792183049083701</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>-0.13177064818895401</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-0.137924050587834</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>-0.13526035178404799</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>-0.14328706425471899</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>-0.13968168149229701</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-0.14350766411240801</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>-0.135311058597954</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>-0.13562941379805901</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>-0.12126096106732</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>-0.13166061929391801</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>-0.121569433200077</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>-0.12737682089209501</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>-0.13547588206196601</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-0.12567407087079899</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>-0.124553744911506</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>-0.13403089123911799</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>-0.13202634081244399</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-7.5316872670455198E-2</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>-6.9130288684091504E-2</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>-5.5621383936076997E-2</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>-5.3727367859043702E-2</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>-3.2267487405434898E-2</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>-5.3696137977871101E-2</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-3.82585897521917E-2</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>-6.9416800053539895E-2</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-7.32876999104667E-2</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>-6.5393547858317899E-2</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>-4.3945132013600501E-2</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>4.9381478940292E-3</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-1.08855558097583E-2</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>-2.0454973332862E-2</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>-2.0548190729616E-2</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>-1.08033835948299E-2</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>-8.7853590550423695E-3</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>-1.84060246619096E-2</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>-2.9555327792959401E-3</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>1.2748567021522101E-2</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>-8.8349926379710994E-3</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>-1.6713696449251799E-2</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>-1.4779954539186201E-2</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>-0.13061274837005099</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>-0.14082351365311099</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>-0.129040974024108</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>-0.119344726272095</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>-0.124251697240319</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>-0.14104528473487599</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>-0.118713242301209</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>-0.116666229848023</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>-0.14706008568006501</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>-0.11298624452612301</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>-0.13244078517151101</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>-0.160653984246904</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>-0.12145792054933501</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-0.12231572319852201</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>-0.14730009705942201</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>-0.134322956540149</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>-0.11687639457677999</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>-0.112090749151827</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>-0.129623922813349</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>-0.119416212505647</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>-0.137537662184989</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>-0.14127423489695401</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>-0.118891543930485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,16 +5398,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32853,10 +34536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G691"/>
+  <dimension ref="C1:H691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32864,6 +34547,7 @@
     <col min="3" max="3" width="8.85546875"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875"/>
+    <col min="7" max="7" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
@@ -35242,6 +36926,9 @@
       <c r="F140">
         <v>2.47774295787246E-2</v>
       </c>
+      <c r="G140">
+        <v>-0.108839189331926</v>
+      </c>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C141">
@@ -35256,6 +36943,9 @@
       <c r="F141">
         <v>2.1028586954831199E-2</v>
       </c>
+      <c r="G141">
+        <v>-0.13184307928308001</v>
+      </c>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C142">
@@ -35270,6 +36960,9 @@
       <c r="F142">
         <v>5.6099748182956703E-2</v>
       </c>
+      <c r="G142">
+        <v>-0.105976739432634</v>
+      </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C143">
@@ -35284,6 +36977,9 @@
       <c r="F143">
         <v>3.7582132669378099E-2</v>
       </c>
+      <c r="G143">
+        <v>-0.107912501730624</v>
+      </c>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C144">
@@ -35298,8 +36994,11 @@
       <c r="F144">
         <v>4.6380189060782798E-2</v>
       </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>-9.0664592500789301E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>7</v>
       </c>
@@ -35312,8 +37011,11 @@
       <c r="F145">
         <v>1.52340749935053E-3</v>
       </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>-0.124154193298701</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>7</v>
       </c>
@@ -35326,8 +37028,11 @@
       <c r="F146">
         <v>1.01887552339462E-2</v>
       </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>-0.102711123666733</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>7</v>
       </c>
@@ -35340,8 +37045,11 @@
       <c r="F147">
         <v>1.46895544713377E-2</v>
       </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>-0.114167922163906</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>7</v>
       </c>
@@ -35354,8 +37062,11 @@
       <c r="F148">
         <v>8.7497896573113295E-3</v>
       </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>-0.13368530956678401</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>7</v>
       </c>
@@ -35368,8 +37079,11 @@
       <c r="F149">
         <v>1.27198122222887E-2</v>
       </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>-0.112305512280229</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>7</v>
       </c>
@@ -35382,8 +37096,11 @@
       <c r="F150">
         <v>3.2133900430553197E-2</v>
       </c>
-    </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>-0.135696116288515</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>7</v>
       </c>
@@ -35396,8 +37113,11 @@
       <c r="F151">
         <v>4.2114445894118599E-2</v>
       </c>
-    </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>-0.14934041252809199</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>7</v>
       </c>
@@ -35410,8 +37130,11 @@
       <c r="F152">
         <v>4.3447400714775E-2</v>
       </c>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>-0.105870608827893</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>7</v>
       </c>
@@ -35424,8 +37147,11 @@
       <c r="F153">
         <v>2.0016021931155599E-2</v>
       </c>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>-0.11425575227368399</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>7</v>
       </c>
@@ -35438,8 +37164,11 @@
       <c r="F154">
         <v>2.44133732088322E-2</v>
       </c>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>-0.12804877038314799</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>7</v>
       </c>
@@ -35452,8 +37181,11 @@
       <c r="F155">
         <v>2.63855188334968E-2</v>
       </c>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>-0.12796737824562801</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>7</v>
       </c>
@@ -35466,8 +37198,11 @@
       <c r="F156">
         <v>1.6124592229373399E-2</v>
       </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>-0.116187983768672</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>7</v>
       </c>
@@ -35480,8 +37215,11 @@
       <c r="F157">
         <v>1.8550553857604998E-2</v>
       </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>-0.10247965699244201</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>7</v>
       </c>
@@ -35494,8 +37232,11 @@
       <c r="F158">
         <v>2.48628076753061E-2</v>
       </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>-0.104463509249538</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>7</v>
       </c>
@@ -35508,8 +37249,11 @@
       <c r="F159">
         <v>2.64351788018992E-2</v>
       </c>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>-0.108817340595651</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>7</v>
       </c>
@@ -35522,8 +37266,11 @@
       <c r="F160">
         <v>3.6150770712882301E-2</v>
       </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>-0.12594087121427699</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>7</v>
       </c>
@@ -35536,8 +37283,11 @@
       <c r="F161">
         <v>3.9869290993933597E-2</v>
       </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>-0.122098814587754</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>7</v>
       </c>
@@ -35550,8 +37300,11 @@
       <c r="F162">
         <v>2.83599820943672E-2</v>
       </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>-0.11426762032085901</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>8</v>
       </c>
@@ -35564,8 +37317,11 @@
       <c r="F163">
         <v>9.0870098490442707E-3</v>
       </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>-9.27959741394528E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>8</v>
       </c>
@@ -35578,8 +37334,11 @@
       <c r="F164">
         <v>5.2750653434306197E-3</v>
       </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>-9.0883974157203604E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C165">
         <v>8</v>
       </c>
@@ -35592,8 +37351,11 @@
       <c r="F165">
         <v>1.9157995869006399E-2</v>
       </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>-9.2498682418718906E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C166">
         <v>8</v>
       </c>
@@ -35606,8 +37368,11 @@
       <c r="F166">
         <v>1.0313778799090401E-2</v>
       </c>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>-8.6813909659085503E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>8</v>
       </c>
@@ -35620,8 +37385,11 @@
       <c r="F167">
         <v>2.10375656352405E-2</v>
       </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>-8.6765315006635604E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C168">
         <v>8</v>
       </c>
@@ -35634,8 +37402,11 @@
       <c r="F168">
         <v>2.0459287689259299E-2</v>
       </c>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>-0.100471445242284</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>8</v>
       </c>
@@ -35648,8 +37419,11 @@
       <c r="F169">
         <v>1.2202975944980101E-2</v>
       </c>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>-9.4822406174482898E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>8</v>
       </c>
@@ -35662,8 +37436,11 @@
       <c r="F170">
         <v>1.6539700192052999E-2</v>
       </c>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>-9.8615292587056702E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>8</v>
       </c>
@@ -35676,8 +37453,11 @@
       <c r="F171">
         <v>1.31500251336706E-2</v>
       </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>-9.86500573026943E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>8</v>
       </c>
@@ -35690,8 +37470,11 @@
       <c r="F172">
         <v>1.6950904297422902E-2</v>
       </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>-0.10452524102651101</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>8</v>
       </c>
@@ -35704,8 +37487,11 @@
       <c r="F173">
         <v>1.6079585445116201E-2</v>
       </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>-0.100411191582679</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>8</v>
       </c>
@@ -35718,8 +37504,11 @@
       <c r="F174">
         <v>1.9013071299663599E-2</v>
       </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>-0.116069675190242</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>8</v>
       </c>
@@ -35732,8 +37521,11 @@
       <c r="F175">
         <v>2.8876936001960899E-2</v>
       </c>
-    </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>-0.108699941274347</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>8</v>
       </c>
@@ -35746,8 +37538,11 @@
       <c r="F176">
         <v>1.8049854948791699E-2</v>
       </c>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>-0.10257039121183199</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>8</v>
       </c>
@@ -35760,8 +37555,11 @@
       <c r="F177">
         <v>2.26126734550284E-2</v>
       </c>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>-0.110198965773549</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>8</v>
       </c>
@@ -35774,8 +37572,11 @@
       <c r="F178">
         <v>2.04054310515417E-2</v>
       </c>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>-0.106486666127594</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>8</v>
       </c>
@@ -35788,8 +37589,11 @@
       <c r="F179">
         <v>3.22669734732597E-2</v>
       </c>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>-0.106325078478347</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>8</v>
       </c>
@@ -35802,8 +37606,11 @@
       <c r="F180">
         <v>2.24591312425312E-2</v>
       </c>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>-0.112478539370165</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>8</v>
       </c>
@@ -35816,8 +37623,11 @@
       <c r="F181">
         <v>4.01137275839267E-2</v>
       </c>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>-0.108482050999688</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>8</v>
       </c>
@@ -35830,8 +37640,11 @@
       <c r="F182">
         <v>3.2188021871184101E-2</v>
       </c>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>-0.106407249701213</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>8</v>
       </c>
@@ -35844,8 +37657,11 @@
       <c r="F183">
         <v>2.6370299982723701E-2</v>
       </c>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>-0.106329380017659</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>8</v>
       </c>
@@ -35858,8 +37674,11 @@
       <c r="F184">
         <v>2.8327540177084502E-2</v>
       </c>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>-0.10445414243913501</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>8</v>
       </c>
@@ -35872,8 +37691,11 @@
       <c r="F185">
         <v>2.6426159521592101E-2</v>
       </c>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>-0.100719788811688</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>9</v>
       </c>
@@ -35886,8 +37708,11 @@
       <c r="F186">
         <v>-9.2323688327350106E-3</v>
       </c>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>-7.66291846113933E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>9</v>
       </c>
@@ -35900,8 +37725,11 @@
       <c r="F187">
         <v>4.3124059871830203E-3</v>
       </c>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>-8.04686288051496E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>9</v>
       </c>
@@ -35914,8 +37742,11 @@
       <c r="F188">
         <v>-4.7597742531185901E-4</v>
       </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>-8.8825811090478601E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>9</v>
       </c>
@@ -35928,8 +37759,11 @@
       <c r="F189">
         <v>8.2511754841116305E-3</v>
       </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>-8.6370431667189301E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>9</v>
       </c>
@@ -35942,8 +37776,11 @@
       <c r="F190">
         <v>1.12113851834745E-2</v>
       </c>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>-9.8705625289226495E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>9</v>
       </c>
@@ -35956,8 +37793,11 @@
       <c r="F191">
         <v>-1.21608786051125E-2</v>
       </c>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>-0.100594265396826</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>9</v>
       </c>
@@ -35970,8 +37810,11 @@
       <c r="F192">
         <v>-1.12435475829889E-2</v>
       </c>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>-0.10056848467709199</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C193">
         <v>9</v>
       </c>
@@ -35984,8 +37827,11 @@
       <c r="F193">
         <v>-1.6551517587500401E-2</v>
       </c>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>-9.8641995843064795E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C194">
         <v>9</v>
       </c>
@@ -35998,8 +37844,11 @@
       <c r="F194">
         <v>-8.3021022460258598E-3</v>
       </c>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>-9.0873844131299703E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C195">
         <v>9</v>
       </c>
@@ -36012,8 +37861,11 @@
       <c r="F195">
         <v>-3.04016017249865E-3</v>
       </c>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>-9.8608185879070498E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C196">
         <v>9</v>
       </c>
@@ -36026,8 +37878,11 @@
       <c r="F196">
         <v>1.21561972242495E-2</v>
       </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>-9.2803284302511502E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C197">
         <v>9</v>
       </c>
@@ -36040,8 +37895,11 @@
       <c r="F197">
         <v>1.31895755539121E-2</v>
       </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>-0.104467713979156</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C198">
         <v>9</v>
       </c>
@@ -36054,8 +37912,11 @@
       <c r="F198">
         <v>1.0932624854499201E-2</v>
       </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>-0.104418079336085</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C199">
         <v>9</v>
       </c>
@@ -36068,8 +37929,11 @@
       <c r="F199">
         <v>4.2212686730591703E-3</v>
       </c>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>-9.2720601605452105E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C200">
         <v>9</v>
       </c>
@@ -36082,8 +37946,11 @@
       <c r="F200">
         <v>-1.3498192200935299E-3</v>
       </c>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>-8.2993655544641304E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C201">
         <v>9</v>
       </c>
@@ -36096,8 +37963,11 @@
       <c r="F201">
         <v>2.3085163736981502E-3</v>
       </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>-8.5018697455683107E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C202">
         <v>9</v>
       </c>
@@ -36110,8 +37980,11 @@
       <c r="F202">
         <v>6.3930112565740898E-3</v>
       </c>
-    </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>-9.2780913589428499E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C203">
         <v>9</v>
       </c>
@@ -36124,8 +37997,11 @@
       <c r="F203">
         <v>-2.44303821736123E-3</v>
       </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>-7.91566871785057E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C204">
         <v>9</v>
       </c>
@@ -36138,8 +38014,11 @@
       <c r="F204">
         <v>2.08547916716052E-2</v>
       </c>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>-9.6646548307334296E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C205">
         <v>9</v>
       </c>
@@ -36152,8 +38031,11 @@
       <c r="F205">
         <v>1.42173957298197E-2</v>
       </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>-9.8633047700493401E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C206">
         <v>9</v>
       </c>
@@ -36166,8 +38048,11 @@
       <c r="F206">
         <v>9.2771644231203904E-3</v>
       </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>-8.9012690431247002E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C207">
         <v>9</v>
       </c>
@@ -36180,8 +38065,11 @@
       <c r="F207">
         <v>1.2156724952250999E-2</v>
       </c>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>-8.6896332665469506E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C208">
         <v>9</v>
       </c>
@@ -36194,8 +38082,11 @@
       <c r="F208">
         <v>1.11783905710403E-2</v>
       </c>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>-8.8963750640122394E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C209">
         <v>10</v>
       </c>
@@ -36208,8 +38099,11 @@
       <c r="F209">
         <v>2.4142461412283898E-2</v>
       </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>-5.5620989304597197E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C210">
         <v>10</v>
       </c>
@@ -36222,8 +38116,11 @@
       <c r="F210">
         <v>2.6310950318568099E-2</v>
       </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>-5.98213233679524E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C211">
         <v>10</v>
       </c>
@@ -36236,8 +38133,11 @@
       <c r="F211">
         <v>3.0032932330374799E-2</v>
       </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>-5.58792583126662E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>10</v>
       </c>
@@ -36250,8 +38150,11 @@
       <c r="F212">
         <v>2.8500961783020001E-2</v>
       </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>-5.71227543985139E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C213">
         <v>10</v>
       </c>
@@ -36264,8 +38167,11 @@
       <c r="F213">
         <v>3.0185454401154398E-2</v>
       </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>-5.7586715912945202E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C214">
         <v>10</v>
       </c>
@@ -36278,8 +38184,11 @@
       <c r="F214">
         <v>2.4349259215327702E-2</v>
       </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>-5.9752818143904103E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C215">
         <v>10</v>
       </c>
@@ -36292,8 +38201,11 @@
       <c r="F215">
         <v>2.4488028971383101E-2</v>
       </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>-6.1474977122610498E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C216">
         <v>10</v>
       </c>
@@ -36306,8 +38218,11 @@
       <c r="F216">
         <v>2.63562836324579E-2</v>
       </c>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>-6.15457500473474E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C217">
         <v>10</v>
       </c>
@@ -36320,8 +38235,11 @@
       <c r="F217">
         <v>2.4325015966473001E-2</v>
       </c>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>-5.7667949969655498E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C218">
         <v>10</v>
       </c>
@@ -36334,8 +38252,11 @@
       <c r="F218">
         <v>2.0476972307427201E-2</v>
       </c>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>-5.77665198958182E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C219">
         <v>10</v>
       </c>
@@ -36348,8 +38269,11 @@
       <c r="F219">
         <v>2.61706442405687E-2</v>
       </c>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>-4.9967740035222197E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C220">
         <v>10</v>
       </c>
@@ -36362,8 +38286,11 @@
       <c r="F220">
         <v>2.23718133091842E-2</v>
       </c>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>-5.1784342006851898E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C221">
         <v>10</v>
       </c>
@@ -36376,8 +38303,11 @@
       <c r="F221">
         <v>2.2249254617112801E-2</v>
       </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>-6.1473238691506303E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C222">
         <v>10</v>
       </c>
@@ -36390,8 +38320,11 @@
       <c r="F222">
         <v>2.2432418086535299E-2</v>
       </c>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>-6.1552356747609102E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C223">
         <v>10</v>
       </c>
@@ -36404,8 +38337,11 @@
       <c r="F223">
         <v>2.4209600283796401E-2</v>
       </c>
-    </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>-6.3476051454201099E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C224">
         <v>10</v>
       </c>
@@ -36418,8 +38354,11 @@
       <c r="F224">
         <v>2.03701785996406E-2</v>
       </c>
-    </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>-6.3558970416454405E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C225">
         <v>10</v>
       </c>
@@ -36432,8 +38371,11 @@
       <c r="F225">
         <v>2.4402246836421799E-2</v>
       </c>
-    </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>-6.16759120464948E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C226">
         <v>10</v>
       </c>
@@ -36446,8 +38388,11 @@
       <c r="F226">
         <v>2.2465818677832199E-2</v>
       </c>
-    </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>-6.1606958181640602E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C227">
         <v>10</v>
       </c>
@@ -36460,8 +38405,11 @@
       <c r="F227">
         <v>3.0306660717213801E-2</v>
       </c>
-    </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>-5.7618186735104999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>10</v>
       </c>
@@ -36474,8 +38422,11 @@
       <c r="F228">
         <v>2.6207739107330499E-2</v>
       </c>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>-6.3508416489693603E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>10</v>
       </c>
@@ -36488,8 +38439,11 @@
       <c r="F229">
         <v>3.0203541479905598E-2</v>
       </c>
-    </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>-5.5623727814110402E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C230">
         <v>10</v>
       </c>
@@ -36502,8 +38456,11 @@
       <c r="F230">
         <v>2.63997535890962E-2</v>
       </c>
-    </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>-5.9645578577238602E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>10</v>
       </c>
@@ -36516,8 +38473,11 @@
       <c r="F231">
         <v>2.6324422378797101E-2</v>
       </c>
-    </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>-6.3506323688839794E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>11</v>
       </c>
@@ -36530,8 +38490,11 @@
       <c r="F232">
         <v>-2.9737280101516201E-3</v>
       </c>
-    </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>-0.11235188112880801</v>
+      </c>
+    </row>
+    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>11</v>
       </c>
@@ -36544,8 +38507,11 @@
       <c r="F233">
         <v>-6.32114203951989E-3</v>
       </c>
-    </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>-0.12007248165444</v>
+      </c>
+    </row>
+    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>11</v>
       </c>
@@ -36558,8 +38524,11 @@
       <c r="F234">
         <v>-4.7719406823613997E-3</v>
       </c>
-    </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>-0.118165554864629</v>
+      </c>
+    </row>
+    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C235">
         <v>11</v>
       </c>
@@ -36572,8 +38541,11 @@
       <c r="F235">
         <v>4.38092266262233E-3</v>
       </c>
-    </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>-0.112369349612677</v>
+      </c>
+    </row>
+    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>11</v>
       </c>
@@ -36586,8 +38558,11 @@
       <c r="F236">
         <v>2.2868748002058001E-2</v>
       </c>
-    </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>-0.11996578992597599</v>
+      </c>
+    </row>
+    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>11</v>
       </c>
@@ -36600,8 +38575,11 @@
       <c r="F237">
         <v>-9.1289275107358104E-4</v>
       </c>
-    </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>-0.145576662951727</v>
+      </c>
+    </row>
+    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>11</v>
       </c>
@@ -36614,8 +38592,11 @@
       <c r="F238">
         <v>-2.8320441252347298E-3</v>
       </c>
-    </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>-0.14739000797034801</v>
+      </c>
+    </row>
+    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>11</v>
       </c>
@@ -36628,8 +38609,11 @@
       <c r="F239">
         <v>-1.08140658511273E-2</v>
       </c>
-    </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>-0.13176427395742099</v>
+      </c>
+    </row>
+    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>11</v>
       </c>
@@ -36642,8 +38626,11 @@
       <c r="F240">
         <v>-1.2735055456745199E-2</v>
       </c>
-    </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>-0.13993594904047299</v>
+      </c>
+    </row>
+    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C241">
         <v>11</v>
       </c>
@@ -36656,8 +38643,11 @@
       <c r="F241">
         <v>1.08171455375213E-2</v>
       </c>
-    </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>-0.15139974722676799</v>
+      </c>
+    </row>
+    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C242">
         <v>11</v>
       </c>
@@ -36670,8 +38660,11 @@
       <c r="F242">
         <v>-1.5188682490462099E-3</v>
       </c>
-    </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>-0.13969163147225599</v>
+      </c>
+    </row>
+    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C243">
         <v>11</v>
       </c>
@@ -36684,8 +38677,11 @@
       <c r="F243">
         <v>1.65486403982976E-2</v>
       </c>
-    </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>-0.145485733825574</v>
+      </c>
+    </row>
+    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C244">
         <v>11</v>
       </c>
@@ -36698,8 +38694,11 @@
       <c r="F244">
         <v>4.8318716293917104E-3</v>
       </c>
-    </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>-0.14153370801176901</v>
+      </c>
+    </row>
+    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C245">
         <v>11</v>
       </c>
@@ -36712,8 +38711,11 @@
       <c r="F245">
         <v>1.6587217176556101E-2</v>
       </c>
-    </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>-0.153410962150794</v>
+      </c>
+    </row>
+    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C246">
         <v>11</v>
       </c>
@@ -36726,8 +38728,11 @@
       <c r="F246">
         <v>4.40546554568335E-3</v>
       </c>
-    </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>-0.12996567988873101</v>
+      </c>
+    </row>
+    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C247">
         <v>11</v>
       </c>
@@ -36740,8 +38745,11 @@
       <c r="F247">
         <v>1.8808433966939E-2</v>
       </c>
-    </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>-0.141835533003871</v>
+      </c>
+    </row>
+    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C248">
         <v>11</v>
       </c>
@@ -36754,8 +38762,11 @@
       <c r="F248">
         <v>1.6621299153091001E-2</v>
       </c>
-    </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>-0.13580463252521</v>
+      </c>
+    </row>
+    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C249">
         <v>11</v>
       </c>
@@ -36768,8 +38779,11 @@
       <c r="F249">
         <v>8.7187692646726496E-3</v>
       </c>
-    </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>-0.129855360265897</v>
+      </c>
+    </row>
+    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C250">
         <v>11</v>
       </c>
@@ -36782,8 +38796,11 @@
       <c r="F250">
         <v>2.81885857812211E-2</v>
       </c>
-    </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>-0.14148636091568301</v>
+      </c>
+    </row>
+    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C251">
         <v>11</v>
       </c>
@@ -36796,8 +38813,11 @@
       <c r="F251">
         <v>2.0397785468989699E-2</v>
       </c>
-    </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>-0.12989947139034499</v>
+      </c>
+    </row>
+    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C252">
         <v>11</v>
       </c>
@@ -36810,8 +38830,11 @@
       <c r="F252">
         <v>2.0978142421226399E-2</v>
       </c>
-    </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>-0.13572504614962599</v>
+      </c>
+    </row>
+    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C253">
         <v>11</v>
       </c>
@@ -36824,8 +38847,11 @@
       <c r="F253">
         <v>2.26066993318602E-2</v>
       </c>
-    </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>-0.12996879873766601</v>
+      </c>
+    </row>
+    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C254">
         <v>11</v>
       </c>
@@ -36838,8 +38864,11 @@
       <c r="F254">
         <v>1.6139634179620201E-2</v>
       </c>
-    </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>-0.129819699239411</v>
+      </c>
+    </row>
+    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C255">
         <v>12</v>
       </c>
@@ -36852,8 +38881,11 @@
       <c r="F255">
         <v>9.2972168646904899E-3</v>
       </c>
-    </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>-0.103024310376972</v>
+      </c>
+    </row>
+    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C256">
         <v>12</v>
       </c>
@@ -36866,8 +38898,11 @@
       <c r="F256">
         <v>3.39026653850295E-3</v>
       </c>
-    </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>-0.107898403603873</v>
+      </c>
+    </row>
+    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C257">
         <v>12</v>
       </c>
@@ -36880,8 +38915,11 @@
       <c r="F257">
         <v>3.4448659534638201E-3</v>
       </c>
-    </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>-0.100088291499159</v>
+      </c>
+    </row>
+    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C258">
         <v>12</v>
       </c>
@@ -36894,8 +38932,11 @@
       <c r="F258">
         <v>-1.45715328146803E-3</v>
       </c>
-    </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>-9.3278098492320105E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C259">
         <v>12</v>
       </c>
@@ -36908,8 +38949,11 @@
       <c r="F259">
         <v>-5.2095755926963002E-4</v>
       </c>
-    </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>-9.7152519452122194E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C260">
         <v>12</v>
       </c>
@@ -36922,8 +38966,11 @@
       <c r="F260">
         <v>-1.51359254172655E-2</v>
       </c>
-    </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>-0.108902732543446</v>
+      </c>
+    </row>
+    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C261">
         <v>12</v>
       </c>
@@ -36936,8 +38983,11 @@
       <c r="F261">
         <v>-2.1930647196109598E-2</v>
       </c>
-    </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>-9.8153608265294401E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C262">
         <v>12</v>
       </c>
@@ -36950,8 +39000,11 @@
       <c r="F262">
         <v>-1.8065480129483301E-2</v>
       </c>
-    </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>-9.8654362810280602E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C263">
         <v>12</v>
       </c>
@@ -36964,8 +39017,11 @@
       <c r="F263">
         <v>-4.3728701105891004E-3</v>
       </c>
-    </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>-0.120603648768404</v>
+      </c>
+    </row>
+    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C264">
         <v>12</v>
       </c>
@@ -36978,8 +39034,11 @@
       <c r="F264">
         <v>-2.0535316298326601E-2</v>
       </c>
-    </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>-9.8640925744026303E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C265">
         <v>12</v>
       </c>
@@ -36992,8 +39051,11 @@
       <c r="F265">
         <v>-1.47103347077981E-2</v>
       </c>
-    </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>-0.110520728544355</v>
+      </c>
+    </row>
+    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C266">
         <v>12</v>
       </c>
@@ -37006,8 +39068,11 @@
       <c r="F266">
         <v>-4.3830449320711503E-3</v>
       </c>
-    </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>-0.12399371931145101</v>
+      </c>
+    </row>
+    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C267">
         <v>12</v>
       </c>
@@ -37020,8 +39085,11 @@
       <c r="F267">
         <v>-1.122218791229E-2</v>
       </c>
-    </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>-0.104454872475764</v>
+      </c>
+    </row>
+    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C268">
         <v>12</v>
       </c>
@@ -37034,8 +39102,11 @@
       <c r="F268">
         <v>-1.46393547377239E-2</v>
       </c>
-    </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>-9.8114465112108404E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C269">
         <v>12</v>
       </c>
@@ -37048,8 +39119,11 @@
       <c r="F269">
         <v>-2.4352568121694101E-3</v>
       </c>
-    </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>-0.116687277125042</v>
+      </c>
+    </row>
+    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C270">
         <v>12</v>
       </c>
@@ -37062,8 +39136,11 @@
       <c r="F270">
         <v>-1.02445276300317E-2</v>
       </c>
-    </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>-0.104974559475654</v>
+      </c>
+    </row>
+    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C271">
         <v>12</v>
       </c>
@@ -37076,8 +39153,11 @@
       <c r="F271">
         <v>-8.3313439361058905E-3</v>
       </c>
-    </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>-9.6167998394552798E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C272">
         <v>12</v>
       </c>
@@ -37090,8 +39170,11 @@
       <c r="F272">
         <v>-1.41557983200612E-2</v>
       </c>
-    </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>-9.1305139292434806E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C273">
         <v>12</v>
       </c>
@@ -37104,8 +39187,11 @@
       <c r="F273">
         <v>-4.4200572438548198E-3</v>
       </c>
-    </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>-0.104013253835956</v>
+      </c>
+    </row>
+    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C274">
         <v>12</v>
       </c>
@@ -37118,8 +39204,11 @@
       <c r="F274">
         <v>-5.2164821581256095E-4</v>
       </c>
-    </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>-0.1059191170285</v>
+      </c>
+    </row>
+    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C275">
         <v>12</v>
       </c>
@@ -37132,8 +39221,11 @@
       <c r="F275">
         <v>9.2776697755560904E-3</v>
       </c>
-    </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>-0.11477451469956</v>
+      </c>
+    </row>
+    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C276">
         <v>12</v>
       </c>
@@ -37146,8 +39238,11 @@
       <c r="F276">
         <v>1.0240352326582301E-2</v>
       </c>
-    </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>-0.11767116992299401</v>
+      </c>
+    </row>
+    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C277">
         <v>12</v>
       </c>
@@ -37160,8 +39255,11 @@
       <c r="F277">
         <v>-7.37367813591758E-3</v>
       </c>
-    </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>-0.104036413674266</v>
+      </c>
+    </row>
+    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C278">
         <v>13</v>
       </c>
@@ -37174,8 +39272,11 @@
       <c r="F278">
         <v>-2.30094801064539E-2</v>
       </c>
-    </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>-0.116245662438555</v>
+      </c>
+    </row>
+    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C279">
         <v>13</v>
       </c>
@@ -37188,8 +39289,11 @@
       <c r="F279">
         <v>-2.2430742518879301E-2</v>
       </c>
-    </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>-0.124021896437488</v>
+      </c>
+    </row>
+    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C280">
         <v>13</v>
       </c>
@@ -37202,8 +39306,11 @@
       <c r="F280">
         <v>-1.4648472360171E-2</v>
       </c>
-    </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>-0.12800734793557</v>
+      </c>
+    </row>
+    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C281">
         <v>13</v>
       </c>
@@ -37216,8 +39323,11 @@
       <c r="F281">
         <v>-9.4650301134994303E-4</v>
       </c>
-    </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>-0.116478711743804</v>
+      </c>
+    </row>
+    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C282">
         <v>13</v>
       </c>
@@ -37230,8 +39340,11 @@
       <c r="F282">
         <v>-3.4263221359465299E-3</v>
       </c>
-    </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>-0.121845794238466</v>
+      </c>
+    </row>
+    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C283">
         <v>13</v>
       </c>
@@ -37244,8 +39357,11 @@
       <c r="F283">
         <v>-2.24983601782461E-2</v>
       </c>
-    </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>-0.14374000170074699</v>
+      </c>
+    </row>
+    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C284">
         <v>13</v>
       </c>
@@ -37258,8 +39374,11 @@
       <c r="F284">
         <v>-2.6310430833534699E-2</v>
       </c>
-    </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>-0.13773898683535901</v>
+      </c>
+    </row>
+    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C285">
         <v>13</v>
       </c>
@@ -37272,8 +39391,11 @@
       <c r="F285">
         <v>-2.0590696865582101E-2</v>
       </c>
-    </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>-0.128145881047976</v>
+      </c>
+    </row>
+    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C286">
         <v>13</v>
       </c>
@@ -37286,8 +39408,11 @@
       <c r="F286">
         <v>-1.46312445917238E-2</v>
       </c>
-    </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>-0.13372315607448201</v>
+      </c>
+    </row>
+    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C287">
         <v>13</v>
       </c>
@@ -37300,8 +39425,11 @@
       <c r="F287">
         <v>-4.85772265318468E-3</v>
       </c>
-    </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>-0.13579969873033801</v>
+      </c>
+    </row>
+    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C288">
         <v>13</v>
       </c>
@@ -37314,8 +39442,11 @@
       <c r="F288">
         <v>-1.0790436713184999E-3</v>
       </c>
-    </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>-0.139755888514978</v>
+      </c>
+    </row>
+    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C289">
         <v>13</v>
       </c>
@@ -37328,8 +39459,11 @@
       <c r="F289">
         <v>4.88981140508903E-3</v>
       </c>
-    </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>-0.141699768237597</v>
+      </c>
+    </row>
+    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C290">
         <v>13</v>
       </c>
@@ -37342,8 +39476,11 @@
       <c r="F290">
         <v>9.9353386604660292E-4</v>
       </c>
-    </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>-0.13772565758821301</v>
+      </c>
+    </row>
+    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C291">
         <v>13</v>
       </c>
@@ -37356,8 +39493,11 @@
       <c r="F291">
         <v>3.0325927640049099E-3</v>
       </c>
-    </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>-0.15180500872736499</v>
+      </c>
+    </row>
+    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C292">
         <v>13</v>
       </c>
@@ -37370,8 +39510,11 @@
       <c r="F292">
         <v>-9.0375355888871003E-4</v>
       </c>
-    </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>-0.12593562141591799</v>
+      </c>
+    </row>
+    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C293">
         <v>13</v>
       </c>
@@ -37384,8 +39527,11 @@
       <c r="F293">
         <v>4.9896600117140602E-3</v>
       </c>
-    </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>-0.135218700764376</v>
+      </c>
+    </row>
+    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C294">
         <v>13</v>
       </c>
@@ -37398,8 +39544,11 @@
       <c r="F294">
         <v>4.8935644659209698E-3</v>
       </c>
-    </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>-0.13334574890106601</v>
+      </c>
+    </row>
+    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C295">
         <v>13</v>
       </c>
@@ -37412,8 +39561,11 @@
       <c r="F295">
         <v>-4.9537713431367803E-3</v>
       </c>
-    </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>-0.13033524571555799</v>
+      </c>
+    </row>
+    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C296">
         <v>13</v>
       </c>
@@ -37426,8 +39578,11 @@
       <c r="F296">
         <v>1.07412307236943E-2</v>
       </c>
-    </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>-0.14414758986411699</v>
+      </c>
+    </row>
+    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C297">
         <v>13</v>
       </c>
@@ -37440,8 +39595,11 @@
       <c r="F297">
         <v>2.9340790643819299E-3</v>
       </c>
-    </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>-0.12992576220655999</v>
+      </c>
+    </row>
+    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C298">
         <v>13</v>
       </c>
@@ -37454,8 +39612,11 @@
       <c r="F298">
         <v>1.8137838588458698E-2</v>
       </c>
-    </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>-0.13421331053662899</v>
+      </c>
+    </row>
+    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C299">
         <v>13</v>
       </c>
@@ -37468,8 +39629,11 @@
       <c r="F299">
         <v>3.0139648006397698E-3</v>
       </c>
-    </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>-0.12781846949403999</v>
+      </c>
+    </row>
+    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C300">
         <v>13</v>
       </c>
@@ -37482,8 +39646,11 @@
       <c r="F300">
         <v>6.6785398631036396E-3</v>
       </c>
-    </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>-0.12981515894016099</v>
+      </c>
+    </row>
+    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C301">
         <v>14</v>
       </c>
@@ -37496,8 +39663,11 @@
       <c r="F301">
         <v>-1.08788181046214E-2</v>
       </c>
-    </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>-9.2875380752175205E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C302">
         <v>14</v>
       </c>
@@ -37510,8 +39680,11 @@
       <c r="F302">
         <v>-2.97286590022512E-3</v>
       </c>
-    </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <v>-9.0773029647059106E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C303">
         <v>14</v>
       </c>
@@ -37524,8 +39697,11 @@
       <c r="F303">
         <v>-2.95126113591515E-3</v>
       </c>
-    </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <v>-9.6539692667231294E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C304">
         <v>14</v>
       </c>
@@ -37538,8 +39714,11 @@
       <c r="F304">
         <v>6.7145282493284997E-3</v>
       </c>
-    </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <v>-9.0799205893971294E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C305">
         <v>14</v>
       </c>
@@ -37552,8 +39731,11 @@
       <c r="F305">
         <v>1.2721494145951201E-2</v>
       </c>
-    </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <v>-0.100696804021354</v>
+      </c>
+    </row>
+    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C306">
         <v>14</v>
       </c>
@@ -37566,8 +39748,11 @@
       <c r="F306">
         <v>-6.7621096931404102E-3</v>
       </c>
-    </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <v>-0.10846283359379599</v>
+      </c>
+    </row>
+    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C307">
         <v>14</v>
       </c>
@@ -37580,8 +39765,11 @@
       <c r="F307">
         <v>-1.08058337420714E-2</v>
       </c>
-    </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <v>-0.10444773790242</v>
+      </c>
+    </row>
+    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C308">
         <v>14</v>
       </c>
@@ -37594,8 +39782,11 @@
       <c r="F308">
         <v>-8.7936247341331396E-3</v>
       </c>
-    </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <v>-0.10453338722185</v>
+      </c>
+    </row>
+    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C309">
         <v>14</v>
       </c>
@@ -37608,8 +39799,11 @@
       <c r="F309">
         <v>-1.0821595777482099E-2</v>
       </c>
-    </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>-9.8597068304503294E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C310">
         <v>14</v>
       </c>
@@ -37622,8 +39816,11 @@
       <c r="F310">
         <v>-4.9184631725278103E-3</v>
       </c>
-    </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <v>-0.10839930719425001</v>
+      </c>
+    </row>
+    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C311">
         <v>14</v>
       </c>
@@ -37636,8 +39833,11 @@
       <c r="F311">
         <v>2.8245258163898199E-3</v>
       </c>
-    </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>-0.100550193368941</v>
+      </c>
+    </row>
+    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C312">
         <v>14</v>
       </c>
@@ -37650,8 +39850,11 @@
       <c r="F312">
         <v>1.25961050990776E-2</v>
       </c>
-    </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <v>-0.10257872608603499</v>
+      </c>
+    </row>
+    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C313">
         <v>14</v>
       </c>
@@ -37664,8 +39867,11 @@
       <c r="F313">
         <v>6.8871808885563098E-3</v>
       </c>
-    </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>-0.11916911694582299</v>
+      </c>
+    </row>
+    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C314">
         <v>14</v>
       </c>
@@ -37678,8 +39884,11 @@
       <c r="F314">
         <v>-6.84731190415927E-3</v>
       </c>
-    </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <v>-0.104526658540568</v>
+      </c>
+    </row>
+    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C315">
         <v>14</v>
       </c>
@@ -37692,8 +39901,11 @@
       <c r="F315">
         <v>-5.9133498108971299E-3</v>
       </c>
-    </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <v>-9.6786698580918096E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C316">
         <v>14</v>
       </c>
@@ -37706,8 +39918,11 @@
       <c r="F316">
         <v>-5.9138543760571998E-3</v>
       </c>
-    </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>-9.6760755761570505E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C317">
         <v>14</v>
       </c>
@@ -37720,8 +39935,11 @@
       <c r="F317">
         <v>4.8610522680973996E-3</v>
       </c>
-    </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>-9.8667592603635307E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C318">
         <v>14</v>
       </c>
@@ -37734,8 +39952,11 @@
       <c r="F318">
         <v>-6.7772552558140499E-3</v>
       </c>
-    </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>-9.4587770778986696E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C319">
         <v>14</v>
       </c>
@@ -37748,8 +39969,11 @@
       <c r="F319">
         <v>1.8634390496711398E-2</v>
       </c>
-    </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>-0.11034359689892401</v>
+      </c>
+    </row>
+    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C320">
         <v>14</v>
       </c>
@@ -37762,8 +39986,11 @@
       <c r="F320">
         <v>8.8244940530840497E-3</v>
       </c>
-    </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <v>-0.10245783664701399</v>
+      </c>
+    </row>
+    <row r="321" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C321">
         <v>14</v>
       </c>
@@ -37776,8 +40003,11 @@
       <c r="F321">
         <v>1.2599064767176701E-2</v>
       </c>
-    </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <v>-8.6962897998755298E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C322">
         <v>14</v>
       </c>
@@ -37790,8 +40020,11 @@
       <c r="F322">
         <v>6.93833343261152E-3</v>
       </c>
-    </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <v>-9.8603037116614597E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C323">
         <v>14</v>
       </c>
@@ -37804,8 +40037,11 @@
       <c r="F323">
         <v>1.0661234203329401E-2</v>
       </c>
-    </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <v>-9.2674171892042495E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C324">
         <v>15</v>
       </c>
@@ -37818,8 +40054,11 @@
       <c r="F324">
         <v>2.8287988779416601E-2</v>
       </c>
-    </row>
-    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>-6.9362730374295398E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C325">
         <v>15</v>
       </c>
@@ -37832,8 +40071,11 @@
       <c r="F325">
         <v>3.4153884477282799E-2</v>
       </c>
-    </row>
-    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>-7.3108653586986497E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C326">
         <v>15</v>
       </c>
@@ -37846,8 +40088,11 @@
       <c r="F326">
         <v>5.3598121350726197E-2</v>
       </c>
-    </row>
-    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <v>-7.1324032100691701E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C327">
         <v>15</v>
       </c>
@@ -37860,8 +40105,11 @@
       <c r="F327">
         <v>5.1214910881782698E-2</v>
       </c>
-    </row>
-    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G327">
+        <v>-6.5413246070240599E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C328">
         <v>15</v>
       </c>
@@ -37874,8 +40122,11 @@
       <c r="F328">
         <v>6.9150987614187295E-2</v>
       </c>
-    </row>
-    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <v>-8.10307981485512E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C329">
         <v>15</v>
       </c>
@@ -37888,8 +40139,11 @@
       <c r="F329">
         <v>4.1939248613063598E-2</v>
       </c>
-    </row>
-    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G329">
+        <v>-7.9077302386796E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C330">
         <v>15</v>
       </c>
@@ -37902,8 +40156,11 @@
       <c r="F330">
         <v>3.8121917434186102E-2</v>
       </c>
-    </row>
-    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G330">
+        <v>-8.1003246856190106E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C331">
         <v>15</v>
       </c>
@@ -37916,8 +40173,11 @@
       <c r="F331">
         <v>3.9980128008934898E-2</v>
       </c>
-    </row>
-    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G331">
+        <v>-8.1030980083363999E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C332">
         <v>15</v>
       </c>
@@ -37930,8 +40190,11 @@
       <c r="F332">
         <v>3.2401231944636302E-2</v>
       </c>
-    </row>
-    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <v>-7.1268448335076395E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C333">
         <v>15</v>
       </c>
@@ -37944,8 +40207,11 @@
       <c r="F333">
         <v>3.5637266954764199E-2</v>
       </c>
-    </row>
-    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G333">
+        <v>-7.3221955559263599E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C334">
         <v>15</v>
       </c>
@@ -37958,8 +40224,11 @@
       <c r="F334">
         <v>4.4010955760750002E-2</v>
       </c>
-    </row>
-    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <v>-7.7185578871551003E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C335">
         <v>15</v>
       </c>
@@ -37972,8 +40241,11 @@
       <c r="F335">
         <v>3.2270163450920201E-2</v>
       </c>
-    </row>
-    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <v>-7.9148557375370701E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C336">
         <v>15</v>
       </c>
@@ -37986,8 +40258,11 @@
       <c r="F336">
         <v>4.9816963421467103E-2</v>
       </c>
-    </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G336">
+        <v>-7.5201119250214402E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C337">
         <v>15</v>
       </c>
@@ -38000,8 +40275,11 @@
       <c r="F337">
         <v>5.7640086859063598E-2</v>
       </c>
-    </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G337">
+        <v>-7.13122802390182E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C338">
         <v>15</v>
       </c>
@@ -38014,8 +40292,11 @@
       <c r="F338">
         <v>5.1827911160789802E-2</v>
       </c>
-    </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G338">
+        <v>-7.5166977844770305E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C339">
         <v>15</v>
       </c>
@@ -38028,8 +40309,11 @@
       <c r="F339">
         <v>5.9567221700050701E-2</v>
       </c>
-    </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <v>-8.0995928137107195E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C340">
         <v>15</v>
       </c>
@@ -38042,8 +40326,11 @@
       <c r="F340">
         <v>6.7399320270167595E-2</v>
       </c>
-    </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <v>-7.5123205242623101E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C341">
         <v>15</v>
       </c>
@@ -38056,8 +40343,11 @@
       <c r="F341">
         <v>5.1747144441391099E-2</v>
       </c>
-    </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G341">
+        <v>-7.9102863493754602E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C342">
         <v>15</v>
       </c>
@@ -38070,8 +40360,11 @@
       <c r="F342">
         <v>6.7306402821024194E-2</v>
       </c>
-    </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <v>-7.3172526296126306E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C343">
         <v>15</v>
       </c>
@@ -38084,8 +40377,11 @@
       <c r="F343">
         <v>5.5722711495802497E-2</v>
       </c>
-    </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G343">
+        <v>-7.5192102511495607E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C344">
         <v>15</v>
       </c>
@@ -38098,8 +40394,11 @@
       <c r="F344">
         <v>5.76278832306059E-2</v>
       </c>
-    </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <v>-7.5234326074674507E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C345">
         <v>15</v>
       </c>
@@ -38112,8 +40411,11 @@
       <c r="F345">
         <v>5.76059094821703E-2</v>
       </c>
-    </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G345">
+        <v>-7.3329343445437803E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C346">
         <v>15</v>
       </c>
@@ -38126,8 +40428,11 @@
       <c r="F346">
         <v>5.3743927097420097E-2</v>
       </c>
-    </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G346">
+        <v>-6.9315128017360797E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C347">
         <v>1</v>
       </c>
@@ -38140,8 +40445,11 @@
       <c r="F347">
         <v>5.9922744830449397E-2</v>
       </c>
-    </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="1">
+        <v>-8.1274652098318995E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C348">
         <v>1</v>
       </c>
@@ -38154,8 +40462,11 @@
       <c r="F348">
         <v>7.5422882924023701E-2</v>
       </c>
-    </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="1">
+        <v>-8.4123160690069199E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C349">
         <v>1</v>
       </c>
@@ -38168,8 +40479,12 @@
       <c r="F349">
         <v>8.4352932870388003E-2</v>
       </c>
-    </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G349" s="1">
+        <v>-7.3015917590337501E-2</v>
+      </c>
+      <c r="H349" s="2"/>
+    </row>
+    <row r="350" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C350">
         <v>1</v>
       </c>
@@ -38182,8 +40497,11 @@
       <c r="F350">
         <v>8.5784237831830895E-2</v>
       </c>
-    </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G350" s="1">
+        <v>-6.3182150584555397E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C351">
         <v>1</v>
       </c>
@@ -38196,8 +40514,11 @@
       <c r="F351">
         <v>8.6360465321275906E-2</v>
       </c>
-    </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="1">
+        <v>-9.1440237448469797E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C352">
         <v>1</v>
       </c>
@@ -38210,8 +40531,11 @@
       <c r="F352">
         <v>9.6983552254086294E-2</v>
       </c>
-    </row>
-    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="1">
+        <v>-7.7046118789550005E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C353">
         <v>1</v>
       </c>
@@ -38224,8 +40548,11 @@
       <c r="F353">
         <v>8.11708549537309E-2</v>
       </c>
-    </row>
-    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G353" s="1">
+        <v>-8.48871471966684E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C354">
         <v>1</v>
       </c>
@@ -38238,8 +40565,11 @@
       <c r="F354">
         <v>9.6101327012357796E-2</v>
       </c>
-    </row>
-    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="1">
+        <v>-8.4429129274165002E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C355">
         <v>1</v>
       </c>
@@ -38252,8 +40582,11 @@
       <c r="F355">
         <v>0.10398080887146301</v>
       </c>
-    </row>
-    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="1">
+        <v>-9.5378371765432096E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C356">
         <v>1</v>
       </c>
@@ -38266,8 +40599,11 @@
       <c r="F356">
         <v>9.5116073189064704E-2</v>
       </c>
-    </row>
-    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="1">
+        <v>-7.92722158020851E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C357">
         <v>1</v>
       </c>
@@ -38280,8 +40616,11 @@
       <c r="F357">
         <v>9.4362822633648702E-2</v>
       </c>
-    </row>
-    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="1">
+        <v>-8.6628217271477501E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C358">
         <v>1</v>
       </c>
@@ -38294,8 +40633,11 @@
       <c r="F358">
         <v>8.5528755893974504E-2</v>
       </c>
-    </row>
-    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="1">
+        <v>-7.9813994329284696E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C359">
         <v>1</v>
       </c>
@@ -38308,8 +40650,11 @@
       <c r="F359">
         <v>7.8374877572059604E-2</v>
       </c>
-    </row>
-    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G359" s="1">
+        <v>-6.5187357366084997E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C360">
         <v>1</v>
       </c>
@@ -38322,8 +40667,11 @@
       <c r="F360">
         <v>7.2605839616327106E-2</v>
       </c>
-    </row>
-    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="1">
+        <v>-5.6250640457076097E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C361">
         <v>1</v>
       </c>
@@ -38336,8 +40684,11 @@
       <c r="F361">
         <v>9.1683506965637193E-2</v>
       </c>
-    </row>
-    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="1">
+        <v>-6.2289205902119303E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C362">
         <v>1</v>
       </c>
@@ -38350,8 +40701,11 @@
       <c r="F362">
         <v>9.6054991196023606E-2</v>
       </c>
-    </row>
-    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="1">
+        <v>-7.6777551997009502E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C363">
         <v>1</v>
       </c>
@@ -38364,8 +40718,11 @@
       <c r="F363">
         <v>9.7360436290550897E-2</v>
       </c>
-    </row>
-    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="1">
+        <v>-6.7546864498015294E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C364">
         <v>1</v>
       </c>
@@ -38378,8 +40735,11 @@
       <c r="F364">
         <v>0.111596472137259</v>
       </c>
-    </row>
-    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="1">
+        <v>-7.9076385464180596E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C365">
         <v>1</v>
       </c>
@@ -38392,8 +40752,11 @@
       <c r="F365">
         <v>0.10123686492443</v>
       </c>
-    </row>
-    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="1">
+        <v>-6.7074102880079506E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C366">
         <v>1</v>
       </c>
@@ -38406,8 +40769,11 @@
       <c r="F366">
         <v>0.100928581009308</v>
       </c>
-    </row>
-    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="1">
+        <v>-6.7694597776226398E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C367">
         <v>1</v>
       </c>
@@ -38420,8 +40786,11 @@
       <c r="F367">
         <v>0.100768691565577</v>
       </c>
-    </row>
-    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G367" s="1">
+        <v>-6.3731842730035099E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C368">
         <v>1</v>
       </c>
@@ -38434,8 +40803,11 @@
       <c r="F368">
         <v>9.4895787537097903E-2</v>
       </c>
-    </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G368" s="1">
+        <v>-7.1456255771780497E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C369">
         <v>1</v>
       </c>
@@ -38448,8 +40820,11 @@
       <c r="F369">
         <v>9.5940715074539107E-2</v>
       </c>
-    </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G369" s="1">
+        <v>-6.9779719347539099E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C370">
         <v>2</v>
       </c>
@@ -38462,8 +40837,11 @@
       <c r="F370">
         <v>3.6708088405731802E-2</v>
       </c>
-    </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G370" s="1">
+        <v>3.1845542602240998E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C371">
         <v>2</v>
       </c>
@@ -38476,8 +40854,11 @@
       <c r="F371">
         <v>3.7818341702222799E-2</v>
       </c>
-    </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="1">
+        <v>3.5487355043490702E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C372">
         <v>2</v>
       </c>
@@ -38490,8 +40871,11 @@
       <c r="F372">
         <v>5.0305834412574697E-2</v>
       </c>
-    </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="1">
+        <v>2.7822431590822001E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C373">
         <v>2</v>
       </c>
@@ -38504,8 +40888,11 @@
       <c r="F373">
         <v>5.3669950614372797E-2</v>
       </c>
-    </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G373" s="1">
+        <v>2.2977428182082999E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C374">
         <v>2</v>
       </c>
@@ -38518,8 +40905,11 @@
       <c r="F374">
         <v>3.7614022567868201E-2</v>
       </c>
-    </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G374" s="1">
+        <v>3.6246676929295001E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C375">
         <v>2</v>
       </c>
@@ -38532,8 +40922,11 @@
       <c r="F375">
         <v>4.0752584533807298E-2</v>
       </c>
-    </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G375" s="1">
+        <v>3.5876044382651601E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C376">
         <v>2</v>
       </c>
@@ -38546,8 +40939,11 @@
       <c r="F376">
         <v>3.9635883546189202E-2</v>
       </c>
-    </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G376" s="1">
+        <v>2.7087904761234901E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C377">
         <v>2</v>
       </c>
@@ -38560,8 +40956,11 @@
       <c r="F377">
         <v>4.0273292067771103E-2</v>
       </c>
-    </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G377" s="1">
+        <v>2.38510556519031E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C378">
         <v>2</v>
       </c>
@@ -38574,8 +40973,11 @@
       <c r="F378">
         <v>4.2623976711183703E-2</v>
       </c>
-    </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G378" s="1">
+        <v>2.8847656399011601E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C379">
         <v>2</v>
       </c>
@@ -38588,8 +40990,11 @@
       <c r="F379">
         <v>4.0435759393974702E-2</v>
       </c>
-    </row>
-    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G379" s="1">
+        <v>3.1858111421267099E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C380">
         <v>2</v>
       </c>
@@ -38602,8 +41007,11 @@
       <c r="F380">
         <v>3.8532889758547101E-2</v>
       </c>
-    </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G380" s="1">
+        <v>3.5401798784732798E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C381">
         <v>2</v>
       </c>
@@ -38616,8 +41024,11 @@
       <c r="F381">
         <v>5.1263097534048001E-2</v>
       </c>
-    </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="1">
+        <v>3.0270371958613301E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C382">
         <v>2</v>
       </c>
@@ -38630,8 +41041,11 @@
       <c r="F382">
         <v>4.5749431103467901E-2</v>
       </c>
-    </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G382" s="1">
+        <v>1.6099974779146001E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C383">
         <v>2</v>
       </c>
@@ -38644,8 +41058,11 @@
       <c r="F383">
         <v>3.3948608156707499E-2</v>
       </c>
-    </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G383" s="1">
+        <v>2.1108993639548601E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C384">
         <v>2</v>
       </c>
@@ -38658,8 +41075,11 @@
       <c r="F384">
         <v>4.3251614086329902E-2</v>
       </c>
-    </row>
-    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G384" s="1">
+        <v>3.7484398377793098E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C385">
         <v>2</v>
       </c>
@@ -38672,8 +41092,11 @@
       <c r="F385">
         <v>3.2754892856304799E-2</v>
       </c>
-    </row>
-    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G385" s="1">
+        <v>4.3588447384536197E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C386">
         <v>2</v>
       </c>
@@ -38686,8 +41109,11 @@
       <c r="F386">
         <v>4.8126103123649899E-2</v>
       </c>
-    </row>
-    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G386" s="1">
+        <v>3.8621601027746998E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C387">
         <v>2</v>
       </c>
@@ -38700,8 +41126,11 @@
       <c r="F387">
         <v>4.0502136551135499E-2</v>
       </c>
-    </row>
-    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G387" s="1">
+        <v>5.6084452913357598E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C388">
         <v>2</v>
       </c>
@@ -38714,8 +41143,11 @@
       <c r="F388">
         <v>4.9288568284805503E-2</v>
       </c>
-    </row>
-    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="1">
+        <v>3.0847719973988001E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C389">
         <v>2</v>
       </c>
@@ -38728,8 +41160,11 @@
       <c r="F389">
         <v>4.2626022050777999E-2</v>
       </c>
-    </row>
-    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G389" s="1">
+        <v>4.1518630459904601E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C390">
         <v>2</v>
       </c>
@@ -38742,8 +41177,11 @@
       <c r="F390">
         <v>4.1292410682548103E-2</v>
       </c>
-    </row>
-    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G390" s="1">
+        <v>2.9778813570737798E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C391">
         <v>2</v>
       </c>
@@ -38756,8 +41194,11 @@
       <c r="F391">
         <v>4.1678604598228697E-2</v>
       </c>
-    </row>
-    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G391" s="1">
+        <v>2.2063453309237899E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C392">
         <v>2</v>
       </c>
@@ -38770,8 +41211,11 @@
       <c r="F392">
         <v>3.64010222256183E-2</v>
       </c>
-    </row>
-    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G392" s="1">
+        <v>2.5083167385309899E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C393">
         <v>3</v>
       </c>
@@ -38784,8 +41228,11 @@
       <c r="F393">
         <v>1.12236784435964E-2</v>
       </c>
-    </row>
-    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G393" s="1">
+        <v>-0.11342725814098401</v>
+      </c>
+    </row>
+    <row r="394" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C394">
         <v>3</v>
       </c>
@@ -38798,8 +41245,11 @@
       <c r="F394">
         <v>7.1129092062974996E-3</v>
       </c>
-    </row>
-    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G394" s="1">
+        <v>-0.114532628753423</v>
+      </c>
+    </row>
+    <row r="395" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C395">
         <v>3</v>
       </c>
@@ -38812,8 +41262,11 @@
       <c r="F395">
         <v>1.41075014561651E-2</v>
       </c>
-    </row>
-    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G395" s="1">
+        <v>-0.10931187316876</v>
+      </c>
+    </row>
+    <row r="396" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C396">
         <v>3</v>
       </c>
@@ -38826,8 +41279,11 @@
       <c r="F396">
         <v>7.8832328915995793E-3</v>
       </c>
-    </row>
-    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G396" s="1">
+        <v>-9.5539381033453802E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C397">
         <v>3</v>
       </c>
@@ -38840,8 +41296,11 @@
       <c r="F397">
         <v>1.19344227472043E-2</v>
       </c>
-    </row>
-    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G397" s="1">
+        <v>-9.4613920162440399E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C398">
         <v>3</v>
       </c>
@@ -38854,8 +41313,11 @@
       <c r="F398">
         <v>-7.3889425524005896E-3</v>
       </c>
-    </row>
-    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="1">
+        <v>-0.11686759503161299</v>
+      </c>
+    </row>
+    <row r="399" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C399">
         <v>3</v>
       </c>
@@ -38868,8 +41330,11 @@
       <c r="F399">
         <v>-1.9853632961614701E-2</v>
       </c>
-    </row>
-    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G399" s="1">
+        <v>-0.11649069648662</v>
+      </c>
+    </row>
+    <row r="400" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C400">
         <v>3</v>
       </c>
@@ -38882,8 +41347,11 @@
       <c r="F400">
         <v>-4.3444748872014504E-3</v>
       </c>
-    </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G400" s="1">
+        <v>-0.118017403003337</v>
+      </c>
+    </row>
+    <row r="401" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C401">
         <v>3</v>
       </c>
@@ -38896,8 +41364,11 @@
       <c r="F401">
         <v>4.1833678889300497E-3</v>
       </c>
-    </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G401" s="1">
+        <v>-0.13420861786608401</v>
+      </c>
+    </row>
+    <row r="402" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C402">
         <v>3</v>
       </c>
@@ -38910,8 +41381,11 @@
       <c r="F402">
         <v>-1.44082600791319E-2</v>
       </c>
-    </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G402" s="1">
+        <v>-0.103184907587879</v>
+      </c>
+    </row>
+    <row r="403" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C403">
         <v>3</v>
       </c>
@@ -38924,8 +41398,11 @@
       <c r="F403">
         <v>2.12786821015342E-3</v>
       </c>
-    </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G403" s="1">
+        <v>-0.123706338759781</v>
+      </c>
+    </row>
+    <row r="404" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C404">
         <v>3</v>
       </c>
@@ -38938,8 +41415,11 @@
       <c r="F404">
         <v>1.30140276339191E-2</v>
       </c>
-    </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G404" s="1">
+        <v>-0.145016395674297</v>
+      </c>
+    </row>
+    <row r="405" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C405">
         <v>3</v>
       </c>
@@ -38952,8 +41432,11 @@
       <c r="F405">
         <v>6.9899738823009404E-4</v>
       </c>
-    </row>
-    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G405" s="1">
+        <v>-0.108544935068178</v>
+      </c>
+    </row>
+    <row r="406" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C406">
         <v>3</v>
       </c>
@@ -38966,8 +41449,11 @@
       <c r="F406">
         <v>-1.5918867307325699E-2</v>
       </c>
-    </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G406" s="1">
+        <v>-0.10822464047552401</v>
+      </c>
+    </row>
+    <row r="407" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C407">
         <v>3</v>
       </c>
@@ -38980,8 +41466,11 @@
       <c r="F407">
         <v>5.5680290173579401E-3</v>
       </c>
-    </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G407" s="1">
+        <v>-0.121737518076137</v>
+      </c>
+    </row>
+    <row r="408" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C408">
         <v>3</v>
       </c>
@@ -38994,8 +41483,11 @@
       <c r="F408">
         <v>-7.71029744665634E-3</v>
       </c>
-    </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G408" s="1">
+        <v>-0.11780171497757</v>
+      </c>
+    </row>
+    <row r="409" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C409">
         <v>3</v>
       </c>
@@ -39008,8 +41500,11 @@
       <c r="F409">
         <v>-7.50499369448279E-4</v>
       </c>
-    </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G409" s="1">
+        <v>-0.10372784683342499</v>
+      </c>
+    </row>
+    <row r="410" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C410">
         <v>3</v>
       </c>
@@ -39022,8 +41517,11 @@
       <c r="F410">
         <v>-1.7852614506354399E-2</v>
       </c>
-    </row>
-    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G410" s="1">
+        <v>-0.10858839768192299</v>
+      </c>
+    </row>
+    <row r="411" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C411">
         <v>3</v>
       </c>
@@ -39036,8 +41534,11 @@
       <c r="F411">
         <v>1.67772601925158E-3</v>
       </c>
-    </row>
-    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G411" s="1">
+        <v>-0.12184154932926999</v>
+      </c>
+    </row>
+    <row r="412" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C412">
         <v>3</v>
       </c>
@@ -39050,8 +41551,11 @@
       <c r="F412">
         <v>5.4150569589967697E-3</v>
       </c>
-    </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G412" s="1">
+        <v>-0.115593879296011</v>
+      </c>
+    </row>
+    <row r="413" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C413">
         <v>3</v>
       </c>
@@ -39064,8 +41568,11 @@
       <c r="F413">
         <v>1.1924547108336001E-2</v>
       </c>
-    </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G413" s="1">
+        <v>-0.12455388603411301</v>
+      </c>
+    </row>
+    <row r="414" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C414">
         <v>3</v>
       </c>
@@ -39078,8 +41585,11 @@
       <c r="F414">
         <v>1.8077375531233002E-2</v>
       </c>
-    </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="1">
+        <v>-0.130217618739047</v>
+      </c>
+    </row>
+    <row r="415" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C415">
         <v>3</v>
       </c>
@@ -39092,8 +41602,11 @@
       <c r="F415">
         <v>-3.0177957029081802E-3</v>
       </c>
-    </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G415" s="1">
+        <v>-0.11286697893926501</v>
+      </c>
+    </row>
+    <row r="416" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C416">
         <v>4</v>
       </c>
@@ -39106,8 +41619,11 @@
       <c r="F416">
         <v>6.5943143431428902E-2</v>
       </c>
-    </row>
-    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G416" s="1">
+        <v>-4.0124238412986402E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C417">
         <v>4</v>
       </c>
@@ -39120,8 +41636,11 @@
       <c r="F417">
         <v>5.3271271445824497E-2</v>
       </c>
-    </row>
-    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G417" s="1">
+        <v>-2.0240979265250099E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C418">
         <v>4</v>
       </c>
@@ -39134,8 +41653,11 @@
       <c r="F418">
         <v>6.4903735821565306E-2</v>
       </c>
-    </row>
-    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G418" s="1">
+        <v>-5.0849138946207299E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C419">
         <v>4</v>
       </c>
@@ -39148,8 +41670,11 @@
       <c r="F419">
         <v>5.33206130563392E-2</v>
       </c>
-    </row>
-    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G419" s="1">
+        <v>2.2419855421917E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C420">
         <v>4</v>
       </c>
@@ -39162,8 +41687,11 @@
       <c r="F420">
         <v>4.74077824892324E-2</v>
       </c>
-    </row>
-    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G420" s="1">
+        <v>4.58294798073638E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C421">
         <v>4</v>
       </c>
@@ -39176,8 +41704,11 @@
       <c r="F421">
         <v>4.3330815250876301E-2</v>
       </c>
-    </row>
-    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G421" s="1">
+        <v>7.1570566033615696E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C422">
         <v>4</v>
       </c>
@@ -39190,8 +41721,11 @@
       <c r="F422">
         <v>4.6334722999580802E-2</v>
       </c>
-    </row>
-    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G422" s="1">
+        <v>0.12203740036319</v>
+      </c>
+    </row>
+    <row r="423" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C423">
         <v>4</v>
       </c>
@@ -39204,8 +41738,11 @@
       <c r="F423">
         <v>4.4537115011963301E-2</v>
       </c>
-    </row>
-    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G423" s="1">
+        <v>8.7064715205957099E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C424">
         <v>4</v>
       </c>
@@ -39218,8 +41755,11 @@
       <c r="F424">
         <v>4.8260870971612697E-2</v>
       </c>
-    </row>
-    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G424" s="1">
+        <v>9.2842355615847402E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C425">
         <v>4</v>
       </c>
@@ -39232,8 +41772,11 @@
       <c r="F425">
         <v>4.1500641935382297E-2</v>
       </c>
-    </row>
-    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="1">
+        <v>7.5139124008893998E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C426">
         <v>4</v>
       </c>
@@ -39246,8 +41789,11 @@
       <c r="F426">
         <v>5.1392399726463298E-2</v>
       </c>
-    </row>
-    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G426" s="1">
+        <v>8.8725783791973295E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C427">
         <v>4</v>
       </c>
@@ -39260,8 +41806,11 @@
       <c r="F427">
         <v>3.3650418613271102E-2</v>
       </c>
-    </row>
-    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G427" s="1">
+        <v>4.7932460375282301E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C428">
         <v>4</v>
       </c>
@@ -39274,8 +41823,11 @@
       <c r="F428">
         <v>4.4484831336467398E-2</v>
       </c>
-    </row>
-    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G428" s="1">
+        <v>6.1217669574987303E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C429">
         <v>4</v>
       </c>
@@ -39288,8 +41840,11 @@
       <c r="F429">
         <v>3.95142495820687E-2</v>
       </c>
-    </row>
-    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G429" s="1">
+        <v>8.3016753320266395E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C430">
         <v>4</v>
       </c>
@@ -39302,8 +41857,11 @@
       <c r="F430">
         <v>4.4384825422484502E-2</v>
       </c>
-    </row>
-    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G430" s="1">
+        <v>0.118178782579691</v>
+      </c>
+    </row>
+    <row r="431" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C431">
         <v>4</v>
       </c>
@@ -39316,8 +41874,11 @@
       <c r="F431">
         <v>4.5343739176602803E-2</v>
       </c>
-    </row>
-    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G431" s="1">
+        <v>0.131973353404192</v>
+      </c>
+    </row>
+    <row r="432" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C432">
         <v>4</v>
       </c>
@@ -39330,8 +41891,11 @@
       <c r="F432">
         <v>4.4479271115114502E-2</v>
       </c>
-    </row>
-    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G432" s="1">
+        <v>0.102544712269225</v>
+      </c>
+    </row>
+    <row r="433" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C433">
         <v>4</v>
       </c>
@@ -39344,8 +41908,11 @@
       <c r="F433">
         <v>4.3420309895357903E-2</v>
       </c>
-    </row>
-    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G433" s="1">
+        <v>0.10667033652576099</v>
+      </c>
+    </row>
+    <row r="434" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C434">
         <v>4</v>
       </c>
@@ -39358,8 +41925,11 @@
       <c r="F434">
         <v>5.2228721574844303E-2</v>
       </c>
-    </row>
-    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G434" s="1">
+        <v>6.93425782902055E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C435">
         <v>4</v>
       </c>
@@ -39372,8 +41942,11 @@
       <c r="F435">
         <v>5.3177019435193103E-2</v>
       </c>
-    </row>
-    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G435" s="1">
+        <v>0.116149462457318</v>
+      </c>
+    </row>
+    <row r="436" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C436">
         <v>4</v>
       </c>
@@ -39386,8 +41959,11 @@
       <c r="F436">
         <v>5.6164057459992797E-2</v>
       </c>
-    </row>
-    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G436" s="1">
+        <v>0.114365147777532</v>
+      </c>
+    </row>
+    <row r="437" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C437">
         <v>4</v>
       </c>
@@ -39400,8 +41976,11 @@
       <c r="F437">
         <v>5.2266789805570299E-2</v>
       </c>
-    </row>
-    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G437" s="1">
+        <v>0.108352568009703</v>
+      </c>
+    </row>
+    <row r="438" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C438">
         <v>4</v>
       </c>
@@ -39414,8 +41993,11 @@
       <c r="F438">
         <v>4.9348148435957501E-2</v>
       </c>
-    </row>
-    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G438" s="1">
+        <v>0.116216346887605</v>
+      </c>
+    </row>
+    <row r="439" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C439">
         <v>5</v>
       </c>
@@ -39428,8 +42010,11 @@
       <c r="F439">
         <v>4.9900028626465101E-2</v>
       </c>
-    </row>
-    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="1">
+        <v>-0.122786075879129</v>
+      </c>
+    </row>
+    <row r="440" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C440">
         <v>5</v>
       </c>
@@ -39442,8 +42027,11 @@
       <c r="F440">
         <v>5.1729601141820597E-2</v>
       </c>
-    </row>
-    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G440" s="1">
+        <v>-0.15853048781367499</v>
+      </c>
+    </row>
+    <row r="441" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C441">
         <v>5</v>
       </c>
@@ -39456,8 +42044,11 @@
       <c r="F441">
         <v>3.9233440951378901E-2</v>
       </c>
-    </row>
-    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G441" s="1">
+        <v>6.5826832184813E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C442">
         <v>5</v>
       </c>
@@ -39470,8 +42061,11 @@
       <c r="F442">
         <v>4.8210139089969302E-2</v>
       </c>
-    </row>
-    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G442" s="1">
+        <v>3.9712321348952598E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C443">
         <v>5</v>
       </c>
@@ -39484,8 +42078,11 @@
       <c r="F443">
         <v>4.7424104168508799E-2</v>
       </c>
-    </row>
-    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G443" s="1">
+        <v>1.45701799351427E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C444">
         <v>5</v>
       </c>
@@ -39498,8 +42095,11 @@
       <c r="F444">
         <v>3.4532641814907998E-2</v>
       </c>
-    </row>
-    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="1">
+        <v>8.82280208068775E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C445">
         <v>5</v>
       </c>
@@ -39512,8 +42112,11 @@
       <c r="F445">
         <v>3.6576460324613799E-2</v>
       </c>
-    </row>
-    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G445" s="1">
+        <v>3.4511676989495699E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C446">
         <v>5</v>
       </c>
@@ -39526,8 +42129,11 @@
       <c r="F446">
         <v>6.5326825001211897E-2</v>
       </c>
-    </row>
-    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G446" s="1">
+        <v>-0.173748159600109</v>
+      </c>
+    </row>
+    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C447">
         <v>5</v>
       </c>
@@ -39540,8 +42146,11 @@
       <c r="F447">
         <v>0.114176133117408</v>
       </c>
-    </row>
-    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G447" s="1">
+        <v>-0.24014189317451601</v>
+      </c>
+    </row>
+    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C448">
         <v>5</v>
       </c>
@@ -39554,8 +42163,11 @@
       <c r="F448">
         <v>7.5259345806564806E-2</v>
       </c>
-    </row>
-    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G448" s="1">
+        <v>-0.19628705215697301</v>
+      </c>
+    </row>
+    <row r="449" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C449">
         <v>5</v>
       </c>
@@ -39568,8 +42180,11 @@
       <c r="F449">
         <v>6.5489241416715596E-2</v>
       </c>
-    </row>
-    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G449" s="1">
+        <v>-0.19325456122543599</v>
+      </c>
+    </row>
+    <row r="450" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C450">
         <v>5</v>
       </c>
@@ -39582,8 +42197,11 @@
       <c r="F450">
         <v>4.1685211988243598E-2</v>
       </c>
-    </row>
-    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G450" s="1">
+        <v>1.7493573957852698E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C451">
         <v>5</v>
       </c>
@@ -39596,8 +42214,11 @@
       <c r="F451">
         <v>5.5188483310663498E-2</v>
       </c>
-    </row>
-    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G451" s="1">
+        <v>-3.2021050588215597E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C452">
         <v>5</v>
       </c>
@@ -39610,8 +42231,11 @@
       <c r="F452">
         <v>4.1944323828998702E-2</v>
       </c>
-    </row>
-    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G452" s="1">
+        <v>-0.11860100571630899</v>
+      </c>
+    </row>
+    <row r="453" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C453">
         <v>5</v>
       </c>
@@ -39624,8 +42248,11 @@
       <c r="F453">
         <v>4.3606434378860602E-2</v>
       </c>
-    </row>
-    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G453" s="1">
+        <v>3.02412601529943E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C454">
         <v>5</v>
       </c>
@@ -39638,8 +42265,11 @@
       <c r="F454">
         <v>3.5990236084204097E-2</v>
       </c>
-    </row>
-    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G454" s="1">
+        <v>5.31942144164185E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C455">
         <v>5</v>
       </c>
@@ -39652,8 +42282,11 @@
       <c r="F455">
         <v>3.6082105069386299E-2</v>
       </c>
-    </row>
-    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G455" s="1">
+        <v>-3.2170819925929801E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C456">
         <v>5</v>
       </c>
@@ -39666,8 +42299,11 @@
       <c r="F456">
         <v>4.2071334431917101E-2</v>
       </c>
-    </row>
-    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G456" s="1">
+        <v>-0.11525849045449101</v>
+      </c>
+    </row>
+    <row r="457" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C457">
         <v>5</v>
       </c>
@@ -39680,8 +42316,11 @@
       <c r="F457">
         <v>8.30181736012372E-2</v>
       </c>
-    </row>
-    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G457" s="1">
+        <v>-0.16902653959529501</v>
+      </c>
+    </row>
+    <row r="458" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C458">
         <v>5</v>
       </c>
@@ -39694,8 +42333,11 @@
       <c r="F458">
         <v>0.112283105490981</v>
       </c>
-    </row>
-    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G458" s="1">
+        <v>-0.16907480531208199</v>
+      </c>
+    </row>
+    <row r="459" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C459">
         <v>5</v>
       </c>
@@ -39708,8 +42350,11 @@
       <c r="F459">
         <v>6.9439311500991696E-2</v>
       </c>
-    </row>
-    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G459" s="1">
+        <v>-0.19032823815945599</v>
+      </c>
+    </row>
+    <row r="460" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C460">
         <v>5</v>
       </c>
@@ -39722,8 +42367,11 @@
       <c r="F460">
         <v>0.114328959839365</v>
       </c>
-    </row>
-    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G460" s="1">
+        <v>-0.22765441377649701</v>
+      </c>
+    </row>
+    <row r="461" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C461">
         <v>5</v>
       </c>
@@ -39736,8 +42384,11 @@
       <c r="F461">
         <v>0.10636841162976</v>
       </c>
-    </row>
-    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G461" s="1">
+        <v>-0.20220257405514599</v>
+      </c>
+    </row>
+    <row r="462" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C462">
         <v>6</v>
       </c>
@@ -39750,8 +42401,11 @@
       <c r="F462">
         <v>7.7023042213153703E-2</v>
       </c>
-    </row>
-    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G462" s="1">
+        <v>-8.1027552915904993E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C463">
         <v>6</v>
       </c>
@@ -39764,8 +42418,11 @@
       <c r="F463">
         <v>6.1158696075782497E-2</v>
       </c>
-    </row>
-    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G463" s="1">
+        <v>-5.3417066212021198E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C464">
         <v>6</v>
       </c>
@@ -39778,8 +42435,11 @@
       <c r="F464">
         <v>7.0793742168991702E-2</v>
       </c>
-    </row>
-    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G464" s="1">
+        <v>-2.8275430937836198E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C465">
         <v>6</v>
       </c>
@@ -39792,8 +42452,11 @@
       <c r="F465">
         <v>6.4922231537155997E-2</v>
       </c>
-    </row>
-    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G465" s="1">
+        <v>-2.4400339513611001E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C466">
         <v>6</v>
       </c>
@@ -39806,8 +42469,11 @@
       <c r="F466">
         <v>5.7035391721892502E-2</v>
       </c>
-    </row>
-    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G466" s="1">
+        <v>-1.0412476185592801E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C467">
         <v>6</v>
       </c>
@@ -39820,8 +42486,11 @@
       <c r="F467">
         <v>6.3383363731461001E-2</v>
       </c>
-    </row>
-    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G467" s="1">
+        <v>-1.2778601115039799E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C468">
         <v>6</v>
       </c>
@@ -39834,8 +42503,11 @@
       <c r="F468">
         <v>5.5138142093231798E-2</v>
       </c>
-    </row>
-    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G468" s="1">
+        <v>6.48124888586879E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C469">
         <v>6</v>
       </c>
@@ -39848,8 +42520,11 @@
       <c r="F469">
         <v>5.7531230918613799E-2</v>
       </c>
-    </row>
-    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G469" s="1">
+        <v>2.4434524029493299E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C470">
         <v>6</v>
       </c>
@@ -39862,8 +42537,11 @@
       <c r="F470">
         <v>6.2972471878825306E-2</v>
       </c>
-    </row>
-    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G470" s="1">
+        <v>1.6461339468757299E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C471">
         <v>6</v>
       </c>
@@ -39876,8 +42554,11 @@
       <c r="F471">
         <v>4.5392130893807697E-2</v>
       </c>
-    </row>
-    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G471" s="1">
+        <v>3.43361164169411E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C472">
         <v>6</v>
       </c>
@@ -39890,8 +42571,11 @@
       <c r="F472">
         <v>5.0177616804286403E-2</v>
       </c>
-    </row>
-    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G472" s="1">
+        <v>3.7959110579992503E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C473">
         <v>6</v>
       </c>
@@ -39904,8 +42588,11 @@
       <c r="F473">
         <v>3.8087333657756198E-2</v>
       </c>
-    </row>
-    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G473" s="1">
+        <v>4.19491720706048E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C474">
         <v>6</v>
       </c>
@@ -39918,8 +42605,11 @@
       <c r="F474">
         <v>4.2600505023067899E-2</v>
       </c>
-    </row>
-    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G474" s="1">
+        <v>6.3469666141897099E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C475">
         <v>6</v>
       </c>
@@ -39932,8 +42622,11 @@
       <c r="F475">
         <v>3.6585572668048898E-2</v>
       </c>
-    </row>
-    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G475" s="1">
+        <v>6.1462535693937399E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C476">
         <v>6</v>
       </c>
@@ -39946,8 +42639,11 @@
       <c r="F476">
         <v>3.77495886554709E-2</v>
       </c>
-    </row>
-    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G476" s="1">
+        <v>6.7482988308497499E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C477">
         <v>6</v>
       </c>
@@ -39960,8 +42656,11 @@
       <c r="F477">
         <v>3.3783434426351303E-2</v>
       </c>
-    </row>
-    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G477" s="1">
+        <v>7.1411075065261898E-2</v>
+      </c>
+    </row>
+    <row r="478" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C478">
         <v>6</v>
       </c>
@@ -39974,8 +42673,11 @@
       <c r="F478">
         <v>3.6613516243921E-2</v>
       </c>
-    </row>
-    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G478" s="1">
+        <v>6.3465067171133399E-2</v>
+      </c>
+    </row>
+    <row r="479" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C479">
         <v>6</v>
       </c>
@@ -39988,8 +42690,11 @@
       <c r="F479">
         <v>3.3710769880137999E-2</v>
       </c>
-    </row>
-    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G479" s="1">
+        <v>6.9383462202923199E-2</v>
+      </c>
+    </row>
+    <row r="480" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C480">
         <v>6</v>
       </c>
@@ -40002,8 +42707,11 @@
       <c r="F480">
         <v>4.1666497837523998E-2</v>
       </c>
-    </row>
-    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G480" s="1">
+        <v>5.1583868275775997E-2</v>
+      </c>
+    </row>
+    <row r="481" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C481">
         <v>6</v>
       </c>
@@ -40016,8 +42724,11 @@
       <c r="F481">
         <v>3.4490830663416697E-2</v>
       </c>
-    </row>
-    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G481" s="1">
+        <v>6.5514817608574305E-2</v>
+      </c>
+    </row>
+    <row r="482" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C482">
         <v>6</v>
       </c>
@@ -40030,8 +42741,11 @@
       <c r="F482">
         <v>3.7593763954770799E-2</v>
       </c>
-    </row>
-    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G482" s="1">
+        <v>5.5565665450715201E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C483">
         <v>6</v>
       </c>
@@ -40044,8 +42758,11 @@
       <c r="F483">
         <v>3.5578520966254398E-2</v>
       </c>
-    </row>
-    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G483" s="1">
+        <v>5.7534444000904197E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C484">
         <v>6</v>
       </c>
@@ -40058,8 +42775,11 @@
       <c r="F484">
         <v>3.4747804901677601E-2</v>
       </c>
-    </row>
-    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G484" s="1">
+        <v>6.9475322177933202E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C485">
         <v>7</v>
       </c>
@@ -40072,8 +42792,11 @@
       <c r="F485">
         <v>3.4678924016597598E-2</v>
       </c>
-    </row>
-    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G485" s="1">
+        <v>-0.142053819436053</v>
+      </c>
+    </row>
+    <row r="486" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C486">
         <v>7</v>
       </c>
@@ -40086,8 +42809,11 @@
       <c r="F486">
         <v>3.5435573502875899E-2</v>
       </c>
-    </row>
-    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G486" s="1">
+        <v>-0.15587804124704699</v>
+      </c>
+    </row>
+    <row r="487" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C487">
         <v>7</v>
       </c>
@@ -40100,8 +42826,11 @@
       <c r="F487">
         <v>6.4221510620075695E-2</v>
       </c>
-    </row>
-    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G487" s="1">
+        <v>-0.127692872285842</v>
+      </c>
+    </row>
+    <row r="488" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C488">
         <v>7</v>
       </c>
@@ -40114,8 +42843,11 @@
       <c r="F488">
         <v>4.9292164490871697E-2</v>
       </c>
-    </row>
-    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G488" s="1">
+        <v>-0.123556702126771</v>
+      </c>
+    </row>
+    <row r="489" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C489">
         <v>7</v>
       </c>
@@ -40128,8 +42860,11 @@
       <c r="F489">
         <v>4.9192765742429902E-2</v>
       </c>
-    </row>
-    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G489" s="1">
+        <v>-9.6883495463638794E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C490">
         <v>7</v>
       </c>
@@ -40142,8 +42877,11 @@
       <c r="F490">
         <v>1.0210667672892601E-2</v>
       </c>
-    </row>
-    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G490" s="1">
+        <v>-0.14500089615778</v>
+      </c>
+    </row>
+    <row r="491" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C491">
         <v>7</v>
       </c>
@@ -40156,8 +42894,11 @@
       <c r="F491">
         <v>2.4656405270224599E-2</v>
       </c>
-    </row>
-    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G491" s="1">
+        <v>-0.13125741545632799</v>
+      </c>
+    </row>
+    <row r="492" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C492">
         <v>7</v>
       </c>
@@ -40170,8 +42911,11 @@
       <c r="F492">
         <v>4.7422999013816101E-2</v>
       </c>
-    </row>
-    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G492" s="1">
+        <v>-0.14693674671454901</v>
+      </c>
+    </row>
+    <row r="493" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C493">
         <v>7</v>
       </c>
@@ -40184,8 +42928,11 @@
       <c r="F493">
         <v>2.8100940066404199E-2</v>
       </c>
-    </row>
-    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G493" s="1">
+        <v>-0.15079090228627201</v>
+      </c>
+    </row>
+    <row r="494" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C494">
         <v>7</v>
       </c>
@@ -40198,8 +42945,11 @@
       <c r="F494">
         <v>1.7095881413625499E-2</v>
       </c>
-    </row>
-    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G494" s="1">
+        <v>-0.13047024076070601</v>
+      </c>
+    </row>
+    <row r="495" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C495">
         <v>7</v>
       </c>
@@ -40212,8 +42962,11 @@
       <c r="F495">
         <v>2.50528772679138E-2</v>
       </c>
-    </row>
-    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G495" s="1">
+        <v>-0.14410478407545499</v>
+      </c>
+    </row>
+    <row r="496" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C496">
         <v>7</v>
       </c>
@@ -40226,8 +42979,11 @@
       <c r="F496">
         <v>7.8858187640336405E-2</v>
       </c>
-    </row>
-    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G496" s="1">
+        <v>-0.18065685672857301</v>
+      </c>
+    </row>
+    <row r="497" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C497">
         <v>7</v>
       </c>
@@ -40240,8 +42996,11 @@
       <c r="F497">
         <v>3.9554323591490401E-2</v>
       </c>
-    </row>
-    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G497" s="1">
+        <v>-0.114754567838266</v>
+      </c>
+    </row>
+    <row r="498" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C498">
         <v>7</v>
       </c>
@@ -40254,8 +43013,11 @@
       <c r="F498">
         <v>2.39390521606241E-2</v>
       </c>
-    </row>
-    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G498" s="1">
+        <v>-0.13524958226878001</v>
+      </c>
+    </row>
+    <row r="499" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C499">
         <v>7</v>
       </c>
@@ -40268,8 +43030,11 @@
       <c r="F499">
         <v>3.8559726424480502E-2</v>
       </c>
-    </row>
-    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G499" s="1">
+        <v>-0.155734163256006</v>
+      </c>
+    </row>
+    <row r="500" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C500">
         <v>7</v>
       </c>
@@ -40282,8 +43047,11 @@
       <c r="F500">
         <v>3.0780896787761001E-2</v>
       </c>
-    </row>
-    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G500" s="1">
+        <v>-0.150859743069893</v>
+      </c>
+    </row>
+    <row r="501" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C501">
         <v>7</v>
       </c>
@@ -40296,8 +43064,11 @@
       <c r="F501">
         <v>1.4178320448295201E-2</v>
       </c>
-    </row>
-    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G501" s="1">
+        <v>-0.13609578600844799</v>
+      </c>
+    </row>
+    <row r="502" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C502">
         <v>7</v>
       </c>
@@ -40310,8 +43081,11 @@
       <c r="F502">
         <v>3.16901386109147E-2</v>
       </c>
-    </row>
-    <row r="503" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G502" s="1">
+        <v>-0.13609056183031301</v>
+      </c>
+    </row>
+    <row r="503" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C503">
         <v>7</v>
       </c>
@@ -40324,8 +43098,11 @@
       <c r="F503">
         <v>2.4732471970227401E-2</v>
       </c>
-    </row>
-    <row r="504" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G503" s="1">
+        <v>-0.135168626661126</v>
+      </c>
+    </row>
+    <row r="504" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C504">
         <v>7</v>
       </c>
@@ -40338,8 +43115,11 @@
       <c r="F504">
         <v>3.6783631541155402E-2</v>
       </c>
-    </row>
-    <row r="505" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G504" s="1">
+        <v>-0.137254439254137</v>
+      </c>
+    </row>
+    <row r="505" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C505">
         <v>7</v>
       </c>
@@ -40352,8 +43132,11 @@
       <c r="F505">
         <v>4.6254990558859399E-2</v>
       </c>
-    </row>
-    <row r="506" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G505" s="1">
+        <v>-0.15946190286026801</v>
+      </c>
+    </row>
+    <row r="506" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C506">
         <v>7</v>
       </c>
@@ -40366,8 +43149,11 @@
       <c r="F506">
         <v>6.6039762305489899E-2</v>
       </c>
-    </row>
-    <row r="507" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G506" s="1">
+        <v>-0.159541678652694</v>
+      </c>
+    </row>
+    <row r="507" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C507">
         <v>7</v>
       </c>
@@ -40380,8 +43166,11 @@
       <c r="F507">
         <v>3.6625100678428002E-2</v>
       </c>
-    </row>
-    <row r="508" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G507" s="1">
+        <v>-0.145014761079577</v>
+      </c>
+    </row>
+    <row r="508" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C508">
         <v>8</v>
       </c>
@@ -40394,8 +43183,11 @@
       <c r="F508">
         <v>2.9254863038658999E-2</v>
       </c>
-    </row>
-    <row r="509" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G508" s="1">
+        <v>-0.11147034581865101</v>
+      </c>
+    </row>
+    <row r="509" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C509">
         <v>8</v>
       </c>
@@ -40408,8 +43200,11 @@
       <c r="F509">
         <v>2.4505415310462301E-2</v>
       </c>
-    </row>
-    <row r="510" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G509" s="1">
+        <v>-0.10367730039526001</v>
+      </c>
+    </row>
+    <row r="510" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C510">
         <v>8</v>
       </c>
@@ -40422,8 +43217,11 @@
       <c r="F510">
         <v>3.7725671398220501E-2</v>
       </c>
-    </row>
-    <row r="511" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G510" s="1">
+        <v>-0.109681569039821</v>
+      </c>
+    </row>
+    <row r="511" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C511">
         <v>8</v>
       </c>
@@ -40436,8 +43234,11 @@
       <c r="F511">
         <v>3.0596081855911401E-2</v>
       </c>
-    </row>
-    <row r="512" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G511" s="1">
+        <v>-9.8969097364936295E-2</v>
+      </c>
+    </row>
+    <row r="512" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C512">
         <v>8</v>
       </c>
@@ -40450,8 +43251,11 @@
       <c r="F512">
         <v>3.7102907896041801E-2</v>
       </c>
-    </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G512" s="1">
+        <v>-0.10439246892928999</v>
+      </c>
+    </row>
+    <row r="513" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C513">
         <v>8</v>
       </c>
@@ -40464,8 +43268,11 @@
       <c r="F513">
         <v>3.5234834998845999E-2</v>
       </c>
-    </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G513" s="1">
+        <v>-0.123409964144229</v>
+      </c>
+    </row>
+    <row r="514" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C514">
         <v>8</v>
       </c>
@@ -40478,8 +43285,11 @@
       <c r="F514">
         <v>3.3768392131700103E-2</v>
       </c>
-    </row>
-    <row r="515" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G514" s="1">
+        <v>-0.110260039567947</v>
+      </c>
+    </row>
+    <row r="515" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C515">
         <v>8</v>
       </c>
@@ -40492,8 +43302,11 @@
       <c r="F515">
         <v>3.3049004330376899E-2</v>
       </c>
-    </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G515" s="1">
+        <v>-0.116407952573097</v>
+      </c>
+    </row>
+    <row r="516" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C516">
         <v>8</v>
       </c>
@@ -40506,8 +43319,11 @@
       <c r="F516">
         <v>2.9536714056628399E-2</v>
       </c>
-    </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G516" s="1">
+        <v>-0.108159086134669</v>
+      </c>
+    </row>
+    <row r="517" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C517">
         <v>8</v>
       </c>
@@ -40520,8 +43336,11 @@
       <c r="F517">
         <v>3.1422086531230103E-2</v>
       </c>
-    </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G517" s="1">
+        <v>-0.114591830968856</v>
+      </c>
+    </row>
+    <row r="518" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C518">
         <v>8</v>
       </c>
@@ -40534,8 +43353,11 @@
       <c r="F518">
         <v>2.59018585488252E-2</v>
       </c>
-    </row>
-    <row r="519" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G518" s="1">
+        <v>-0.10442126542329699</v>
+      </c>
+    </row>
+    <row r="519" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C519">
         <v>8</v>
       </c>
@@ -40548,8 +43370,11 @@
       <c r="F519">
         <v>3.8394715875834401E-2</v>
       </c>
-    </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G519" s="1">
+        <v>-0.12902275080880199</v>
+      </c>
+    </row>
+    <row r="520" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C520">
         <v>8</v>
       </c>
@@ -40562,8 +43387,11 @@
       <c r="F520">
         <v>4.11660894751548E-2</v>
       </c>
-    </row>
-    <row r="521" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G520" s="1">
+        <v>-0.113178729428595</v>
+      </c>
+    </row>
+    <row r="521" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C521">
         <v>8</v>
       </c>
@@ -40576,8 +43404,11 @@
       <c r="F521">
         <v>2.65149425146524E-2</v>
       </c>
-    </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G521" s="1">
+        <v>-0.10338034863911801</v>
+      </c>
+    </row>
+    <row r="522" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C522">
         <v>8</v>
       </c>
@@ -40590,8 +43421,11 @@
       <c r="F522">
         <v>2.96549052784583E-2</v>
       </c>
-    </row>
-    <row r="523" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G522" s="1">
+        <v>-0.10522683709859799</v>
+      </c>
+    </row>
+    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C523">
         <v>8</v>
       </c>
@@ -40604,8 +43438,11 @@
       <c r="F523">
         <v>2.5247917698306001E-2</v>
       </c>
-    </row>
-    <row r="524" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G523" s="1">
+        <v>-0.107824163564613</v>
+      </c>
+    </row>
+    <row r="524" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C524">
         <v>8</v>
       </c>
@@ -40618,8 +43455,11 @@
       <c r="F524">
         <v>4.0449794381856898E-2</v>
       </c>
-    </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G524" s="1">
+        <v>-0.106248525520141</v>
+      </c>
+    </row>
+    <row r="525" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C525">
         <v>8</v>
       </c>
@@ -40632,8 +43472,11 @@
       <c r="F525">
         <v>2.8612148016691201E-2</v>
       </c>
-    </row>
-    <row r="526" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G525" s="1">
+        <v>-0.114323861215884</v>
+      </c>
+    </row>
+    <row r="526" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C526">
         <v>8</v>
       </c>
@@ -40646,8 +43489,11 @@
       <c r="F526">
         <v>4.4497437775134999E-2</v>
       </c>
-    </row>
-    <row r="527" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G526" s="1">
+        <v>-0.11215299367904601</v>
+      </c>
+    </row>
+    <row r="527" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C527">
         <v>8</v>
       </c>
@@ -40660,8 +43506,11 @@
       <c r="F527">
         <v>3.82227124348282E-2</v>
       </c>
-    </row>
-    <row r="528" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G527" s="1">
+        <v>-0.111737467348575</v>
+      </c>
+    </row>
+    <row r="528" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C528">
         <v>8</v>
       </c>
@@ -40674,8 +43523,11 @@
       <c r="F528">
         <v>4.0257785550049101E-2</v>
       </c>
-    </row>
-    <row r="529" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G528" s="1">
+        <v>-0.10716925561428001</v>
+      </c>
+    </row>
+    <row r="529" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C529">
         <v>8</v>
       </c>
@@ -40688,8 +43540,11 @@
       <c r="F529">
         <v>3.9932378827828102E-2</v>
       </c>
-    </row>
-    <row r="530" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G529" s="1">
+        <v>-0.104311231964377</v>
+      </c>
+    </row>
+    <row r="530" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C530">
         <v>8</v>
       </c>
@@ -40702,8 +43557,11 @@
       <c r="F530">
         <v>3.8781427656826697E-2</v>
       </c>
-    </row>
-    <row r="531" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G530" s="1">
+        <v>-0.10493692755699099</v>
+      </c>
+    </row>
+    <row r="531" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C531">
         <v>9</v>
       </c>
@@ -40716,8 +43574,11 @@
       <c r="F531">
         <v>7.2479464113712297E-2</v>
       </c>
-    </row>
-    <row r="532" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G531">
+        <v>-5.6188045069575303E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C532">
         <v>9</v>
       </c>
@@ -40730,8 +43591,11 @@
       <c r="F532">
         <v>5.6684229522943497E-2</v>
       </c>
-    </row>
-    <row r="533" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G532">
+        <v>-7.0815142496596706E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C533">
         <v>9</v>
       </c>
@@ -40744,8 +43608,11 @@
       <c r="F533">
         <v>7.1743406355380998E-2</v>
       </c>
-    </row>
-    <row r="534" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G533">
+        <v>-6.6171047390899906E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C534">
         <v>9</v>
       </c>
@@ -40758,8 +43625,11 @@
       <c r="F534">
         <v>6.5108803036957305E-2</v>
       </c>
-    </row>
-    <row r="535" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G534">
+        <v>-7.1845360100269304E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C535">
         <v>9</v>
       </c>
@@ -40772,8 +43642,11 @@
       <c r="F535">
         <v>7.7236476043860094E-2</v>
       </c>
-    </row>
-    <row r="536" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G535">
+        <v>-8.8446445155905204E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C536">
         <v>9</v>
       </c>
@@ -40786,8 +43659,11 @@
       <c r="F536">
         <v>8.9351628837251507E-2</v>
       </c>
-    </row>
-    <row r="537" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G536">
+        <v>-0.100442051887512</v>
+      </c>
+    </row>
+    <row r="537" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C537">
         <v>9</v>
       </c>
@@ -40800,8 +43676,11 @@
       <c r="F537">
         <v>9.07118469476699E-2</v>
       </c>
-    </row>
-    <row r="538" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G537">
+        <v>-9.5100152351177705E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C538">
         <v>9</v>
       </c>
@@ -40814,8 +43693,11 @@
       <c r="F538">
         <v>0.10334277898073101</v>
       </c>
-    </row>
-    <row r="539" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G538">
+        <v>-0.144049223204818</v>
+      </c>
+    </row>
+    <row r="539" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C539">
         <v>9</v>
       </c>
@@ -40828,8 +43710,11 @@
       <c r="F539">
         <v>7.9393081367015797E-2</v>
       </c>
-    </row>
-    <row r="540" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G539">
+        <v>-0.11570110574827901</v>
+      </c>
+    </row>
+    <row r="540" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C540">
         <v>9</v>
       </c>
@@ -40842,8 +43727,11 @@
       <c r="F540">
         <v>9.5799678297185095E-2</v>
       </c>
-    </row>
-    <row r="541" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G540">
+        <v>-0.13732499168534101</v>
+      </c>
+    </row>
+    <row r="541" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C541">
         <v>9</v>
       </c>
@@ -40856,8 +43744,11 @@
       <c r="F541">
         <v>0.100859383703973</v>
       </c>
-    </row>
-    <row r="542" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G541">
+        <v>-0.11425112839077201</v>
+      </c>
+    </row>
+    <row r="542" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C542">
         <v>9</v>
       </c>
@@ -40870,8 +43761,11 @@
       <c r="F542">
         <v>8.6257452392910994E-2</v>
       </c>
-    </row>
-    <row r="543" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G542">
+        <v>-8.8300215080380398E-2</v>
+      </c>
+    </row>
+    <row r="543" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C543">
         <v>9</v>
       </c>
@@ -40884,8 +43778,11 @@
       <c r="F543">
         <v>0.11095176119391501</v>
       </c>
-    </row>
-    <row r="544" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G543">
+        <v>-0.14022888721788601</v>
+      </c>
+    </row>
+    <row r="544" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C544">
         <v>9</v>
       </c>
@@ -40898,8 +43795,11 @@
       <c r="F544">
         <v>9.0428751588395195E-2</v>
       </c>
-    </row>
-    <row r="545" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G544">
+        <v>-9.7309924626050301E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C545">
         <v>9</v>
       </c>
@@ -40912,8 +43812,11 @@
       <c r="F545">
         <v>6.1978696381234599E-2</v>
       </c>
-    </row>
-    <row r="546" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G545">
+        <v>-8.6701619356232607E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C546">
         <v>9</v>
       </c>
@@ -40926,8 +43829,11 @@
       <c r="F546">
         <v>9.6098661422729506E-2</v>
       </c>
-    </row>
-    <row r="547" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G546">
+        <v>-0.124411631004787</v>
+      </c>
+    </row>
+    <row r="547" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C547">
         <v>9</v>
       </c>
@@ -40940,8 +43846,11 @@
       <c r="F547">
         <v>7.5639799237251198E-2</v>
       </c>
-    </row>
-    <row r="548" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G547">
+        <v>-8.3476506173610604E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C548">
         <v>9</v>
       </c>
@@ -40954,8 +43863,11 @@
       <c r="F548">
         <v>7.4939308057268297E-2</v>
       </c>
-    </row>
-    <row r="549" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G548">
+        <v>-9.0383454734824301E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C549">
         <v>9</v>
       </c>
@@ -40968,8 +43880,11 @@
       <c r="F549">
         <v>7.3483504354953696E-2</v>
       </c>
-    </row>
-    <row r="550" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G549">
+        <v>-9.9337448319750402E-2</v>
+      </c>
+    </row>
+    <row r="550" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C550">
         <v>9</v>
       </c>
@@ -40982,8 +43897,11 @@
       <c r="F550">
         <v>6.77797496318817E-2</v>
       </c>
-    </row>
-    <row r="551" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G550">
+        <v>-9.5252055186228604E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C551">
         <v>9</v>
       </c>
@@ -40996,8 +43914,11 @@
       <c r="F551">
         <v>5.8195858988740003E-2</v>
       </c>
-    </row>
-    <row r="552" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G551">
+        <v>-0.10398465394973699</v>
+      </c>
+    </row>
+    <row r="552" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C552">
         <v>9</v>
       </c>
@@ -41010,8 +43931,11 @@
       <c r="F552">
         <v>6.5008281190732195E-2</v>
       </c>
-    </row>
-    <row r="553" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G552">
+        <v>-8.64541693626205E-2</v>
+      </c>
+    </row>
+    <row r="553" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C553">
         <v>9</v>
       </c>
@@ -41024,8 +43948,11 @@
       <c r="F553">
         <v>5.1092162728309597E-2</v>
       </c>
-    </row>
-    <row r="554" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G553">
+        <v>-7.7695168554782798E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C554">
         <v>10</v>
       </c>
@@ -41038,8 +43965,11 @@
       <c r="F554">
         <v>5.5128923903286102E-2</v>
       </c>
-    </row>
-    <row r="555" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G554">
+        <v>-0.12834587951977</v>
+      </c>
+    </row>
+    <row r="555" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C555">
         <v>10</v>
       </c>
@@ -41052,8 +43982,11 @@
       <c r="F555">
         <v>5.9947861392095701E-2</v>
       </c>
-    </row>
-    <row r="556" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G555">
+        <v>-0.119563551667071</v>
+      </c>
+    </row>
+    <row r="556" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C556">
         <v>10</v>
       </c>
@@ -41066,8 +43999,11 @@
       <c r="F556">
         <v>7.8696336597204194E-2</v>
       </c>
-    </row>
-    <row r="557" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G556">
+        <v>-0.132211778312921</v>
+      </c>
+    </row>
+    <row r="557" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C557">
         <v>10</v>
       </c>
@@ -41080,8 +44016,11 @@
       <c r="F557">
         <v>6.1026356715449398E-2</v>
       </c>
-    </row>
-    <row r="558" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G557">
+        <v>-0.114641408306283</v>
+      </c>
+    </row>
+    <row r="558" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C558">
         <v>10</v>
       </c>
@@ -41094,8 +44033,11 @@
       <c r="F558">
         <v>7.16566960016886E-2</v>
       </c>
-    </row>
-    <row r="559" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G558">
+        <v>-0.12846243754029199</v>
+      </c>
+    </row>
+    <row r="559" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C559">
         <v>10</v>
       </c>
@@ -41108,8 +44050,11 @@
       <c r="F559">
         <v>1.2263703265284E-2</v>
       </c>
-    </row>
-    <row r="560" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G559">
+        <v>-9.9187637310227797E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C560">
         <v>10</v>
       </c>
@@ -41122,8 +44067,11 @@
       <c r="F560">
         <v>2.9042665090398101E-2</v>
       </c>
-    </row>
-    <row r="561" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G560">
+        <v>-0.113559137922007</v>
+      </c>
+    </row>
+    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C561">
         <v>10</v>
       </c>
@@ -41136,8 +44084,11 @@
       <c r="F561">
         <v>4.8093609725069798E-2</v>
       </c>
-    </row>
-    <row r="562" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G561">
+        <v>-0.124633550298355</v>
+      </c>
+    </row>
+    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C562">
         <v>10</v>
       </c>
@@ -41150,8 +44101,11 @@
       <c r="F562">
         <v>2.7797638039503698E-2</v>
       </c>
-    </row>
-    <row r="563" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G562">
+        <v>-0.11178379657575201</v>
+      </c>
+    </row>
+    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C563">
         <v>10</v>
       </c>
@@ -41164,8 +44118,11 @@
       <c r="F563">
         <v>4.3908265539163202E-2</v>
       </c>
-    </row>
-    <row r="564" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G563">
+        <v>-0.11761460391183599</v>
+      </c>
+    </row>
+    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C564">
         <v>10</v>
       </c>
@@ -41178,8 +44135,11 @@
       <c r="F564">
         <v>4.52880632753173E-2</v>
       </c>
-    </row>
-    <row r="565" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G564">
+        <v>-0.111833014871521</v>
+      </c>
+    </row>
+    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C565">
         <v>10</v>
       </c>
@@ -41192,8 +44152,11 @@
       <c r="F565">
         <v>7.8982323429284601E-2</v>
       </c>
-    </row>
-    <row r="566" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G565">
+        <v>-0.13850334882736201</v>
+      </c>
+    </row>
+    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C566">
         <v>10</v>
       </c>
@@ -41206,8 +44169,11 @@
       <c r="F566">
         <v>6.7423322233976499E-2</v>
       </c>
-    </row>
-    <row r="567" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G566">
+        <v>-0.13123475480525801</v>
+      </c>
+    </row>
+    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C567">
         <v>10</v>
       </c>
@@ -41220,8 +44186,11 @@
       <c r="F567">
         <v>5.32847643019249E-2</v>
       </c>
-    </row>
-    <row r="568" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G567">
+        <v>-0.123384144902229</v>
+      </c>
+    </row>
+    <row r="568" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C568">
         <v>10</v>
       </c>
@@ -41234,8 +44203,11 @@
       <c r="F568">
         <v>5.9612649501691699E-2</v>
       </c>
-    </row>
-    <row r="569" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G568">
+        <v>-0.12659337123235001</v>
+      </c>
+    </row>
+    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C569">
         <v>10</v>
       </c>
@@ -41248,8 +44220,11 @@
       <c r="F569">
         <v>5.4352117702364901E-2</v>
       </c>
-    </row>
-    <row r="570" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G569">
+        <v>-0.12163688784295799</v>
+      </c>
+    </row>
+    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C570">
         <v>10</v>
       </c>
@@ -41262,8 +44237,11 @@
       <c r="F570">
         <v>5.7157182460039598E-2</v>
       </c>
-    </row>
-    <row r="571" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G570">
+        <v>-0.12270254145065899</v>
+      </c>
+    </row>
+    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C571">
         <v>10</v>
       </c>
@@ -41276,8 +44254,11 @@
       <c r="F571">
         <v>5.51204779495384E-2</v>
       </c>
-    </row>
-    <row r="572" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G571">
+        <v>-0.13035855035705901</v>
+      </c>
+    </row>
+    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C572">
         <v>10</v>
       </c>
@@ -41290,8 +44271,11 @@
       <c r="F572">
         <v>6.9889696292815995E-2</v>
       </c>
-    </row>
-    <row r="573" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G572">
+        <v>-0.12939218572668101</v>
+      </c>
+    </row>
+    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C573">
         <v>10</v>
       </c>
@@ -41304,8 +44288,11 @@
       <c r="F573">
         <v>7.38103978335857E-2</v>
       </c>
-    </row>
-    <row r="574" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G573">
+        <v>-0.12843627418508499</v>
+      </c>
+    </row>
+    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C574">
         <v>10</v>
       </c>
@@ -41318,8 +44305,11 @@
       <c r="F574">
         <v>6.1091907551964503E-2</v>
       </c>
-    </row>
-    <row r="575" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G574">
+        <v>-0.124479533961186</v>
+      </c>
+    </row>
+    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C575">
         <v>10</v>
       </c>
@@ -41332,8 +44322,11 @@
       <c r="F575">
         <v>5.4031727838733598E-2</v>
       </c>
-    </row>
-    <row r="576" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G575">
+        <v>-0.125350334662374</v>
+      </c>
+    </row>
+    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C576">
         <v>10</v>
       </c>
@@ -41346,8 +44339,11 @@
       <c r="F576">
         <v>5.6125446826926599E-2</v>
       </c>
-    </row>
-    <row r="577" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G576">
+        <v>-0.120632924148853</v>
+      </c>
+    </row>
+    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C577">
         <v>11</v>
       </c>
@@ -41360,8 +44356,11 @@
       <c r="F577">
         <v>4.3717070477673099E-2</v>
       </c>
-    </row>
-    <row r="578" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G577">
+        <v>-0.143428180285815</v>
+      </c>
+    </row>
+    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C578">
         <v>11</v>
       </c>
@@ -41374,8 +44373,11 @@
       <c r="F578">
         <v>2.6848682805019199E-2</v>
       </c>
-    </row>
-    <row r="579" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G578">
+        <v>-0.14550210756576001</v>
+      </c>
+    </row>
+    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C579">
         <v>11</v>
       </c>
@@ -41388,8 +44390,11 @@
       <c r="F579">
         <v>5.1337251120007102E-2</v>
       </c>
-    </row>
-    <row r="580" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G579">
+        <v>-0.15135501210103899</v>
+      </c>
+    </row>
+    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C580">
         <v>11</v>
       </c>
@@ -41402,8 +44407,11 @@
       <c r="F580">
         <v>4.9489855170803801E-2</v>
       </c>
-    </row>
-    <row r="581" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G580">
+        <v>-0.14401450205959601</v>
+      </c>
+    </row>
+    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C581">
         <v>11</v>
       </c>
@@ -41416,8 +44424,11 @@
       <c r="F581">
         <v>5.8250220185722401E-2</v>
       </c>
-    </row>
-    <row r="582" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G581">
+        <v>-0.14550800720819901</v>
+      </c>
+    </row>
+    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C582">
         <v>11</v>
       </c>
@@ -41430,8 +44441,11 @@
       <c r="F582">
         <v>3.7470464141817199E-2</v>
       </c>
-    </row>
-    <row r="583" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G582">
+        <v>-0.17305160537616299</v>
+      </c>
+    </row>
+    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C583">
         <v>11</v>
       </c>
@@ -41444,8 +44458,11 @@
       <c r="F583">
         <v>4.6190086120182501E-2</v>
       </c>
-    </row>
-    <row r="584" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G583">
+        <v>-0.18244864022012999</v>
+      </c>
+    </row>
+    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C584">
         <v>11</v>
       </c>
@@ -41458,8 +44475,11 @@
       <c r="F584">
         <v>5.1330981193924603E-2</v>
       </c>
-    </row>
-    <row r="585" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G584">
+        <v>-0.180741810150849</v>
+      </c>
+    </row>
+    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C585">
         <v>11</v>
       </c>
@@ -41472,8 +44492,11 @@
       <c r="F585">
         <v>6.35184629558284E-2</v>
       </c>
-    </row>
-    <row r="586" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G585">
+        <v>-0.19635399069096299</v>
+      </c>
+    </row>
+    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C586">
         <v>11</v>
       </c>
@@ -41486,8 +44509,11 @@
       <c r="F586">
         <v>4.5513301683872798E-2</v>
       </c>
-    </row>
-    <row r="587" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G586">
+        <v>-0.18656646712769401</v>
+      </c>
+    </row>
+    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C587">
         <v>11</v>
       </c>
@@ -41500,8 +44526,11 @@
       <c r="F587">
         <v>5.2243276634932098E-2</v>
       </c>
-    </row>
-    <row r="588" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G587">
+        <v>-0.18453567891745101</v>
+      </c>
+    </row>
+    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C588">
         <v>11</v>
       </c>
@@ -41514,8 +44543,11 @@
       <c r="F588">
         <v>7.5159855294776506E-2</v>
       </c>
-    </row>
-    <row r="589" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G588">
+        <v>-0.202184710076485</v>
+      </c>
+    </row>
+    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C589">
         <v>11</v>
       </c>
@@ -41528,8 +44560,11 @@
       <c r="F589">
         <v>4.9240773588157899E-2</v>
       </c>
-    </row>
-    <row r="590" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G589">
+        <v>-0.18834512970429501</v>
+      </c>
+    </row>
+    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C590">
         <v>11</v>
       </c>
@@ -41542,8 +44577,11 @@
       <c r="F590">
         <v>5.2276175142380199E-2</v>
       </c>
-    </row>
-    <row r="591" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G590">
+        <v>-0.184516832197403</v>
+      </c>
+    </row>
+    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C591">
         <v>11</v>
       </c>
@@ -41556,8 +44594,11 @@
       <c r="F591">
         <v>3.3813889563511397E-2</v>
       </c>
-    </row>
-    <row r="592" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G591">
+        <v>-0.13951624009201399</v>
+      </c>
+    </row>
+    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C592">
         <v>11</v>
       </c>
@@ -41570,8 +44611,11 @@
       <c r="F592">
         <v>4.93788138539265E-2</v>
       </c>
-    </row>
-    <row r="593" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G592">
+        <v>-0.17256592569297299</v>
+      </c>
+    </row>
+    <row r="593" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C593">
         <v>11</v>
       </c>
@@ -41584,8 +44628,11 @@
       <c r="F593">
         <v>3.8724973825021401E-2</v>
       </c>
-    </row>
-    <row r="594" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G593">
+        <v>-0.16112904247329399</v>
+      </c>
+    </row>
+    <row r="594" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C594">
         <v>11</v>
       </c>
@@ -41598,8 +44645,11 @@
       <c r="F594">
         <v>4.4318223515759897E-2</v>
       </c>
-    </row>
-    <row r="595" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G594">
+        <v>-0.17060520292311299</v>
+      </c>
+    </row>
+    <row r="595" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C595">
         <v>11</v>
       </c>
@@ -41612,8 +44662,11 @@
       <c r="F595">
         <v>7.5752330666673695E-2</v>
       </c>
-    </row>
-    <row r="596" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G595">
+        <v>-0.19839601131915399</v>
+      </c>
+    </row>
+    <row r="596" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C596">
         <v>11</v>
       </c>
@@ -41626,8 +44679,11 @@
       <c r="F596">
         <v>7.0632271468639304E-2</v>
       </c>
-    </row>
-    <row r="597" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G596">
+        <v>-0.184224137238093</v>
+      </c>
+    </row>
+    <row r="597" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C597">
         <v>11</v>
       </c>
@@ -41640,8 +44696,11 @@
       <c r="F597">
         <v>6.7960802970754006E-2</v>
       </c>
-    </row>
-    <row r="598" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G597">
+        <v>-0.186595148423152</v>
+      </c>
+    </row>
+    <row r="598" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C598">
         <v>11</v>
       </c>
@@ -41654,8 +44713,11 @@
       <c r="F598">
         <v>8.8550414524447299E-2</v>
       </c>
-    </row>
-    <row r="599" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G598">
+        <v>-0.196201411231224</v>
+      </c>
+    </row>
+    <row r="599" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C599">
         <v>11</v>
       </c>
@@ -41668,8 +44730,11 @@
       <c r="F599">
         <v>7.0690514209776595E-2</v>
       </c>
-    </row>
-    <row r="600" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G599">
+        <v>-0.18674059428306</v>
+      </c>
+    </row>
+    <row r="600" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C600">
         <v>12</v>
       </c>
@@ -41682,8 +44747,11 @@
       <c r="F600">
         <v>3.18535335620517E-2</v>
       </c>
-    </row>
-    <row r="601" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G600">
+        <v>-1.8627037631214E-2</v>
+      </c>
+    </row>
+    <row r="601" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C601">
         <v>12</v>
       </c>
@@ -41696,8 +44764,11 @@
       <c r="F601">
         <v>3.86019633373334E-2</v>
       </c>
-    </row>
-    <row r="602" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G601">
+        <v>-2.0278018278380199E-2</v>
+      </c>
+    </row>
+    <row r="602" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C602">
         <v>12</v>
       </c>
@@ -41710,8 +44781,11 @@
       <c r="F602">
         <v>4.5531626207928097E-2</v>
       </c>
-    </row>
-    <row r="603" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G602">
+        <v>-2.4494225004067002E-2</v>
+      </c>
+    </row>
+    <row r="603" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C603">
         <v>12</v>
       </c>
@@ -41724,8 +44798,11 @@
       <c r="F603">
         <v>4.1319272288727303E-2</v>
       </c>
-    </row>
-    <row r="604" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G603">
+        <v>-1.8591032527825398E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C604">
         <v>12</v>
       </c>
@@ -41738,8 +44815,11 @@
       <c r="F604">
         <v>4.9392018046750003E-2</v>
       </c>
-    </row>
-    <row r="605" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G604">
+        <v>-2.2442427084176202E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C605">
         <v>12</v>
       </c>
@@ -41752,8 +44832,11 @@
       <c r="F605">
         <v>4.1993556359386397E-2</v>
       </c>
-    </row>
-    <row r="606" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G605">
+        <v>-6.5471139700348402E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C606">
         <v>12</v>
       </c>
@@ -41766,8 +44849,11 @@
       <c r="F606">
         <v>3.8265787246363002E-2</v>
       </c>
-    </row>
-    <row r="607" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G606">
+        <v>-3.0482079626785299E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C607">
         <v>12</v>
       </c>
@@ -41780,8 +44866,11 @@
       <c r="F607">
         <v>3.8262876431120203E-2</v>
       </c>
-    </row>
-    <row r="608" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G607">
+        <v>-3.0341509839191101E-2</v>
+      </c>
+    </row>
+    <row r="608" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C608">
         <v>12</v>
       </c>
@@ -41794,8 +44883,11 @@
       <c r="F608">
         <v>3.0288852306210399E-2</v>
       </c>
-    </row>
-    <row r="609" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G608">
+        <v>-4.38649116870981E-2</v>
+      </c>
+    </row>
+    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C609">
         <v>12</v>
       </c>
@@ -41808,8 +44900,11 @@
       <c r="F609">
         <v>3.8232563400552297E-2</v>
       </c>
-    </row>
-    <row r="610" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G609">
+        <v>-1.6456555472211101E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C610">
         <v>12</v>
       </c>
@@ -41822,8 +44917,11 @@
       <c r="F610">
         <v>3.4145625302592797E-2</v>
       </c>
-    </row>
-    <row r="611" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G610">
+        <v>-3.9981349807243903E-2</v>
+      </c>
+    </row>
+    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C611">
         <v>12</v>
       </c>
@@ -41836,8 +44934,11 @@
       <c r="F611">
         <v>3.3992126018149299E-2</v>
       </c>
-    </row>
-    <row r="612" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G611">
+        <v>-3.9859995015120102E-2</v>
+      </c>
+    </row>
+    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C612">
         <v>12</v>
       </c>
@@ -41850,8 +44951,11 @@
       <c r="F612">
         <v>3.21312200868741E-2</v>
       </c>
-    </row>
-    <row r="613" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G612">
+        <v>-8.5801223792957692E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C613">
         <v>12</v>
       </c>
@@ -41864,8 +44968,11 @@
       <c r="F613">
         <v>3.85141499040327E-2</v>
       </c>
-    </row>
-    <row r="614" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G613">
+        <v>-3.8304751926506599E-2</v>
+      </c>
+    </row>
+    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C614">
         <v>12</v>
       </c>
@@ -41878,8 +44985,11 @@
       <c r="F614">
         <v>2.6214361651944001E-2</v>
       </c>
-    </row>
-    <row r="615" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G614">
+        <v>-5.5648496952389701E-2</v>
+      </c>
+    </row>
+    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C615">
         <v>12</v>
       </c>
@@ -41892,8 +45002,11 @@
       <c r="F615">
         <v>3.6539452282807E-2</v>
       </c>
-    </row>
-    <row r="616" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G615">
+        <v>-3.2312620354745497E-2</v>
+      </c>
+    </row>
+    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C616">
         <v>12</v>
       </c>
@@ -41906,8 +45019,11 @@
       <c r="F616">
         <v>3.7534985504171003E-2</v>
       </c>
-    </row>
-    <row r="617" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G616">
+        <v>-3.0233914680954301E-2</v>
+      </c>
+    </row>
+    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C617">
         <v>12</v>
       </c>
@@ -41920,8 +45036,11 @@
       <c r="F617">
         <v>3.5585342391448803E-2</v>
       </c>
-    </row>
-    <row r="618" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G617">
+        <v>-3.4281543582860598E-2</v>
+      </c>
+    </row>
+    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C618">
         <v>12</v>
       </c>
@@ -41934,8 +45053,11 @@
       <c r="F618">
         <v>4.3439879765084601E-2</v>
       </c>
-    </row>
-    <row r="619" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G618">
+        <v>-2.6498752487716999E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C619">
         <v>12</v>
       </c>
@@ -41948,8 +45070,11 @@
       <c r="F619">
         <v>4.4406731185075397E-2</v>
       </c>
-    </row>
-    <row r="620" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G619">
+        <v>-1.8587919023747599E-2</v>
+      </c>
+    </row>
+    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C620">
         <v>12</v>
       </c>
@@ -41962,8 +45087,11 @@
       <c r="F620">
         <v>3.87152332542543E-2</v>
       </c>
-    </row>
-    <row r="621" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G620">
+        <v>-1.27970685864642E-2</v>
+      </c>
+    </row>
+    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C621">
         <v>12</v>
       </c>
@@ -41976,8 +45104,11 @@
       <c r="F621">
         <v>4.1912881727966901E-2</v>
       </c>
-    </row>
-    <row r="622" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G621">
+        <v>-3.0131202284246601E-2</v>
+      </c>
+    </row>
+    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C622">
         <v>12</v>
       </c>
@@ -41990,8 +45121,11 @@
       <c r="F622">
         <v>3.8455271068960399E-2</v>
       </c>
-    </row>
-    <row r="623" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G622">
+        <v>-4.01446383857747E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C623">
         <v>13</v>
       </c>
@@ -42004,8 +45138,11 @@
       <c r="F623">
         <v>4.7878487815791702E-2</v>
       </c>
-    </row>
-    <row r="624" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G623">
+        <v>-0.120685756136553</v>
+      </c>
+    </row>
+    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C624">
         <v>13</v>
       </c>
@@ -42018,8 +45155,11 @@
       <c r="F624">
         <v>2.4399563032121201E-2</v>
       </c>
-    </row>
-    <row r="625" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G624">
+        <v>-0.12561371326982201</v>
+      </c>
+    </row>
+    <row r="625" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C625">
         <v>13</v>
       </c>
@@ -42032,8 +45172,11 @@
       <c r="F625">
         <v>3.9739895056302897E-2</v>
       </c>
-    </row>
-    <row r="626" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G625">
+        <v>-0.129635526154426</v>
+      </c>
+    </row>
+    <row r="626" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C626">
         <v>13</v>
       </c>
@@ -42046,8 +45189,11 @@
       <c r="F626">
         <v>4.0738901457274802E-2</v>
       </c>
-    </row>
-    <row r="627" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G626">
+        <v>-0.114875002928232</v>
+      </c>
+    </row>
+    <row r="627" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C627">
         <v>13</v>
       </c>
@@ -42060,8 +45206,11 @@
       <c r="F627">
         <v>2.5812714368741E-2</v>
       </c>
-    </row>
-    <row r="628" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G627">
+        <v>-0.11584744620916899</v>
+      </c>
+    </row>
+    <row r="628" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C628">
         <v>13</v>
       </c>
@@ -42074,8 +45223,11 @@
       <c r="F628">
         <v>3.5927337854634499E-2</v>
       </c>
-    </row>
-    <row r="629" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G628">
+        <v>-0.13792183049083701</v>
+      </c>
+    </row>
+    <row r="629" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C629">
         <v>13</v>
       </c>
@@ -42088,8 +45240,11 @@
       <c r="F629">
         <v>3.7384111434221198E-2</v>
       </c>
-    </row>
-    <row r="630" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G629">
+        <v>-0.13177064818895401</v>
+      </c>
+    </row>
+    <row r="630" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C630">
         <v>13</v>
       </c>
@@ -42102,8 +45257,11 @@
       <c r="F630">
         <v>5.5939187171035902E-2</v>
       </c>
-    </row>
-    <row r="631" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G630">
+        <v>-0.137924050587834</v>
+      </c>
+    </row>
+    <row r="631" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C631">
         <v>13</v>
       </c>
@@ -42116,8 +45274,11 @@
       <c r="F631">
         <v>5.7443282541067897E-2</v>
       </c>
-    </row>
-    <row r="632" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G631">
+        <v>-0.13526035178404799</v>
+      </c>
+    </row>
+    <row r="632" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C632">
         <v>13</v>
       </c>
@@ -42130,8 +45291,11 @@
       <c r="F632">
         <v>5.7409616414390102E-2</v>
       </c>
-    </row>
-    <row r="633" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G632">
+        <v>-0.14328706425471899</v>
+      </c>
+    </row>
+    <row r="633" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C633">
         <v>13</v>
       </c>
@@ -42144,8 +45308,11 @@
       <c r="F633">
         <v>5.8016635805280999E-2</v>
       </c>
-    </row>
-    <row r="634" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G633">
+        <v>-0.13968168149229701</v>
+      </c>
+    </row>
+    <row r="634" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C634">
         <v>13</v>
       </c>
@@ -42158,8 +45325,11 @@
       <c r="F634">
         <v>8.1073451166351604E-2</v>
       </c>
-    </row>
-    <row r="635" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G634">
+        <v>-0.14350766411240801</v>
+      </c>
+    </row>
+    <row r="635" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C635">
         <v>13</v>
       </c>
@@ -42172,8 +45342,11 @@
       <c r="F635">
         <v>4.7387801026850002E-2</v>
       </c>
-    </row>
-    <row r="636" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G635">
+        <v>-0.135311058597954</v>
+      </c>
+    </row>
+    <row r="636" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C636">
         <v>13</v>
       </c>
@@ -42186,8 +45359,11 @@
       <c r="F636">
         <v>4.9409011923739699E-2</v>
       </c>
-    </row>
-    <row r="637" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G636">
+        <v>-0.13562941379805901</v>
+      </c>
+    </row>
+    <row r="637" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C637">
         <v>13</v>
       </c>
@@ -42200,8 +45376,11 @@
       <c r="F637">
         <v>4.5412354266006899E-2</v>
       </c>
-    </row>
-    <row r="638" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G637">
+        <v>-0.12126096106732</v>
+      </c>
+    </row>
+    <row r="638" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C638">
         <v>13</v>
       </c>
@@ -42214,8 +45393,11 @@
       <c r="F638">
         <v>6.7803502910667002E-2</v>
       </c>
-    </row>
-    <row r="639" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G638">
+        <v>-0.13166061929391801</v>
+      </c>
+    </row>
+    <row r="639" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C639">
         <v>13</v>
       </c>
@@ -42228,8 +45410,11 @@
       <c r="F639">
         <v>4.0451854739819597E-2</v>
       </c>
-    </row>
-    <row r="640" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G639">
+        <v>-0.121569433200077</v>
+      </c>
+    </row>
+    <row r="640" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C640">
         <v>13</v>
       </c>
@@ -42242,8 +45427,11 @@
       <c r="F640">
         <v>6.78886193782091E-2</v>
       </c>
-    </row>
-    <row r="641" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G640">
+        <v>-0.12737682089209501</v>
+      </c>
+    </row>
+    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C641">
         <v>13</v>
       </c>
@@ -42256,8 +45444,11 @@
       <c r="F641">
         <v>6.9875727097193405E-2</v>
       </c>
-    </row>
-    <row r="642" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G641">
+        <v>-0.13547588206196601</v>
+      </c>
+    </row>
+    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C642">
         <v>13</v>
       </c>
@@ -42270,8 +45461,11 @@
       <c r="F642">
         <v>6.8894633729206803E-2</v>
       </c>
-    </row>
-    <row r="643" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G642">
+        <v>-0.12567407087079899</v>
+      </c>
+    </row>
+    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C643">
         <v>13</v>
       </c>
@@ -42284,8 +45478,11 @@
       <c r="F643">
         <v>5.8035942641171498E-2</v>
       </c>
-    </row>
-    <row r="644" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G643">
+        <v>-0.124553744911506</v>
+      </c>
+    </row>
+    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C644">
         <v>13</v>
       </c>
@@ -42298,8 +45495,11 @@
       <c r="F644">
         <v>8.2611141543294103E-2</v>
       </c>
-    </row>
-    <row r="645" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G644">
+        <v>-0.13403089123911799</v>
+      </c>
+    </row>
+    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C645">
         <v>13</v>
       </c>
@@ -42312,8 +45512,11 @@
       <c r="F645">
         <v>6.1682428736107298E-2</v>
       </c>
-    </row>
-    <row r="646" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G645">
+        <v>-0.13202634081244399</v>
+      </c>
+    </row>
+    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C646">
         <v>14</v>
       </c>
@@ -42326,8 +45529,11 @@
       <c r="F646">
         <v>5.5658696657305697E-2</v>
       </c>
-    </row>
-    <row r="647" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G646">
+        <v>-7.5316872670455198E-2</v>
+      </c>
+    </row>
+    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C647">
         <v>14</v>
       </c>
@@ -42340,8 +45546,11 @@
       <c r="F647">
         <v>5.5662122505568498E-2</v>
       </c>
-    </row>
-    <row r="648" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G647">
+        <v>-6.9130288684091504E-2</v>
+      </c>
+    </row>
+    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C648">
         <v>14</v>
       </c>
@@ -42354,8 +45563,11 @@
       <c r="F648">
         <v>7.08028662661849E-2</v>
       </c>
-    </row>
-    <row r="649" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G648">
+        <v>-5.5621383936076997E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C649">
         <v>14</v>
       </c>
@@ -42368,8 +45580,11 @@
       <c r="F649">
         <v>6.53709184675038E-2</v>
       </c>
-    </row>
-    <row r="650" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G649">
+        <v>-5.3727367859043702E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C650">
         <v>14</v>
       </c>
@@ -42382,8 +45597,11 @@
       <c r="F650">
         <v>6.1071548190322199E-2</v>
       </c>
-    </row>
-    <row r="651" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G650">
+        <v>-3.2267487405434898E-2</v>
+      </c>
+    </row>
+    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C651">
         <v>14</v>
       </c>
@@ -42396,8 +45614,11 @@
       <c r="F651">
         <v>5.5690374467772703E-2</v>
       </c>
-    </row>
-    <row r="652" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G651">
+        <v>-5.3696137977871101E-2</v>
+      </c>
+    </row>
+    <row r="652" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C652">
         <v>14</v>
       </c>
@@ -42410,8 +45631,11 @@
       <c r="F652">
         <v>5.7646528737387299E-2</v>
       </c>
-    </row>
-    <row r="653" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G652">
+        <v>-3.82585897521917E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C653">
         <v>14</v>
       </c>
@@ -42424,8 +45648,11 @@
       <c r="F653">
         <v>6.1657290376144903E-2</v>
       </c>
-    </row>
-    <row r="654" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G653">
+        <v>-6.9416800053539895E-2</v>
+      </c>
+    </row>
+    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C654">
         <v>14</v>
       </c>
@@ -42438,8 +45665,11 @@
       <c r="F654">
         <v>6.3427900712483401E-2</v>
       </c>
-    </row>
-    <row r="655" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G654">
+        <v>-7.32876999104667E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C655">
         <v>14</v>
       </c>
@@ -42452,8 +45682,11 @@
       <c r="F655">
         <v>4.9917596310703499E-2</v>
       </c>
-    </row>
-    <row r="656" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G655">
+        <v>-6.5393547858317899E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C656">
         <v>14</v>
       </c>
@@ -42466,8 +45699,11 @@
       <c r="F656">
         <v>5.3573238594773899E-2</v>
       </c>
-    </row>
-    <row r="657" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G656">
+        <v>-4.3945132013600501E-2</v>
+      </c>
+    </row>
+    <row r="657" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C657">
         <v>14</v>
       </c>
@@ -42480,8 +45716,11 @@
       <c r="F657">
         <v>4.7792378057769702E-2</v>
       </c>
-    </row>
-    <row r="658" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G657">
+        <v>4.9381478940292E-3</v>
+      </c>
+    </row>
+    <row r="658" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C658">
         <v>14</v>
       </c>
@@ -42494,8 +45733,11 @@
       <c r="F658">
         <v>5.1674954346636902E-2</v>
       </c>
-    </row>
-    <row r="659" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G658">
+        <v>-1.08855558097583E-2</v>
+      </c>
+    </row>
+    <row r="659" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C659">
         <v>14</v>
       </c>
@@ -42508,8 +45750,11 @@
       <c r="F659">
         <v>4.83288579305872E-2</v>
       </c>
-    </row>
-    <row r="660" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G659">
+        <v>-2.0454973332862E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C660">
         <v>14</v>
       </c>
@@ -42522,8 +45767,11 @@
       <c r="F660">
         <v>5.3572157267804801E-2</v>
       </c>
-    </row>
-    <row r="661" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G660">
+        <v>-2.0548190729616E-2</v>
+      </c>
+    </row>
+    <row r="661" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C661">
         <v>14</v>
       </c>
@@ -42536,8 +45784,11 @@
       <c r="F661">
         <v>4.9752544713412901E-2</v>
       </c>
-    </row>
-    <row r="662" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G661">
+        <v>-1.08033835948299E-2</v>
+      </c>
+    </row>
+    <row r="662" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C662">
         <v>14</v>
       </c>
@@ -42550,8 +45801,11 @@
       <c r="F662">
         <v>5.90963964582982E-2</v>
       </c>
-    </row>
-    <row r="663" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G662">
+        <v>-8.7853590550423695E-3</v>
+      </c>
+    </row>
+    <row r="663" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C663">
         <v>14</v>
       </c>
@@ -42564,8 +45818,11 @@
       <c r="F663">
         <v>5.2296941550155698E-2</v>
       </c>
-    </row>
-    <row r="664" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G663">
+        <v>-1.84060246619096E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C664">
         <v>14</v>
       </c>
@@ -42578,8 +45835,11 @@
       <c r="F664">
         <v>6.2016144122125097E-2</v>
       </c>
-    </row>
-    <row r="665" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G664">
+        <v>-2.9555327792959401E-3</v>
+      </c>
+    </row>
+    <row r="665" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C665">
         <v>14</v>
       </c>
@@ -42592,8 +45852,11 @@
       <c r="F665">
         <v>5.1250302793753803E-2</v>
       </c>
-    </row>
-    <row r="666" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G665">
+        <v>1.2748567021522101E-2</v>
+      </c>
+    </row>
+    <row r="666" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C666">
         <v>14</v>
       </c>
@@ -42606,8 +45869,11 @@
       <c r="F666">
         <v>5.71974193018105E-2</v>
       </c>
-    </row>
-    <row r="667" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G666">
+        <v>-8.8349926379710994E-3</v>
+      </c>
+    </row>
+    <row r="667" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C667">
         <v>14</v>
       </c>
@@ -42620,8 +45886,11 @@
       <c r="F667">
         <v>5.95935415715559E-2</v>
       </c>
-    </row>
-    <row r="668" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G667">
+        <v>-1.6713696449251799E-2</v>
+      </c>
+    </row>
+    <row r="668" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C668">
         <v>14</v>
       </c>
@@ -42634,8 +45903,11 @@
       <c r="F668">
         <v>5.22584111352936E-2</v>
       </c>
-    </row>
-    <row r="669" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G668">
+        <v>-1.4779954539186201E-2</v>
+      </c>
+    </row>
+    <row r="669" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C669">
         <v>15</v>
       </c>
@@ -42648,8 +45920,11 @@
       <c r="F669">
         <v>4.92379538976844E-2</v>
       </c>
-    </row>
-    <row r="670" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G669">
+        <v>-0.13061274837005099</v>
+      </c>
+    </row>
+    <row r="670" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C670">
         <v>15</v>
       </c>
@@ -42662,8 +45937,11 @@
       <c r="F670">
         <v>5.3115513169217698E-2</v>
       </c>
-    </row>
-    <row r="671" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G670">
+        <v>-0.14082351365311099</v>
+      </c>
+    </row>
+    <row r="671" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C671">
         <v>15</v>
       </c>
@@ -42676,8 +45954,11 @@
       <c r="F671">
         <v>4.9184541949384201E-2</v>
       </c>
-    </row>
-    <row r="672" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G671">
+        <v>-0.129040974024108</v>
+      </c>
+    </row>
+    <row r="672" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C672">
         <v>15</v>
       </c>
@@ -42690,8 +45971,11 @@
       <c r="F672">
         <v>4.8293296951768497E-2</v>
       </c>
-    </row>
-    <row r="673" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G672">
+        <v>-0.119344726272095</v>
+      </c>
+    </row>
+    <row r="673" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C673">
         <v>15</v>
       </c>
@@ -42704,8 +45988,11 @@
       <c r="F673">
         <v>4.4351693417594498E-2</v>
       </c>
-    </row>
-    <row r="674" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G673">
+        <v>-0.124251697240319</v>
+      </c>
+    </row>
+    <row r="674" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C674">
         <v>15</v>
       </c>
@@ -42718,8 +46005,11 @@
       <c r="F674">
         <v>3.1842850820668699E-2</v>
       </c>
-    </row>
-    <row r="675" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G674">
+        <v>-0.14104528473487599</v>
+      </c>
+    </row>
+    <row r="675" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C675">
         <v>15</v>
       </c>
@@ -42732,8 +46022,11 @@
       <c r="F675">
         <v>8.2727151072454694E-3</v>
       </c>
-    </row>
-    <row r="676" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G675">
+        <v>-0.118713242301209</v>
+      </c>
+    </row>
+    <row r="676" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C676">
         <v>15</v>
       </c>
@@ -42746,8 +46039,11 @@
       <c r="F676">
         <v>2.9704821458893398E-2</v>
       </c>
-    </row>
-    <row r="677" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G676">
+        <v>-0.116666229848023</v>
+      </c>
+    </row>
+    <row r="677" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C677">
         <v>15</v>
       </c>
@@ -42760,8 +46056,11 @@
       <c r="F677">
         <v>6.2050693510460997E-2</v>
       </c>
-    </row>
-    <row r="678" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G677">
+        <v>-0.14706008568006501</v>
+      </c>
+    </row>
+    <row r="678" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C678">
         <v>15</v>
       </c>
@@ -42774,8 +46073,11 @@
       <c r="F678">
         <v>2.2056250515775599E-2</v>
       </c>
-    </row>
-    <row r="679" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G678">
+        <v>-0.11298624452612301</v>
+      </c>
+    </row>
+    <row r="679" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C679">
         <v>15</v>
       </c>
@@ -42788,8 +46090,11 @@
       <c r="F679">
         <v>4.1335150609417497E-2</v>
       </c>
-    </row>
-    <row r="680" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G679">
+        <v>-0.13244078517151101</v>
+      </c>
+    </row>
+    <row r="680" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C680">
         <v>15</v>
       </c>
@@ -42802,8 +46107,11 @@
       <c r="F680">
         <v>6.6982253978841097E-2</v>
       </c>
-    </row>
-    <row r="681" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G680">
+        <v>-0.160653984246904</v>
+      </c>
+    </row>
+    <row r="681" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C681">
         <v>15</v>
       </c>
@@ -42816,8 +46124,11 @@
       <c r="F681">
         <v>3.0776880867251302E-2</v>
       </c>
-    </row>
-    <row r="682" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G681">
+        <v>-0.12145792054933501</v>
+      </c>
+    </row>
+    <row r="682" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C682">
         <v>15</v>
       </c>
@@ -42830,8 +46141,11 @@
       <c r="F682">
         <v>1.5174922281705701E-2</v>
       </c>
-    </row>
-    <row r="683" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G682">
+        <v>-0.12231572319852201</v>
+      </c>
+    </row>
+    <row r="683" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C683">
         <v>15</v>
       </c>
@@ -42844,8 +46158,11 @@
       <c r="F683">
         <v>4.8341746121576303E-2</v>
       </c>
-    </row>
-    <row r="684" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G683">
+        <v>-0.14730009705942201</v>
+      </c>
+    </row>
+    <row r="684" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C684">
         <v>15</v>
       </c>
@@ -42858,8 +46175,11 @@
       <c r="F684">
         <v>3.3764557863321297E-2</v>
       </c>
-    </row>
-    <row r="685" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G684">
+        <v>-0.134322956540149</v>
+      </c>
+    </row>
+    <row r="685" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C685">
         <v>15</v>
       </c>
@@ -42872,8 +46192,11 @@
       <c r="F685">
         <v>2.9783473373886898E-2</v>
       </c>
-    </row>
-    <row r="686" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G685">
+        <v>-0.11687639457677999</v>
+      </c>
+    </row>
+    <row r="686" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C686">
         <v>15</v>
       </c>
@@ -42886,8 +46209,11 @@
       <c r="F686">
         <v>1.7046988421868799E-2</v>
       </c>
-    </row>
-    <row r="687" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G686">
+        <v>-0.112090749151827</v>
+      </c>
+    </row>
+    <row r="687" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C687">
         <v>15</v>
       </c>
@@ -42900,8 +46226,11 @@
       <c r="F687">
         <v>3.1749172329924698E-2</v>
       </c>
-    </row>
-    <row r="688" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G687">
+        <v>-0.129623922813349</v>
+      </c>
+    </row>
+    <row r="688" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C688">
         <v>15</v>
       </c>
@@ -42914,8 +46243,11 @@
       <c r="F688">
         <v>3.7775087990451803E-2</v>
       </c>
-    </row>
-    <row r="689" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G688">
+        <v>-0.119416212505647</v>
+      </c>
+    </row>
+    <row r="689" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C689">
         <v>15</v>
       </c>
@@ -42928,8 +46260,11 @@
       <c r="F689">
         <v>6.6804428675744806E-2</v>
       </c>
-    </row>
-    <row r="690" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G689">
+        <v>-0.137537662184989</v>
+      </c>
+    </row>
+    <row r="690" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C690">
         <v>15</v>
       </c>
@@ -42942,8 +46277,11 @@
       <c r="F690">
         <v>5.6126825231966E-2</v>
       </c>
-    </row>
-    <row r="691" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G690">
+        <v>-0.14127423489695401</v>
+      </c>
+    </row>
+    <row r="691" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C691">
         <v>15</v>
       </c>
@@ -42955,6 +46293,9 @@
       </c>
       <c r="F691">
         <v>2.70267983481337E-2</v>
+      </c>
+      <c r="G691">
+        <v>-0.118891543930485</v>
       </c>
     </row>
   </sheetData>
